--- a/doc/Bericht/05_Technischer Bericht/03_Vorstudie/Frageboegen_Statistik.xlsx
+++ b/doc/Bericht/05_Technischer Bericht/03_Vorstudie/Frageboegen_Statistik.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="15315" windowHeight="12075" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="15315" windowHeight="12075" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Alle Abteilungen" sheetId="2" r:id="rId1"/>
     <sheet name="Raumplanung" sheetId="4" r:id="rId2"/>
     <sheet name="Elektrotechnik" sheetId="5" r:id="rId3"/>
     <sheet name="Erneuerbare Energien" sheetId="6" r:id="rId4"/>
+    <sheet name="Bauingenieur" sheetId="7" r:id="rId5"/>
+    <sheet name="Informatik" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="41">
   <si>
     <t>Informatik</t>
   </si>
@@ -132,6 +134,15 @@
   <si>
     <t>6.</t>
   </si>
+  <si>
+    <t>Auswertung Bauingenieur</t>
+  </si>
+  <si>
+    <t>Auswertung Informatik</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
 </sst>
 </file>
 
@@ -200,7 +211,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -208,11 +219,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -230,9 +278,12 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -245,9 +296,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -285,7 +336,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -357,7 +408,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -534,10 +585,10 @@
   <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.28515625" customWidth="1"/>
     <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
@@ -594,7 +645,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
@@ -713,7 +764,7 @@
       </c>
       <c r="B9" s="6">
         <f>SUM(B4:B6)</f>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
@@ -767,7 +818,7 @@
       </c>
       <c r="B11" s="4">
         <f>SUM(B9,E9,H9,K9,N9,Q9,T9)</f>
-        <v>100</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -870,11 +921,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="11" width="3.140625" customWidth="1"/>
@@ -973,7 +1024,7 @@
         <v>16</v>
       </c>
       <c r="N4">
-        <f>$B$3-SUMIF(B4:L4,0,$B$12:$L$12)</f>
+        <f t="shared" ref="N4:N11" si="0">$B$3-SUMIF(B4:L4,0,$B$12:$L$12)</f>
         <v>6</v>
       </c>
       <c r="O4" s="8">
@@ -1005,15 +1056,15 @@
         <v>2</v>
       </c>
       <c r="M5">
-        <f t="shared" ref="M5:M12" si="0">SUM(B5:L5)</f>
+        <f t="shared" ref="M5:M11" si="1">SUM(B5:L5)</f>
         <v>10</v>
       </c>
       <c r="N5">
-        <f>$B$3-SUMIF(B5:L5,0,$B$12:$L$12)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="O5" s="8">
-        <f t="shared" ref="O5:O11" si="1">M5/N5</f>
+        <f t="shared" ref="O5:O11" si="2">M5/N5</f>
         <v>1.6666666666666667</v>
       </c>
     </row>
@@ -1041,15 +1092,15 @@
         <v>3</v>
       </c>
       <c r="M6">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="N6">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="N6">
-        <f>$B$3-SUMIF(B6:L6,0,$B$12:$L$12)</f>
         <v>6</v>
       </c>
       <c r="O6" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3333333333333335</v>
       </c>
     </row>
@@ -1077,15 +1128,15 @@
         <v>3</v>
       </c>
       <c r="M7">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="N7">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="N7">
-        <f>$B$3-SUMIF(B7:L7,0,$B$12:$L$12)</f>
         <v>6</v>
       </c>
       <c r="O7" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.8333333333333335</v>
       </c>
     </row>
@@ -1113,15 +1164,15 @@
         <v>4</v>
       </c>
       <c r="M8">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="N8">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="N8">
-        <f>$B$3-SUMIF(B8:L8,0,$B$12:$L$12)</f>
         <v>6</v>
       </c>
       <c r="O8" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.1666666666666665</v>
       </c>
     </row>
@@ -1149,15 +1200,15 @@
         <v>2</v>
       </c>
       <c r="M9">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="N9">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="N9">
-        <f>$B$3-SUMIF(B9:L9,0,$B$12:$L$12)</f>
         <v>6</v>
       </c>
       <c r="O9" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1666666666666665</v>
       </c>
     </row>
@@ -1185,15 +1236,15 @@
         <v>1</v>
       </c>
       <c r="M10">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="N10">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="N10">
-        <f>$B$3-SUMIF(B10:L10,0,$B$12:$L$12)</f>
         <v>6</v>
       </c>
       <c r="O10" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1666666666666667</v>
       </c>
     </row>
@@ -1221,15 +1272,15 @@
         <v>4</v>
       </c>
       <c r="M11">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="N11">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="N11">
-        <f>$B$3-SUMIF(B11:L11,0,$B$12:$L$12)</f>
         <v>6</v>
       </c>
       <c r="O11" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -1321,10 +1372,10 @@
   <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.28515625" customWidth="1"/>
     <col min="2" max="11" width="3.140625" customWidth="1"/>
@@ -1409,7 +1460,7 @@
         <f>N15+N26+N36</f>
         <v>9</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O4" s="11">
         <f>M4/N4</f>
         <v>2.5555555555555554</v>
       </c>
@@ -1439,7 +1490,7 @@
         <f t="shared" ref="N5:N11" si="4">N16+N27+N37</f>
         <v>9</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="12">
         <f t="shared" ref="O5:O11" si="5">M5/N5</f>
         <v>1.5555555555555556</v>
       </c>
@@ -1469,7 +1520,7 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6" s="12">
         <f t="shared" si="5"/>
         <v>2.8888888888888888</v>
       </c>
@@ -1499,7 +1550,7 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O7" s="12">
         <f t="shared" si="5"/>
         <v>2.1111111111111112</v>
       </c>
@@ -1529,7 +1580,7 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="O8" s="8">
+      <c r="O8" s="12">
         <f t="shared" si="5"/>
         <v>2.5555555555555554</v>
       </c>
@@ -1559,7 +1610,7 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9" s="12">
         <f t="shared" si="5"/>
         <v>2.6666666666666665</v>
       </c>
@@ -1589,7 +1640,7 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="O10" s="8">
+      <c r="O10" s="12">
         <f t="shared" si="5"/>
         <v>1.6666666666666667</v>
       </c>
@@ -1619,7 +1670,7 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="O11" s="8">
+      <c r="O11" s="13">
         <f t="shared" si="5"/>
         <v>3.2222222222222223</v>
       </c>
@@ -1700,7 +1751,7 @@
         <v>9</v>
       </c>
       <c r="N15">
-        <f>$B$14-SUMIF(B15:L15,0,$B$23:$L$23)</f>
+        <f t="shared" ref="N15:N22" si="6">$B$14-SUMIF(B15:L15,0,$B$23:$L$23)</f>
         <v>4</v>
       </c>
       <c r="O15" s="8">
@@ -1726,15 +1777,15 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <f t="shared" ref="M16:M22" si="6">SUM(B16:L16)</f>
+        <f t="shared" ref="M16:M22" si="7">SUM(B16:L16)</f>
         <v>8</v>
       </c>
       <c r="N16">
-        <f>$B$14-SUMIF(B16:L16,0,$B$23:$L$23)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="O16" s="8">
-        <f t="shared" ref="O16:O22" si="7">M16/N16</f>
+        <f t="shared" ref="O16:O22" si="8">M16/N16</f>
         <v>2</v>
       </c>
     </row>
@@ -1756,15 +1807,15 @@
         <v>2</v>
       </c>
       <c r="M17">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="N17">
         <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="N17">
-        <f>$B$14-SUMIF(B17:L17,0,$B$23:$L$23)</f>
         <v>4</v>
       </c>
       <c r="O17" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.75</v>
       </c>
     </row>
@@ -1786,15 +1837,15 @@
         <v>3</v>
       </c>
       <c r="M18">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="N18">
         <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="N18">
-        <f>$B$14-SUMIF(B18:L18,0,$B$23:$L$23)</f>
         <v>4</v>
       </c>
       <c r="O18" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.25</v>
       </c>
     </row>
@@ -1816,15 +1867,15 @@
         <v>2</v>
       </c>
       <c r="M19">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="N19">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="N19">
-        <f>$B$14-SUMIF(B19:L19,0,$B$23:$L$23)</f>
         <v>4</v>
       </c>
       <c r="O19" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.5</v>
       </c>
     </row>
@@ -1846,15 +1897,15 @@
         <v>3</v>
       </c>
       <c r="M20">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="N20">
         <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="N20">
-        <f>$B$14-SUMIF(B20:L20,0,$B$23:$L$23)</f>
         <v>4</v>
       </c>
       <c r="O20" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.75</v>
       </c>
     </row>
@@ -1876,15 +1927,15 @@
         <v>1</v>
       </c>
       <c r="M21">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="N21">
         <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="N21">
-        <f>$B$14-SUMIF(B21:L21,0,$B$23:$L$23)</f>
         <v>4</v>
       </c>
       <c r="O21" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.5</v>
       </c>
     </row>
@@ -1906,15 +1957,15 @@
         <v>4</v>
       </c>
       <c r="M22">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="N22">
         <f t="shared" si="6"/>
-        <v>13</v>
-      </c>
-      <c r="N22">
-        <f>$B$14-SUMIF(B22:L22,0,$B$23:$L$23)</f>
         <v>4</v>
       </c>
       <c r="O22" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.25</v>
       </c>
     </row>
@@ -1998,7 +2049,7 @@
         <v>2</v>
       </c>
       <c r="N26">
-        <f>$B$25-SUMIF(B26:L26,0,$B$23:$L$23)</f>
+        <f t="shared" ref="N26:N33" si="9">$B$25-SUMIF(B26:L26,0,$B$23:$L$23)</f>
         <v>1</v>
       </c>
       <c r="O26" s="8">
@@ -2015,15 +2066,15 @@
         <v>2</v>
       </c>
       <c r="M27">
-        <f t="shared" ref="M27:M33" si="8">SUM(B27:L27)</f>
+        <f t="shared" ref="M27:M33" si="10">SUM(B27:L27)</f>
         <v>2</v>
       </c>
       <c r="N27">
-        <f>$B$25-SUMIF(B27:L27,0,$B$23:$L$23)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="O27" s="8">
-        <f t="shared" ref="O27:O33" si="9">M27/N27</f>
+        <f t="shared" ref="O27:O33" si="11">M27/N27</f>
         <v>2</v>
       </c>
     </row>
@@ -2036,15 +2087,15 @@
         <v>3</v>
       </c>
       <c r="M28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="N28">
-        <f>$B$25-SUMIF(B28:L28,0,$B$23:$L$23)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="O28" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
     </row>
@@ -2057,15 +2108,15 @@
         <v>2</v>
       </c>
       <c r="M29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="N29">
-        <f>$B$25-SUMIF(B29:L29,0,$B$23:$L$23)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="O29" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
@@ -2078,15 +2129,15 @@
         <v>4</v>
       </c>
       <c r="M30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="N30">
-        <f>$B$25-SUMIF(B30:L30,0,$B$23:$L$23)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="O30" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
     </row>
@@ -2099,15 +2150,15 @@
         <v>2</v>
       </c>
       <c r="M31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="N31">
-        <f>$B$25-SUMIF(B31:L31,0,$B$23:$L$23)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="O31" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
@@ -2120,15 +2171,15 @@
         <v>2</v>
       </c>
       <c r="M32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="N32">
-        <f>$B$25-SUMIF(B32:L32,0,$B$23:$L$23)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="O32" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
@@ -2141,15 +2192,15 @@
         <v>4</v>
       </c>
       <c r="M33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="N33">
-        <f>$B$25-SUMIF(B33:L33,0,$B$23:$L$23)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="O33" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
     </row>
@@ -2207,7 +2258,7 @@
         <v>12</v>
       </c>
       <c r="N36">
-        <f>$B$35-SUMIF(B36:L36,0,$B$23:$L$23)</f>
+        <f t="shared" ref="N36:N43" si="12">$B$35-SUMIF(B36:L36,0,$B$23:$L$23)</f>
         <v>4</v>
       </c>
       <c r="O36" s="8">
@@ -2233,15 +2284,15 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <f t="shared" ref="M37:M43" si="10">SUM(B37:L37)</f>
+        <f t="shared" ref="M37:M43" si="13">SUM(B37:L37)</f>
         <v>4</v>
       </c>
       <c r="N37">
-        <f>$B$35-SUMIF(B37:L37,0,$B$23:$L$23)</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="O37" s="8">
-        <f t="shared" ref="O37:O43" si="11">M37/N37</f>
+        <f t="shared" ref="O37:O43" si="14">M37/N37</f>
         <v>1</v>
       </c>
     </row>
@@ -2263,15 +2314,15 @@
         <v>2</v>
       </c>
       <c r="M38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="N38">
-        <f>$B$35-SUMIF(B38:L38,0,$B$23:$L$23)</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="O38" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
     </row>
@@ -2293,15 +2344,15 @@
         <v>3</v>
       </c>
       <c r="M39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="N39">
-        <f>$B$35-SUMIF(B39:L39,0,$B$23:$L$23)</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="O39" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
     </row>
@@ -2323,15 +2374,15 @@
         <v>2</v>
       </c>
       <c r="M40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="N40">
-        <f>$B$35-SUMIF(B40:L40,0,$B$23:$L$23)</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="O40" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2.25</v>
       </c>
     </row>
@@ -2353,15 +2404,15 @@
         <v>4</v>
       </c>
       <c r="M41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="N41">
-        <f>$B$35-SUMIF(B41:L41,0,$B$23:$L$23)</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="O41" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2.75</v>
       </c>
     </row>
@@ -2383,15 +2434,15 @@
         <v>4</v>
       </c>
       <c r="M42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="N42">
-        <f>$B$35-SUMIF(B42:L42,0,$B$23:$L$23)</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="O42" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.75</v>
       </c>
     </row>
@@ -2413,15 +2464,15 @@
         <v>4</v>
       </c>
       <c r="M43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="N43">
-        <f>$B$35-SUMIF(B43:L43,0,$B$23:$L$23)</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="O43" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
     </row>
@@ -2435,11 +2486,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.28515625" customWidth="1"/>
     <col min="2" max="11" width="3.140625" customWidth="1"/>
@@ -2502,17 +2553,25 @@
         <f>'Alle Abteilungen'!$A$15</f>
         <v>Sichtbarkeit der Poster</v>
       </c>
+      <c r="B4">
+        <f>M15</f>
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <f>M26</f>
+        <v>25</v>
+      </c>
       <c r="M4">
         <f>SUM(B4:L4)</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="N4">
         <f>N15+N26</f>
         <v>11</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O4" s="11">
         <f>M4/N4</f>
-        <v>0</v>
+        <v>2.6363636363636362</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -2520,17 +2579,25 @@
         <f>'Alle Abteilungen'!$A$16</f>
         <v>Sichtbarkeit der Broschüre</v>
       </c>
+      <c r="B5">
+        <f t="shared" ref="B5:B11" si="0">M16</f>
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C11" si="1">M27</f>
+        <v>13</v>
+      </c>
       <c r="M5">
-        <f t="shared" ref="M5:M11" si="0">SUM(B5:L5)</f>
-        <v>0</v>
+        <f t="shared" ref="M5:M11" si="2">SUM(B5:L5)</f>
+        <v>16</v>
       </c>
       <c r="N5">
         <f>N16+N27</f>
         <v>11</v>
       </c>
-      <c r="O5" s="8">
-        <f t="shared" ref="O5:O11" si="1">M5/N5</f>
-        <v>0</v>
+      <c r="O5" s="12">
+        <f t="shared" ref="O5:O11" si="3">M5/N5</f>
+        <v>1.4545454545454546</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -2538,17 +2605,25 @@
         <f>'Alle Abteilungen'!$A$17</f>
         <v>Wert der Präsentation</v>
       </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
       <c r="M6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>25</v>
       </c>
       <c r="N6">
-        <f t="shared" ref="N5:N11" si="2">N17+N28</f>
-        <v>11</v>
-      </c>
-      <c r="O6" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="N6:N11" si="4">N17+N28</f>
+        <v>8</v>
+      </c>
+      <c r="O6" s="12">
+        <f t="shared" si="3"/>
+        <v>3.125</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -2556,17 +2631,25 @@
         <f>'Alle Abteilungen'!$A$18</f>
         <v>Zeitaufwand</v>
       </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
       <c r="M7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>25</v>
       </c>
       <c r="N7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="O7" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="O7" s="12">
+        <f t="shared" si="3"/>
+        <v>2.2727272727272729</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -2574,17 +2657,25 @@
         <f>'Alle Abteilungen'!$A$19</f>
         <v>Qualität der Poster/Broschüre</v>
       </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
       <c r="M8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>31</v>
       </c>
       <c r="N8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="O8" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="O8" s="12">
+        <f t="shared" si="3"/>
+        <v>2.8181818181818183</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -2592,17 +2683,25 @@
         <f>'Alle Abteilungen'!$A$20</f>
         <v>Akzeptanz Video sehen</v>
       </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
       <c r="M9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>29</v>
       </c>
       <c r="N9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="O9" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="O9" s="12">
+        <f t="shared" si="3"/>
+        <v>2.6363636363636362</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -2610,17 +2709,25 @@
         <f>'Alle Abteilungen'!$A$21</f>
         <v>Akzeptanz Video produzieren</v>
       </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
       <c r="M10">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>25</v>
       </c>
       <c r="N10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="O10" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="O10" s="12">
+        <f t="shared" si="3"/>
+        <v>2.2727272727272729</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -2628,17 +2735,25 @@
         <f>'Alle Abteilungen'!$A$22</f>
         <v>Akzeptanz Video veröffentlichen</v>
       </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
       <c r="M11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>38</v>
       </c>
       <c r="N11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="O11" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="O11" s="13">
+        <f t="shared" si="3"/>
+        <v>3.4545454545454546</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -2700,17 +2815,23 @@
         <f>'Alle Abteilungen'!$A$15</f>
         <v>Sichtbarkeit der Poster</v>
       </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
       <c r="M15">
         <f>SUM(B15:L15)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N15">
-        <f>$B$14-SUMIF(B15:L15,0,$B$23:$L$23)</f>
+        <f t="shared" ref="N15:N22" si="5">$B$14-SUMIF(B15:L15,0,$B$23:$L$23)</f>
         <v>2</v>
       </c>
       <c r="O15" s="8">
         <f>M15/N15</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -2718,17 +2839,23 @@
         <f>'Alle Abteilungen'!$A$16</f>
         <v>Sichtbarkeit der Broschüre</v>
       </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
       <c r="M16">
-        <f t="shared" ref="M16:M22" si="3">SUM(B16:L16)</f>
-        <v>0</v>
+        <f t="shared" ref="M16:M22" si="6">SUM(B16:L16)</f>
+        <v>3</v>
       </c>
       <c r="N16">
-        <f>$B$14-SUMIF(B16:L16,0,$B$23:$L$23)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="O16" s="8">
-        <f t="shared" ref="O16:O22" si="4">M16/N16</f>
-        <v>0</v>
+        <f t="shared" ref="O16:O22" si="7">M16/N16</f>
+        <v>1.5</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -2736,17 +2863,23 @@
         <f>'Alle Abteilungen'!$A$17</f>
         <v>Wert der Präsentation</v>
       </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
       <c r="M17">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="N17">
-        <f>$B$14-SUMIF(B17:L17,0,$B$23:$L$23)</f>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="O17" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -2754,17 +2887,23 @@
         <f>'Alle Abteilungen'!$A$18</f>
         <v>Zeitaufwand</v>
       </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
       <c r="M18">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="N18">
-        <f>$B$14-SUMIF(B18:L18,0,$B$23:$L$23)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="O18" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -2772,17 +2911,23 @@
         <f>'Alle Abteilungen'!$A$19</f>
         <v>Qualität der Poster/Broschüre</v>
       </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
       <c r="M19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>6</v>
       </c>
       <c r="N19">
-        <f>$B$14-SUMIF(B19:L19,0,$B$23:$L$23)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="O19" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -2790,17 +2935,23 @@
         <f>'Alle Abteilungen'!$A$20</f>
         <v>Akzeptanz Video sehen</v>
       </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
       <c r="M20">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>6</v>
       </c>
       <c r="N20">
-        <f>$B$14-SUMIF(B20:L20,0,$B$23:$L$23)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="O20" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -2808,17 +2959,23 @@
         <f>'Alle Abteilungen'!$A$21</f>
         <v>Akzeptanz Video produzieren</v>
       </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
       <c r="M21">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="N21">
-        <f>$B$14-SUMIF(B21:L21,0,$B$23:$L$23)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="O21" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>2.5</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -2826,17 +2983,23 @@
         <f>'Alle Abteilungen'!$A$22</f>
         <v>Akzeptanz Video veröffentlichen</v>
       </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
       <c r="M22">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>7</v>
       </c>
       <c r="N22">
-        <f>$B$14-SUMIF(B22:L22,0,$B$23:$L$23)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="O22" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>3.5</v>
       </c>
     </row>
     <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
@@ -2911,17 +3074,44 @@
         <f>'Alle Abteilungen'!$A$15</f>
         <v>Sichtbarkeit der Poster</v>
       </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="J26">
+        <v>4</v>
+      </c>
       <c r="M26">
         <f>SUM(B26:L26)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N26">
-        <f>$B$25-SUMIF(B26:L26,0,$B$23:$L$23)</f>
+        <f t="shared" ref="N26:N33" si="8">$B$25-SUMIF(B26:L26,0,$B$23:$L$23)</f>
         <v>9</v>
       </c>
       <c r="O26" s="8">
         <f>M26/N26</f>
-        <v>0</v>
+        <v>2.7777777777777777</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -2929,17 +3119,44 @@
         <f>'Alle Abteilungen'!$A$16</f>
         <v>Sichtbarkeit der Broschüre</v>
       </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
       <c r="M27">
-        <f t="shared" ref="M27:M33" si="5">SUM(B27:L27)</f>
-        <v>0</v>
+        <f t="shared" ref="M27:M33" si="9">SUM(B27:L27)</f>
+        <v>13</v>
       </c>
       <c r="N27">
-        <f>$B$25-SUMIF(B27:L27,0,$B$23:$L$23)</f>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="O27" s="8">
-        <f t="shared" ref="O27:O33" si="6">M27/N27</f>
-        <v>0</v>
+        <f t="shared" ref="O27:O33" si="10">M27/N27</f>
+        <v>1.4444444444444444</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -2947,17 +3164,44 @@
         <f>'Alle Abteilungen'!$A$17</f>
         <v>Wert der Präsentation</v>
       </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <v>4</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
       <c r="M28">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>23</v>
       </c>
       <c r="N28">
-        <f>$B$25-SUMIF(B28:L28,0,$B$23:$L$23)</f>
-        <v>9</v>
+        <f t="shared" si="8"/>
+        <v>7</v>
       </c>
       <c r="O28" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>3.2857142857142856</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -2965,17 +3209,44 @@
         <f>'Alle Abteilungen'!$A$18</f>
         <v>Zeitaufwand</v>
       </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>4</v>
+      </c>
+      <c r="H29">
+        <v>4</v>
+      </c>
+      <c r="I29">
+        <v>3</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
       <c r="M29">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>21</v>
       </c>
       <c r="N29">
-        <f>$B$25-SUMIF(B29:L29,0,$B$23:$L$23)</f>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="O29" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>2.3333333333333335</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -2983,17 +3254,44 @@
         <f>'Alle Abteilungen'!$A$19</f>
         <v>Qualität der Poster/Broschüre</v>
       </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30">
+        <v>3</v>
+      </c>
+      <c r="J30">
+        <v>3</v>
+      </c>
       <c r="M30">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>25</v>
       </c>
       <c r="N30">
-        <f>$B$25-SUMIF(B30:L30,0,$B$23:$L$23)</f>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="O30" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>2.7777777777777777</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -3001,17 +3299,44 @@
         <f>'Alle Abteilungen'!$A$20</f>
         <v>Akzeptanz Video sehen</v>
       </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <v>4</v>
+      </c>
+      <c r="H31">
+        <v>4</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
       <c r="M31">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>23</v>
       </c>
       <c r="N31">
-        <f>$B$25-SUMIF(B31:L31,0,$B$23:$L$23)</f>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="O31" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>2.5555555555555554</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -3019,17 +3344,44 @@
         <f>'Alle Abteilungen'!$A$21</f>
         <v>Akzeptanz Video produzieren</v>
       </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+      <c r="H32">
+        <v>4</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
       <c r="M32">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>20</v>
       </c>
       <c r="N32">
-        <f>$B$25-SUMIF(B32:L32,0,$B$23:$L$23)</f>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="O32" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>2.2222222222222223</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -3037,21 +3389,2521 @@
         <f>'Alle Abteilungen'!$A$22</f>
         <v>Akzeptanz Video veröffentlichen</v>
       </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <v>4</v>
+      </c>
+      <c r="H33">
+        <v>4</v>
+      </c>
+      <c r="I33">
+        <v>3</v>
+      </c>
+      <c r="J33">
+        <v>4</v>
+      </c>
       <c r="M33">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>31</v>
       </c>
       <c r="N33">
-        <f>$B$25-SUMIF(B33:L33,0,$B$23:$L$23)</f>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="O33" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>3.4444444444444446</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.28515625" customWidth="1"/>
+    <col min="2" max="11" width="3.140625" customWidth="1"/>
+    <col min="12" max="12" width="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="9">
+        <f>'Alle Abteilungen'!E9</f>
+        <v>4</v>
+      </c>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="M3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="str">
+        <f>'Alle Abteilungen'!$A$15</f>
+        <v>Sichtbarkeit der Poster</v>
+      </c>
+      <c r="B4">
+        <f>M15</f>
+        <v>10</v>
+      </c>
+      <c r="M4">
+        <f>SUM(B4:L4)</f>
+        <v>10</v>
+      </c>
+      <c r="N4">
+        <f>N15+N26</f>
+        <v>4</v>
+      </c>
+      <c r="O4" s="11">
+        <f>M4/N4</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="str">
+        <f>'Alle Abteilungen'!$A$16</f>
+        <v>Sichtbarkeit der Broschüre</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ref="B5:B11" si="0">M16</f>
+        <v>9</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:M11" si="1">SUM(B5:L5)</f>
+        <v>9</v>
+      </c>
+      <c r="N5">
+        <f>N16+N27</f>
+        <v>4</v>
+      </c>
+      <c r="O5" s="12">
+        <f t="shared" ref="O5:O11" si="2">M5/N5</f>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="str">
+        <f>'Alle Abteilungen'!$A$17</f>
+        <v>Wert der Präsentation</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="N6">
+        <f t="shared" ref="N6:N11" si="3">N17+N28</f>
+        <v>4</v>
+      </c>
+      <c r="O6" s="12">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="str">
+        <f>'Alle Abteilungen'!$A$18</f>
+        <v>Zeitaufwand</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="O7" s="12">
+        <f t="shared" si="2"/>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="str">
+        <f>'Alle Abteilungen'!$A$19</f>
+        <v>Qualität der Poster/Broschüre</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="O8" s="12">
+        <f t="shared" si="2"/>
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="str">
+        <f>'Alle Abteilungen'!$A$20</f>
+        <v>Akzeptanz Video sehen</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="O9" s="12">
+        <f t="shared" si="2"/>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="str">
+        <f>'Alle Abteilungen'!$A$21</f>
+        <v>Akzeptanz Video produzieren</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="O10" s="12">
+        <f t="shared" si="2"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="str">
+        <f>'Alle Abteilungen'!$A$22</f>
+        <v>Akzeptanz Video veröffentlichen</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="O11" s="13">
+        <f t="shared" si="2"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="str">
+        <f>'Alle Abteilungen'!D4</f>
+        <v>4. Semester</v>
+      </c>
+      <c r="B14" s="9">
+        <f>'Alle Abteilungen'!E4</f>
+        <v>4</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="M14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="str">
+        <f>'Alle Abteilungen'!$A$15</f>
+        <v>Sichtbarkeit der Poster</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <f>SUM(B15:L15)</f>
+        <v>10</v>
+      </c>
+      <c r="N15">
+        <f t="shared" ref="N15:N22" si="4">$B$14-SUMIF(B15:L15,0,$B$23:$L$23)</f>
+        <v>4</v>
+      </c>
+      <c r="O15" s="8">
+        <f>M15/N15</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="str">
+        <f>'Alle Abteilungen'!$A$16</f>
+        <v>Sichtbarkeit der Broschüre</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <f t="shared" ref="M16:M22" si="5">SUM(B16:L16)</f>
+        <v>9</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="O16" s="8">
+        <f t="shared" ref="O16:O22" si="6">M16/N16</f>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="str">
+        <f>'Alle Abteilungen'!$A$17</f>
+        <v>Wert der Präsentation</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="O17" s="8">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="str">
+        <f>'Alle Abteilungen'!$A$18</f>
+        <v>Zeitaufwand</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="O18" s="8">
+        <f t="shared" si="6"/>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="str">
+        <f>'Alle Abteilungen'!$A$19</f>
+        <v>Qualität der Poster/Broschüre</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="O19" s="8">
+        <f t="shared" si="6"/>
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="str">
+        <f>'Alle Abteilungen'!$A$20</f>
+        <v>Akzeptanz Video sehen</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="O20" s="8">
+        <f t="shared" si="6"/>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="str">
+        <f>'Alle Abteilungen'!$A$21</f>
+        <v>Akzeptanz Video produzieren</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="O21" s="8">
+        <f t="shared" si="6"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="str">
+        <f>'Alle Abteilungen'!$A$22</f>
+        <v>Akzeptanz Video veröffentlichen</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="O22" s="8">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="M25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="str">
+        <f>'Alle Abteilungen'!$A$15</f>
+        <v>Sichtbarkeit der Poster</v>
+      </c>
+      <c r="M26">
+        <f>SUM(B26:L26)</f>
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <f t="shared" ref="N26:N33" si="7">$B$25-SUMIF(B26:L26,0,$B$23:$L$23)</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="8" t="e">
+        <f>M26/N26</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="str">
+        <f>'Alle Abteilungen'!$A$16</f>
+        <v>Sichtbarkeit der Broschüre</v>
+      </c>
+      <c r="M27">
+        <f t="shared" ref="M27:M33" si="8">SUM(B27:L27)</f>
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="8" t="e">
+        <f t="shared" ref="O27:O33" si="9">M27/N27</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="str">
+        <f>'Alle Abteilungen'!$A$17</f>
+        <v>Wert der Präsentation</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="8" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="str">
+        <f>'Alle Abteilungen'!$A$18</f>
+        <v>Zeitaufwand</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="8" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="str">
+        <f>'Alle Abteilungen'!$A$19</f>
+        <v>Qualität der Poster/Broschüre</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="8" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="str">
+        <f>'Alle Abteilungen'!$A$20</f>
+        <v>Akzeptanz Video sehen</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="8" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="str">
+        <f>'Alle Abteilungen'!$A$21</f>
+        <v>Akzeptanz Video produzieren</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="8" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="str">
+        <f>'Alle Abteilungen'!$A$22</f>
+        <v>Akzeptanz Video veröffentlichen</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="8" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.28515625" customWidth="1"/>
+    <col min="2" max="22" width="3.140625" customWidth="1"/>
+    <col min="23" max="23" width="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="9">
+        <f>'Alle Abteilungen'!B9</f>
+        <v>31</v>
+      </c>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="str">
+        <f>'Alle Abteilungen'!$A$15</f>
+        <v>Sichtbarkeit der Poster</v>
+      </c>
+      <c r="B4">
+        <f>X14</f>
+        <v>38</v>
+      </c>
+      <c r="C4">
+        <f>X25</f>
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <f>X35</f>
+        <v>20</v>
+      </c>
+      <c r="X4">
+        <f>SUM(B4:W4)</f>
+        <v>62</v>
+      </c>
+      <c r="Y4">
+        <f>Y14+Y25</f>
+        <v>22</v>
+      </c>
+      <c r="Z4" s="11">
+        <f>X4/Y4</f>
+        <v>2.8181818181818183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="str">
+        <f>'Alle Abteilungen'!$A$16</f>
+        <v>Sichtbarkeit der Broschüre</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ref="B5:B11" si="0">X15</f>
+        <v>32</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C11" si="1">X26</f>
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D11" si="2">X36</f>
+        <v>20</v>
+      </c>
+      <c r="X5">
+        <f t="shared" ref="X5:X11" si="3">SUM(B5:W5)</f>
+        <v>53</v>
+      </c>
+      <c r="Y5">
+        <f>Y15+Y26</f>
+        <v>22</v>
+      </c>
+      <c r="Z5" s="12">
+        <f t="shared" ref="Z5:Z11" si="4">X5/Y5</f>
+        <v>2.4090909090909092</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="str">
+        <f>'Alle Abteilungen'!$A$17</f>
+        <v>Wert der Präsentation</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="3"/>
+        <v>83</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" ref="Y6:Y11" si="5">Y16+Y27</f>
+        <v>22</v>
+      </c>
+      <c r="Z6" s="12">
+        <f t="shared" si="4"/>
+        <v>3.7727272727272729</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="str">
+        <f>'Alle Abteilungen'!$A$18</f>
+        <v>Zeitaufwand</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>48.5</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="3"/>
+        <v>72.5</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="Z7" s="12">
+        <f t="shared" si="4"/>
+        <v>3.4523809523809526</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="str">
+        <f>'Alle Abteilungen'!$A$19</f>
+        <v>Qualität der Poster/Broschüre</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="Z8" s="12">
+        <f t="shared" si="4"/>
+        <v>3.9473684210526314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="str">
+        <f>'Alle Abteilungen'!$A$20</f>
+        <v>Akzeptanz Video sehen</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="3"/>
+        <v>83</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="Z9" s="12">
+        <f t="shared" si="4"/>
+        <v>3.9523809523809526</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="str">
+        <f>'Alle Abteilungen'!$A$21</f>
+        <v>Akzeptanz Video produzieren</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>47.5</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="3"/>
+        <v>68.5</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="Z10" s="12">
+        <f t="shared" si="4"/>
+        <v>3.2619047619047619</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="str">
+        <f>'Alle Abteilungen'!$A$22</f>
+        <v>Akzeptanz Video veröffentlichen</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="Z11" s="13">
+        <f t="shared" si="4"/>
+        <v>4.3636363636363633</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="W12" s="6"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="str">
+        <f>'Alle Abteilungen'!A4</f>
+        <v>2. Semester</v>
+      </c>
+      <c r="B13" s="9">
+        <f>'Alle Abteilungen'!B4</f>
+        <v>21</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="X13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z13" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="str">
+        <f>'Alle Abteilungen'!$A$15</f>
+        <v>Sichtbarkeit der Poster</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="N14">
+        <v>2</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>3</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>2</v>
+      </c>
+      <c r="T14">
+        <v>2</v>
+      </c>
+      <c r="U14">
+        <v>2</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <f>SUM(B14:W14)</f>
+        <v>38</v>
+      </c>
+      <c r="Y14">
+        <f>$B$13-SUMIF(B14:W14,0,$B$22:$W$22)</f>
+        <v>21</v>
+      </c>
+      <c r="Z14" s="8">
+        <f>X14/Y14</f>
+        <v>1.8095238095238095</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="str">
+        <f>'Alle Abteilungen'!$A$16</f>
+        <v>Sichtbarkeit der Broschüre</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>3</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>4</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>2</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <f t="shared" ref="X15:X21" si="6">SUM(B15:W15)</f>
+        <v>32</v>
+      </c>
+      <c r="Y15">
+        <f>$B$13-SUMIF(B15:W15,0,$B$22:$W$22)</f>
+        <v>21</v>
+      </c>
+      <c r="Z15" s="8">
+        <f t="shared" ref="Z15:Z21" si="7">X15/Y15</f>
+        <v>1.5238095238095237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="str">
+        <f>'Alle Abteilungen'!$A$17</f>
+        <v>Wert der Präsentation</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>3</v>
+      </c>
+      <c r="M16">
+        <v>3</v>
+      </c>
+      <c r="N16">
+        <v>3</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>2</v>
+      </c>
+      <c r="Q16">
+        <v>4</v>
+      </c>
+      <c r="R16">
+        <v>2</v>
+      </c>
+      <c r="S16">
+        <v>4</v>
+      </c>
+      <c r="T16">
+        <v>4</v>
+      </c>
+      <c r="U16">
+        <v>3</v>
+      </c>
+      <c r="V16">
+        <v>2</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="6"/>
+        <v>57</v>
+      </c>
+      <c r="Y16">
+        <f>$B$13-SUMIF(B16:W16,0,$B$22:$W$22)</f>
+        <v>21</v>
+      </c>
+      <c r="Z16" s="8">
+        <f t="shared" si="7"/>
+        <v>2.7142857142857144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="str">
+        <f>'Alle Abteilungen'!$A$18</f>
+        <v>Zeitaufwand</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>1.5</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <v>2</v>
+      </c>
+      <c r="O17">
+        <v>2</v>
+      </c>
+      <c r="P17">
+        <v>4</v>
+      </c>
+      <c r="Q17">
+        <v>2</v>
+      </c>
+      <c r="R17">
+        <v>3</v>
+      </c>
+      <c r="S17">
+        <v>3</v>
+      </c>
+      <c r="T17">
+        <v>2</v>
+      </c>
+      <c r="U17">
+        <v>2</v>
+      </c>
+      <c r="V17">
+        <v>3</v>
+      </c>
+      <c r="X17">
+        <f>SUM(B17:W17)</f>
+        <v>48.5</v>
+      </c>
+      <c r="Y17">
+        <f>$B$13-SUMIF(B17:W17,0,$B$22:$W$22)</f>
+        <v>20</v>
+      </c>
+      <c r="Z17" s="8">
+        <f t="shared" si="7"/>
+        <v>2.4249999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="str">
+        <f>'Alle Abteilungen'!$A$19</f>
+        <v>Qualität der Poster/Broschüre</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>3</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>3</v>
+      </c>
+      <c r="Q18">
+        <v>3</v>
+      </c>
+      <c r="R18">
+        <v>2</v>
+      </c>
+      <c r="S18">
+        <v>4</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>3</v>
+      </c>
+      <c r="V18">
+        <v>2</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="6"/>
+        <v>47</v>
+      </c>
+      <c r="Y18">
+        <f>$B$13-SUMIF(B18:W18,0,$B$22:$W$22)</f>
+        <v>18</v>
+      </c>
+      <c r="Z18" s="8">
+        <f t="shared" si="7"/>
+        <v>2.6111111111111112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="str">
+        <f>'Alle Abteilungen'!$A$20</f>
+        <v>Akzeptanz Video sehen</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>3</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>4</v>
+      </c>
+      <c r="O19">
+        <v>3</v>
+      </c>
+      <c r="P19">
+        <v>4</v>
+      </c>
+      <c r="Q19">
+        <v>3</v>
+      </c>
+      <c r="R19">
+        <v>3</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>2</v>
+      </c>
+      <c r="U19">
+        <v>2</v>
+      </c>
+      <c r="V19">
+        <v>2</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="6"/>
+        <v>54</v>
+      </c>
+      <c r="Y19">
+        <f>$B$13-SUMIF(B19:W19,0,$B$22:$W$22)</f>
+        <v>20</v>
+      </c>
+      <c r="Z19" s="8">
+        <f t="shared" si="7"/>
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="str">
+        <f>'Alle Abteilungen'!$A$21</f>
+        <v>Akzeptanz Video produzieren</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>2.5</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="N20">
+        <v>3</v>
+      </c>
+      <c r="O20">
+        <v>3</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>2</v>
+      </c>
+      <c r="R20">
+        <v>3</v>
+      </c>
+      <c r="S20">
+        <v>4</v>
+      </c>
+      <c r="T20">
+        <v>3</v>
+      </c>
+      <c r="U20">
+        <v>2</v>
+      </c>
+      <c r="V20">
+        <v>3</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="6"/>
+        <v>47.5</v>
+      </c>
+      <c r="Y20">
+        <f>$B$13-SUMIF(B20:W20,0,$B$22:$W$22)</f>
+        <v>20</v>
+      </c>
+      <c r="Z20" s="8">
+        <f t="shared" si="7"/>
+        <v>2.375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="str">
+        <f>'Alle Abteilungen'!$A$22</f>
+        <v>Akzeptanz Video veröffentlichen</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
+      </c>
+      <c r="H21">
+        <v>4</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>4</v>
+      </c>
+      <c r="M21">
+        <v>2</v>
+      </c>
+      <c r="N21">
+        <v>3</v>
+      </c>
+      <c r="O21">
+        <v>4</v>
+      </c>
+      <c r="P21">
+        <v>3</v>
+      </c>
+      <c r="Q21">
+        <v>4</v>
+      </c>
+      <c r="R21">
+        <v>4</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>2</v>
+      </c>
+      <c r="U21">
+        <v>3</v>
+      </c>
+      <c r="V21">
+        <v>4</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+      <c r="Y21">
+        <f>$B$13-SUMIF(B21:W21,0,$B$22:$W$22)</f>
+        <v>21</v>
+      </c>
+      <c r="Z21" s="8">
+        <f t="shared" si="7"/>
+        <v>3.1428571428571428</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="8"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="str">
+        <f>'Alle Abteilungen'!A5</f>
+        <v>3. Semester</v>
+      </c>
+      <c r="B24" s="9">
+        <f>'Alle Abteilungen'!B5</f>
+        <v>1</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="X24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y24" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z24" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="str">
+        <f>'Alle Abteilungen'!$A$15</f>
+        <v>Sichtbarkeit der Poster</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="X25">
+        <f>SUM(B25:W25)</f>
+        <v>4</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" ref="Y25:Y32" si="8">$B$24-SUMIF(B25:W25,0,$B$22:$W$22)</f>
+        <v>1</v>
+      </c>
+      <c r="Z25" s="8">
+        <f>X25/Y25</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="str">
+        <f>'Alle Abteilungen'!$A$16</f>
+        <v>Sichtbarkeit der Broschüre</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="X26">
+        <f t="shared" ref="X26:X32" si="9">SUM(B26:W26)</f>
+        <v>1</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Z26" s="8">
+        <f t="shared" ref="Z26:Z32" si="10">X26/Y26</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="str">
+        <f>'Alle Abteilungen'!$A$17</f>
+        <v>Wert der Präsentation</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Z27" s="8">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="str">
+        <f>'Alle Abteilungen'!$A$18</f>
+        <v>Zeitaufwand</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Z28" s="8">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="str">
+        <f>'Alle Abteilungen'!$A$19</f>
+        <v>Qualität der Poster/Broschüre</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Z29" s="8">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="str">
+        <f>'Alle Abteilungen'!$A$20</f>
+        <v>Akzeptanz Video sehen</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Z30" s="8">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="str">
+        <f>'Alle Abteilungen'!$A$21</f>
+        <v>Akzeptanz Video produzieren</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Z31" s="8">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="str">
+        <f>'Alle Abteilungen'!$A$22</f>
+        <v>Akzeptanz Video veröffentlichen</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Z32" s="8">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="str">
+        <f>'Alle Abteilungen'!A6</f>
+        <v>4. Semester</v>
+      </c>
+      <c r="B34" s="9">
+        <f>'Alle Abteilungen'!B6</f>
+        <v>9</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="6"/>
+      <c r="U34" s="6"/>
+      <c r="X34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z34" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="str">
+        <f>'Alle Abteilungen'!$A$15</f>
+        <v>Sichtbarkeit der Poster</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="J35">
+        <v>3</v>
+      </c>
+      <c r="X35">
+        <f>SUM(B35:W35)</f>
+        <v>20</v>
+      </c>
+      <c r="Y35">
+        <f>$B$34-SUMIF(B35:W35,0,$B$22:$W$22)</f>
+        <v>9</v>
+      </c>
+      <c r="Z35" s="8">
+        <f>X35/Y35</f>
+        <v>2.2222222222222223</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="str">
+        <f>'Alle Abteilungen'!$A$16</f>
+        <v>Sichtbarkeit der Broschüre</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>4</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>3</v>
+      </c>
+      <c r="I36">
+        <v>3</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="X36">
+        <f t="shared" ref="X36:X42" si="11">SUM(B36:W36)</f>
+        <v>20</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" ref="Y36:Y42" si="12">$B$34-SUMIF(B36:W36,0,$B$22:$W$22)</f>
+        <v>9</v>
+      </c>
+      <c r="Z36" s="8">
+        <f t="shared" ref="Z36:Z42" si="13">X36/Y36</f>
+        <v>2.2222222222222223</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="str">
+        <f>'Alle Abteilungen'!$A$17</f>
+        <v>Wert der Präsentation</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="I37">
+        <v>4</v>
+      </c>
+      <c r="J37">
+        <v>2</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="11"/>
+        <v>24</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="Z37" s="8">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="str">
+        <f>'Alle Abteilungen'!$A$18</f>
+        <v>Zeitaufwand</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="G38">
+        <v>3</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>2</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="11"/>
+        <v>22</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="Z38" s="8">
+        <f t="shared" si="13"/>
+        <v>2.4444444444444446</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="str">
+        <f>'Alle Abteilungen'!$A$19</f>
+        <v>Qualität der Poster/Broschüre</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39">
+        <v>4</v>
+      </c>
+      <c r="I39">
+        <v>4</v>
+      </c>
+      <c r="J39">
+        <v>3</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="11"/>
+        <v>26</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="Z39" s="8">
+        <f t="shared" si="13"/>
+        <v>2.8888888888888888</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="str">
+        <f>'Alle Abteilungen'!$A$20</f>
+        <v>Akzeptanz Video sehen</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40">
+        <v>4</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
+      </c>
+      <c r="G40">
+        <v>3</v>
+      </c>
+      <c r="H40">
+        <v>3</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>2</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="11"/>
+        <v>26</v>
+      </c>
+      <c r="Y40">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="Z40" s="8">
+        <f t="shared" si="13"/>
+        <v>2.8888888888888888</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="str">
+        <f>'Alle Abteilungen'!$A$21</f>
+        <v>Akzeptanz Video produzieren</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>2</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="Y41">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="Z41" s="8">
+        <f t="shared" si="13"/>
+        <v>2.1111111111111112</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="str">
+        <f>'Alle Abteilungen'!$A$22</f>
+        <v>Akzeptanz Video veröffentlichen</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42">
+        <v>4</v>
+      </c>
+      <c r="E42">
+        <v>4</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <v>3</v>
+      </c>
+      <c r="H42">
+        <v>3</v>
+      </c>
+      <c r="I42">
+        <v>4</v>
+      </c>
+      <c r="J42">
+        <v>2</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="11"/>
+        <v>28</v>
+      </c>
+      <c r="Y42">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="Z42" s="8">
+        <f t="shared" si="13"/>
+        <v>3.1111111111111112</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/Bericht/05_Technischer Bericht/03_Vorstudie/Frageboegen_Statistik.xlsx
+++ b/doc/Bericht/05_Technischer Bericht/03_Vorstudie/Frageboegen_Statistik.xlsx
@@ -891,33 +891,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>EEU!$O$4:$O$11</c:f>
+              <c:f>EEU!$S$4:$S$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.5</c:v>
+                  <c:v>2.35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7142857142857142</c:v>
+                  <c:v>1.65</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.2727272727272729</c:v>
+                  <c:v>3.0588235294117645</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2857142857142856</c:v>
+                  <c:v>2.4500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.6428571428571428</c:v>
+                  <c:v>2.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.6071428571428572</c:v>
+                  <c:v>2.625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.3214285714285716</c:v>
+                  <c:v>2.2749999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.4285714285714284</c:v>
+                  <c:v>3.55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1014,11 +1014,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="47815296"/>
-        <c:axId val="48390528"/>
+        <c:axId val="107421696"/>
+        <c:axId val="107423232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="47815296"/>
+        <c:axId val="107421696"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1028,7 +1028,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48390528"/>
+        <c:crossAx val="107423232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1037,7 +1037,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="48390528"/>
+        <c:axId val="107423232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -1100,7 +1100,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47815296"/>
+        <c:crossAx val="107421696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -1255,11 +1255,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="99972992"/>
-        <c:axId val="99974528"/>
+        <c:axId val="109329408"/>
+        <c:axId val="109335296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="99972992"/>
+        <c:axId val="109329408"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1269,7 +1269,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99974528"/>
+        <c:crossAx val="109335296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1278,7 +1278,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99974528"/>
+        <c:axId val="109335296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -1341,7 +1341,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99972992"/>
+        <c:crossAx val="109329408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -1744,11 +1744,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="73775744"/>
-        <c:axId val="73798016"/>
+        <c:axId val="109400064"/>
+        <c:axId val="109401600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="73775744"/>
+        <c:axId val="109400064"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1758,7 +1758,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73798016"/>
+        <c:crossAx val="109401600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1767,7 +1767,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73798016"/>
+        <c:axId val="109401600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -1830,7 +1830,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73775744"/>
+        <c:crossAx val="109400064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -1985,11 +1985,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="72986624"/>
-        <c:axId val="72988160"/>
+        <c:axId val="109430656"/>
+        <c:axId val="109432192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="72986624"/>
+        <c:axId val="109430656"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1999,7 +1999,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72988160"/>
+        <c:crossAx val="109432192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2008,7 +2008,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72988160"/>
+        <c:axId val="109432192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -2071,7 +2071,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72986624"/>
+        <c:crossAx val="109430656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -2218,33 +2218,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>EEU!$O$4:$O$11</c:f>
+              <c:f>EEU!$S$4:$S$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.5</c:v>
+                  <c:v>2.35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7142857142857142</c:v>
+                  <c:v>1.65</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.2727272727272729</c:v>
+                  <c:v>3.0588235294117645</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2857142857142856</c:v>
+                  <c:v>2.4500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.6428571428571428</c:v>
+                  <c:v>2.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.6071428571428572</c:v>
+                  <c:v>2.625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.3214285714285716</c:v>
+                  <c:v>2.2749999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.4285714285714284</c:v>
+                  <c:v>3.55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2299,7 +2299,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>EEU!$O$15:$O$22</c:f>
+              <c:f>EEU!$S$15:$S$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2380,33 +2380,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>EEU!$O$26:$O$33</c:f>
+              <c:f>EEU!$S$26:$S$33</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.7777777777777777</c:v>
+                  <c:v>2.4666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4444444444444444</c:v>
+                  <c:v>1.4666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.2857142857142856</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3333333333333335</c:v>
+                  <c:v>2.5333333333333332</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7777777777777777</c:v>
+                  <c:v>2.6666666666666665</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5555555555555554</c:v>
+                  <c:v>2.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.2222222222222223</c:v>
+                  <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.4444444444444446</c:v>
+                  <c:v>3.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2422,11 +2422,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="48184704"/>
-        <c:axId val="48194688"/>
+        <c:axId val="111806336"/>
+        <c:axId val="111807872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="48184704"/>
+        <c:axId val="111806336"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2436,7 +2436,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48194688"/>
+        <c:crossAx val="111807872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2445,7 +2445,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="48194688"/>
+        <c:axId val="111807872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -2508,7 +2508,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48184704"/>
+        <c:crossAx val="111806336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -2626,33 +2626,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>EEU!$O$4:$O$11</c:f>
+              <c:f>EEU!$S$4:$S$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.5</c:v>
+                  <c:v>2.35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7142857142857142</c:v>
+                  <c:v>1.65</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.2727272727272729</c:v>
+                  <c:v>3.0588235294117645</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2857142857142856</c:v>
+                  <c:v>2.4500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.6428571428571428</c:v>
+                  <c:v>2.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.6071428571428572</c:v>
+                  <c:v>2.625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.3214285714285716</c:v>
+                  <c:v>2.2749999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.4285714285714284</c:v>
+                  <c:v>3.55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2668,11 +2668,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="45876736"/>
-        <c:axId val="45878272"/>
+        <c:axId val="111853568"/>
+        <c:axId val="111855104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="45876736"/>
+        <c:axId val="111853568"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2682,7 +2682,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45878272"/>
+        <c:crossAx val="111855104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2691,7 +2691,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45878272"/>
+        <c:axId val="111855104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -2754,7 +2754,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45876736"/>
+        <c:crossAx val="111853568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -3067,11 +3067,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="45206528"/>
-        <c:axId val="45229184"/>
+        <c:axId val="116626176"/>
+        <c:axId val="116627712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="45206528"/>
+        <c:axId val="116626176"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -3081,7 +3081,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45229184"/>
+        <c:crossAx val="116627712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3090,7 +3090,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45229184"/>
+        <c:axId val="116627712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -3153,7 +3153,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45206528"/>
+        <c:crossAx val="116626176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -3308,11 +3308,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="48866816"/>
-        <c:axId val="48868352"/>
+        <c:axId val="116652672"/>
+        <c:axId val="116330880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="48866816"/>
+        <c:axId val="116652672"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -3322,7 +3322,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48868352"/>
+        <c:crossAx val="116330880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3331,7 +3331,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="48868352"/>
+        <c:axId val="116330880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -3394,7 +3394,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48866816"/>
+        <c:crossAx val="116652672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -3544,28 +3544,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.4093264248704664</c:v>
+                  <c:v>2.3969849246231156</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.854922279792746</c:v>
+                  <c:v>1.8442211055276383</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9135135135135135</c:v>
+                  <c:v>2.9057591623036649</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3743455497382198</c:v>
+                  <c:v>2.3883248730964466</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7340425531914891</c:v>
+                  <c:v>2.7268041237113403</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.6256544502617802</c:v>
+                  <c:v>2.6269035532994924</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9371727748691099</c:v>
+                  <c:v>1.9441624365482233</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.0103626943005182</c:v>
+                  <c:v>3.0351758793969847</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3581,11 +3581,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="124605568"/>
-        <c:axId val="125244160"/>
+        <c:axId val="107448576"/>
+        <c:axId val="107470848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="124605568"/>
+        <c:axId val="107448576"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -3595,7 +3595,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125244160"/>
+        <c:crossAx val="107470848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3604,7 +3604,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="125244160"/>
+        <c:axId val="107470848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -3667,7 +3667,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124605568"/>
+        <c:crossAx val="107448576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -4013,11 +4013,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="109960192"/>
-        <c:axId val="110314240"/>
+        <c:axId val="107521920"/>
+        <c:axId val="107523456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="109960192"/>
+        <c:axId val="107521920"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -4027,7 +4027,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110314240"/>
+        <c:crossAx val="107523456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4036,7 +4036,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110314240"/>
+        <c:axId val="107523456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -4099,7 +4099,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109960192"/>
+        <c:crossAx val="107521920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -4254,11 +4254,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="125246464"/>
-        <c:axId val="110146304"/>
+        <c:axId val="109192704"/>
+        <c:axId val="109194240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="125246464"/>
+        <c:axId val="109192704"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -4268,7 +4268,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110146304"/>
+        <c:crossAx val="109194240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4277,7 +4277,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110146304"/>
+        <c:axId val="109194240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -4340,7 +4340,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125246464"/>
+        <c:crossAx val="109192704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -4772,11 +4772,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="105511168"/>
-        <c:axId val="105558016"/>
+        <c:axId val="109263488"/>
+        <c:axId val="109277568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="105511168"/>
+        <c:axId val="109263488"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -4786,7 +4786,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105558016"/>
+        <c:crossAx val="109277568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4795,7 +4795,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105558016"/>
+        <c:axId val="109277568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -4858,7 +4858,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105511168"/>
+        <c:crossAx val="109263488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -5013,11 +5013,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="109180800"/>
-        <c:axId val="109182336"/>
+        <c:axId val="109302528"/>
+        <c:axId val="109304064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="109180800"/>
+        <c:axId val="109302528"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -5027,7 +5027,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109182336"/>
+        <c:crossAx val="109304064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5036,7 +5036,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109182336"/>
+        <c:axId val="109304064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -5099,7 +5099,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109180800"/>
+        <c:crossAx val="109302528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -5450,11 +5450,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="99021184"/>
-        <c:axId val="99022720"/>
+        <c:axId val="108972672"/>
+        <c:axId val="108974464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="99021184"/>
+        <c:axId val="108972672"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -5464,7 +5464,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99022720"/>
+        <c:crossAx val="108974464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5473,7 +5473,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99022720"/>
+        <c:axId val="108974464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -5536,7 +5536,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99021184"/>
+        <c:crossAx val="108972672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -5691,11 +5691,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="99895168"/>
-        <c:axId val="99972608"/>
+        <c:axId val="109003136"/>
+        <c:axId val="109004672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="99895168"/>
+        <c:axId val="109003136"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -5705,7 +5705,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99972608"/>
+        <c:crossAx val="109004672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5714,7 +5714,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99972608"/>
+        <c:axId val="109004672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -5777,7 +5777,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99895168"/>
+        <c:crossAx val="109003136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -6180,11 +6180,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="80409728"/>
-        <c:axId val="80411264"/>
+        <c:axId val="109155456"/>
+        <c:axId val="109156992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="80409728"/>
+        <c:axId val="109155456"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -6194,7 +6194,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80411264"/>
+        <c:crossAx val="109156992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6203,7 +6203,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80411264"/>
+        <c:axId val="109156992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -6266,7 +6266,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80409728"/>
+        <c:crossAx val="109155456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -6708,13 +6708,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>361951</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -6740,13 +6740,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>342901</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
@@ -7131,8 +7131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7271,7 +7271,7 @@
         <v>1</v>
       </c>
       <c r="T4">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="V4" t="s">
         <v>1</v>
@@ -7315,7 +7315,7 @@
       </c>
       <c r="B6" s="16">
         <f>SUM(W6,E6,H6,K6,N6,Q6,T6)</f>
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
@@ -7360,7 +7360,7 @@
       </c>
       <c r="T6" s="9">
         <f>SUM(T3:T5)</f>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="V6" s="6" t="s">
         <v>21</v>
@@ -7427,20 +7427,20 @@
         <v>121</v>
       </c>
       <c r="S10">
-        <f>EEU!M4</f>
-        <v>35</v>
+        <f>EEU!Q4</f>
+        <v>47</v>
       </c>
       <c r="V10">
         <f>Informatik!W4</f>
         <v>82</v>
       </c>
       <c r="X10">
-        <f>Bauingenieurwesen!X4+Landschaftsarchitektur!R4+Raumplanung!N4+Elektrotechnik!P4+Maschinentechnik!Z4+EEU!N4+Informatik!X4</f>
-        <v>193</v>
+        <f>Bauingenieurwesen!X4+Landschaftsarchitektur!R4+Raumplanung!N4+Elektrotechnik!P4+Maschinentechnik!Z4+EEU!R4+Informatik!X4</f>
+        <v>199</v>
       </c>
       <c r="Y10" s="12">
         <f>(D10+G10+J10+M10+P10+S10+V10)/X10</f>
-        <v>2.4093264248704664</v>
+        <v>2.3969849246231156</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -7468,20 +7468,20 @@
         <v>94</v>
       </c>
       <c r="S11">
-        <f>EEU!M5</f>
-        <v>24</v>
+        <f>EEU!Q5</f>
+        <v>33</v>
       </c>
       <c r="V11">
         <f>Informatik!W5</f>
         <v>68</v>
       </c>
       <c r="X11">
-        <f>Bauingenieurwesen!X5+Landschaftsarchitektur!R5+Raumplanung!N5+Elektrotechnik!P5+Maschinentechnik!Z5+EEU!N5+Informatik!X5</f>
-        <v>193</v>
+        <f>Bauingenieurwesen!X5+Landschaftsarchitektur!R5+Raumplanung!N5+Elektrotechnik!P5+Maschinentechnik!Z5+EEU!R5+Informatik!X5</f>
+        <v>199</v>
       </c>
       <c r="Y11" s="12">
         <f t="shared" ref="Y11:Y17" si="0">(D11+G11+J11+M11+P11+S11+V11)/X11</f>
-        <v>1.854922279792746</v>
+        <v>1.8442211055276383</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -7509,20 +7509,20 @@
         <v>142</v>
       </c>
       <c r="S12">
-        <f>EEU!M6</f>
-        <v>36</v>
+        <f>EEU!Q6</f>
+        <v>52</v>
       </c>
       <c r="V12">
         <f>Informatik!W6</f>
         <v>108</v>
       </c>
       <c r="X12">
-        <f>Bauingenieurwesen!X6+Landschaftsarchitektur!R6+Raumplanung!N6+Elektrotechnik!P6+Maschinentechnik!Z6+EEU!N6+Informatik!X6</f>
-        <v>185</v>
+        <f>Bauingenieurwesen!X6+Landschaftsarchitektur!R6+Raumplanung!N6+Elektrotechnik!P6+Maschinentechnik!Z6+EEU!R6+Informatik!X6</f>
+        <v>191</v>
       </c>
       <c r="Y12" s="12">
         <f t="shared" si="0"/>
-        <v>2.9135135135135135</v>
+        <v>2.9057591623036649</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -7550,20 +7550,20 @@
         <v>108</v>
       </c>
       <c r="S13">
-        <f>EEU!M7</f>
-        <v>32</v>
+        <f>EEU!Q7</f>
+        <v>49</v>
       </c>
       <c r="V13">
         <f>Informatik!W7</f>
         <v>91.5</v>
       </c>
       <c r="X13">
-        <f>Bauingenieurwesen!X7+Landschaftsarchitektur!R7+Raumplanung!N7+Elektrotechnik!P7+Maschinentechnik!Z7+EEU!N7+Informatik!X7</f>
-        <v>191</v>
+        <f>Bauingenieurwesen!X7+Landschaftsarchitektur!R7+Raumplanung!N7+Elektrotechnik!P7+Maschinentechnik!Z7+EEU!R7+Informatik!X7</f>
+        <v>197</v>
       </c>
       <c r="Y13" s="12">
         <f t="shared" si="0"/>
-        <v>2.3743455497382198</v>
+        <v>2.3883248730964466</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -7591,20 +7591,20 @@
         <v>134</v>
       </c>
       <c r="S14">
-        <f>EEU!M8</f>
-        <v>37</v>
+        <f>EEU!Q8</f>
+        <v>52</v>
       </c>
       <c r="V14">
         <f>Informatik!W8</f>
         <v>91</v>
       </c>
       <c r="X14">
-        <f>Bauingenieurwesen!X8+Landschaftsarchitektur!R8+Raumplanung!N8+Elektrotechnik!P8+Maschinentechnik!Z8+EEU!N8+Informatik!X8</f>
-        <v>188</v>
+        <f>Bauingenieurwesen!X8+Landschaftsarchitektur!R8+Raumplanung!N8+Elektrotechnik!P8+Maschinentechnik!Z8+EEU!R8+Informatik!X8</f>
+        <v>194</v>
       </c>
       <c r="Y14" s="12">
         <f t="shared" si="0"/>
-        <v>2.7340425531914891</v>
+        <v>2.7268041237113403</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -7632,20 +7632,20 @@
         <v>131</v>
       </c>
       <c r="S15">
-        <f>EEU!M9</f>
-        <v>36.5</v>
+        <f>EEU!Q9</f>
+        <v>52.5</v>
       </c>
       <c r="V15">
         <f>Informatik!W9</f>
         <v>108</v>
       </c>
       <c r="X15">
-        <f>Bauingenieurwesen!X9+Landschaftsarchitektur!R9+Raumplanung!N9+Elektrotechnik!P9+Maschinentechnik!Z9+EEU!N9+Informatik!X9</f>
-        <v>191</v>
+        <f>Bauingenieurwesen!X9+Landschaftsarchitektur!R9+Raumplanung!N9+Elektrotechnik!P9+Maschinentechnik!Z9+EEU!R9+Informatik!X9</f>
+        <v>197</v>
       </c>
       <c r="Y15" s="12">
         <f t="shared" si="0"/>
-        <v>2.6256544502617802</v>
+        <v>2.6269035532994924</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -7673,20 +7673,20 @@
         <v>95</v>
       </c>
       <c r="S16">
-        <f>EEU!M10</f>
-        <v>32.5</v>
+        <f>EEU!Q10</f>
+        <v>45.5</v>
       </c>
       <c r="V16">
         <f>Informatik!W10</f>
         <v>84.5</v>
       </c>
       <c r="X16">
-        <f>Bauingenieurwesen!X10+Landschaftsarchitektur!R10+Raumplanung!N10+Elektrotechnik!P10+Maschinentechnik!Z10+EEU!N10+Informatik!X10</f>
-        <v>191</v>
+        <f>Bauingenieurwesen!X10+Landschaftsarchitektur!R10+Raumplanung!N10+Elektrotechnik!P10+Maschinentechnik!Z10+EEU!R10+Informatik!X10</f>
+        <v>197</v>
       </c>
       <c r="Y16" s="12">
         <f t="shared" si="0"/>
-        <v>1.9371727748691099</v>
+        <v>1.9441624365482233</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
@@ -7714,20 +7714,20 @@
         <v>136</v>
       </c>
       <c r="S17">
-        <f>EEU!M11</f>
-        <v>48</v>
+        <f>EEU!Q11</f>
+        <v>71</v>
       </c>
       <c r="V17">
         <f>Informatik!W11</f>
         <v>124</v>
       </c>
       <c r="X17">
-        <f>Bauingenieurwesen!X11+Landschaftsarchitektur!R11+Raumplanung!N11+Elektrotechnik!P11+Maschinentechnik!Z11+EEU!N11+Informatik!X11</f>
-        <v>193</v>
+        <f>Bauingenieurwesen!X11+Landschaftsarchitektur!R11+Raumplanung!N11+Elektrotechnik!P11+Maschinentechnik!Z11+EEU!R11+Informatik!X11</f>
+        <v>199</v>
       </c>
       <c r="Y17" s="13">
         <f t="shared" si="0"/>
-        <v>3.0103626943005182</v>
+        <v>3.0351758793969847</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
@@ -7787,7 +7787,7 @@
   <dimension ref="A1:Y34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AL19" sqref="AL19"/>
+      <selection activeCell="AK15" sqref="AK15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7873,7 +7873,7 @@
         <v>59</v>
       </c>
       <c r="W4">
-        <f>SUM(B4:V4)</f>
+        <f t="shared" ref="W4:W11" si="0">SUM(B4:V4)</f>
         <v>69</v>
       </c>
       <c r="X4">
@@ -7891,15 +7891,15 @@
         <v>Sichtbarkeit der Broschüre</v>
       </c>
       <c r="B5">
-        <f t="shared" ref="B5:B11" si="0">W16</f>
+        <f t="shared" ref="B5:B11" si="1">W16</f>
         <v>9</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:C11" si="1">W27</f>
+        <f t="shared" ref="C5:C11" si="2">W27</f>
         <v>54</v>
       </c>
       <c r="W5">
-        <f>SUM(B5:V5)</f>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="X5">
@@ -7907,7 +7907,7 @@
         <v>25</v>
       </c>
       <c r="Y5" s="12">
-        <f t="shared" ref="Y5:Y11" si="2">W5/X5</f>
+        <f t="shared" ref="Y5:Y11" si="3">W5/X5</f>
         <v>2.52</v>
       </c>
     </row>
@@ -7917,23 +7917,23 @@
         <v>Wert der Präsentation</v>
       </c>
       <c r="B6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="W6">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="1"/>
-        <v>59</v>
-      </c>
-      <c r="W6">
-        <f>SUM(B6:V6)</f>
         <v>65</v>
       </c>
       <c r="X6">
-        <f t="shared" ref="X6:X11" si="3">X17+X28</f>
+        <f t="shared" ref="X6:X11" si="4">X17+X28</f>
         <v>25</v>
       </c>
       <c r="Y6" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.6</v>
       </c>
     </row>
@@ -7943,23 +7943,23 @@
         <v>Zeitaufwand</v>
       </c>
       <c r="B7">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="W7">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="W7">
-        <f>SUM(B7:V7)</f>
         <v>57</v>
       </c>
       <c r="X7">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="Y7" s="12">
         <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="Y7" s="12">
-        <f t="shared" si="2"/>
         <v>2.2799999999999998</v>
       </c>
     </row>
@@ -7969,23 +7969,23 @@
         <v>Qualität der Poster/Broschüre</v>
       </c>
       <c r="B8">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="W8">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="1"/>
-        <v>56</v>
-      </c>
-      <c r="W8">
-        <f>SUM(B8:V8)</f>
         <v>67</v>
       </c>
       <c r="X8">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="Y8" s="12">
         <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="Y8" s="12">
-        <f t="shared" si="2"/>
         <v>2.68</v>
       </c>
     </row>
@@ -7995,23 +7995,23 @@
         <v>Akzeptanz Video sehen</v>
       </c>
       <c r="B9">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="W9">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="W9">
-        <f>SUM(B9:V9)</f>
         <v>56</v>
       </c>
       <c r="X9">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="Y9" s="12">
         <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="Y9" s="12">
-        <f t="shared" si="2"/>
         <v>2.2400000000000002</v>
       </c>
     </row>
@@ -8021,23 +8021,23 @@
         <v>Akzeptanz Video produzieren</v>
       </c>
       <c r="B10">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="W10">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="W10">
-        <f>SUM(B10:V10)</f>
-        <v>31</v>
-      </c>
-      <c r="X10">
+      <c r="Y10" s="12">
         <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="Y10" s="12">
-        <f t="shared" si="2"/>
         <v>1.2916666666666667</v>
       </c>
     </row>
@@ -8047,23 +8047,23 @@
         <v>Akzeptanz Video veröffentlichen</v>
       </c>
       <c r="B11">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="W11">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-      <c r="W11">
-        <f>SUM(B11:V11)</f>
         <v>63</v>
       </c>
       <c r="X11">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="Y11" s="13">
         <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="Y11" s="13">
-        <f t="shared" si="2"/>
         <v>2.52</v>
       </c>
     </row>
@@ -8169,11 +8169,11 @@
         <v>2</v>
       </c>
       <c r="W15">
-        <f>SUM(B15:V15)</f>
+        <f t="shared" ref="W15:W22" si="5">SUM(B15:V15)</f>
         <v>10</v>
       </c>
       <c r="X15">
-        <f>$B$14-SUMIF(B15:V15,0,$B$23:$V$23)</f>
+        <f t="shared" ref="X15:X22" si="6">$B$14-SUMIF(B15:V15,0,$B$23:$V$23)</f>
         <v>4</v>
       </c>
       <c r="Y15" s="8">
@@ -8199,15 +8199,15 @@
         <v>2</v>
       </c>
       <c r="W16">
-        <f>SUM(B16:V16)</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="X16">
-        <f>$B$14-SUMIF(B16:V16,0,$B$23:$V$23)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="Y16" s="8">
-        <f t="shared" ref="Y16:Y22" si="4">W16/X16</f>
+        <f t="shared" ref="Y16:Y22" si="7">W16/X16</f>
         <v>2.25</v>
       </c>
     </row>
@@ -8229,15 +8229,15 @@
         <v>1</v>
       </c>
       <c r="W17">
-        <f>SUM(B17:V17)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="X17">
-        <f>$B$14-SUMIF(B17:V17,0,$B$23:$V$23)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="Y17" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.5</v>
       </c>
     </row>
@@ -8259,15 +8259,15 @@
         <v>2</v>
       </c>
       <c r="W18">
-        <f>SUM(B18:V18)</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="X18">
-        <f>$B$14-SUMIF(B18:V18,0,$B$23:$V$23)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="Y18" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
     </row>
@@ -8289,15 +8289,15 @@
         <v>3</v>
       </c>
       <c r="W19">
-        <f>SUM(B19:V19)</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="X19">
-        <f>$B$14-SUMIF(B19:V19,0,$B$23:$V$23)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="Y19" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.75</v>
       </c>
     </row>
@@ -8319,15 +8319,15 @@
         <v>1</v>
       </c>
       <c r="W20">
-        <f>SUM(B20:V20)</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="X20">
-        <f>$B$14-SUMIF(B20:V20,0,$B$23:$V$23)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="Y20" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
     </row>
@@ -8349,15 +8349,15 @@
         <v>1</v>
       </c>
       <c r="W21">
-        <f>SUM(B21:V21)</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="X21">
-        <f>$B$14-SUMIF(B21:V21,0,$B$23:$V$23)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="Y21" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.75</v>
       </c>
     </row>
@@ -8379,15 +8379,15 @@
         <v>4</v>
       </c>
       <c r="W22">
-        <f>SUM(B22:V22)</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="X22">
-        <f>$B$14-SUMIF(B22:V22,0,$B$23:$V$23)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="Y22" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.5</v>
       </c>
     </row>
@@ -8570,11 +8570,11 @@
         <v>2</v>
       </c>
       <c r="W26">
-        <f>SUM(B26:V26)</f>
+        <f t="shared" ref="W26:W33" si="8">SUM(B26:V26)</f>
         <v>59</v>
       </c>
       <c r="X26">
-        <f>$B$25-SUMIF(B26:V26,0,$B$23:$V$23)</f>
+        <f t="shared" ref="X26:X33" si="9">$B$25-SUMIF(B26:V26,0,$B$23:$V$23)</f>
         <v>21</v>
       </c>
       <c r="Y26" s="8">
@@ -8651,15 +8651,15 @@
         <v>1</v>
       </c>
       <c r="W27">
-        <f>SUM(B27:V27)</f>
+        <f t="shared" si="8"/>
         <v>54</v>
       </c>
       <c r="X27">
-        <f>$B$25-SUMIF(B27:V27,0,$B$23:$V$23)</f>
+        <f t="shared" si="9"/>
         <v>21</v>
       </c>
       <c r="Y27" s="8">
-        <f t="shared" ref="Y27:Y33" si="5">W27/X27</f>
+        <f t="shared" ref="Y27:Y33" si="10">W27/X27</f>
         <v>2.5714285714285716</v>
       </c>
     </row>
@@ -8732,15 +8732,15 @@
         <v>2</v>
       </c>
       <c r="W28">
-        <f>SUM(B28:V28)</f>
+        <f t="shared" si="8"/>
         <v>59</v>
       </c>
       <c r="X28">
-        <f>$B$25-SUMIF(B28:V28,0,$B$23:$V$23)</f>
+        <f t="shared" si="9"/>
         <v>21</v>
       </c>
       <c r="Y28" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2.8095238095238093</v>
       </c>
     </row>
@@ -8813,15 +8813,15 @@
         <v>2</v>
       </c>
       <c r="W29">
-        <f>SUM(B29:V29)</f>
+        <f t="shared" si="8"/>
         <v>48</v>
       </c>
       <c r="X29">
-        <f>$B$25-SUMIF(B29:V29,0,$B$23:$V$23)</f>
+        <f t="shared" si="9"/>
         <v>21</v>
       </c>
       <c r="Y29" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2.2857142857142856</v>
       </c>
     </row>
@@ -8894,15 +8894,15 @@
         <v>3</v>
       </c>
       <c r="W30">
-        <f>SUM(B30:V30)</f>
+        <f t="shared" si="8"/>
         <v>56</v>
       </c>
       <c r="X30">
-        <f>$B$25-SUMIF(B30:V30,0,$B$23:$V$23)</f>
+        <f t="shared" si="9"/>
         <v>21</v>
       </c>
       <c r="Y30" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2.6666666666666665</v>
       </c>
     </row>
@@ -8975,15 +8975,15 @@
         <v>2</v>
       </c>
       <c r="W31">
-        <f>SUM(B31:V31)</f>
+        <f t="shared" si="8"/>
         <v>47</v>
       </c>
       <c r="X31">
-        <f>$B$25-SUMIF(B31:V31,0,$B$23:$V$23)</f>
+        <f t="shared" si="9"/>
         <v>21</v>
       </c>
       <c r="Y31" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2.2380952380952381</v>
       </c>
     </row>
@@ -9056,15 +9056,15 @@
         <v>1</v>
       </c>
       <c r="W32">
-        <f>SUM(B32:V32)</f>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="X32">
-        <f>$B$25-SUMIF(B32:V32,0,$B$23:$V$23)</f>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="Y32" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.2</v>
       </c>
     </row>
@@ -9137,15 +9137,15 @@
         <v>2</v>
       </c>
       <c r="W33">
-        <f>SUM(B33:V33)</f>
+        <f t="shared" si="8"/>
         <v>49</v>
       </c>
       <c r="X33">
-        <f>$B$25-SUMIF(B33:V33,0,$B$23:$V$23)</f>
+        <f t="shared" si="9"/>
         <v>21</v>
       </c>
       <c r="Y33" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2.3333333333333335</v>
       </c>
     </row>
@@ -10525,7 +10525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="AB22" sqref="AB22"/>
     </sheetView>
   </sheetViews>
@@ -15499,23 +15499,23 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R48" sqref="R48"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.28515625" customWidth="1"/>
-    <col min="2" max="11" width="3.140625" customWidth="1"/>
-    <col min="12" max="12" width="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="15" width="3.140625" customWidth="1"/>
+    <col min="16" max="16" width="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>48</v>
       </c>
@@ -15529,12 +15529,16 @@
       <c r="G1" s="6"/>
       <c r="H1" s="9">
         <f>'Alle Abteilungen'!T6</f>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="6" t="s">
         <v>27</v>
@@ -15542,7 +15546,7 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>26</v>
       </c>
@@ -15553,69 +15557,69 @@
         <v>29</v>
       </c>
       <c r="D3" s="10"/>
-      <c r="M3" s="5" t="s">
+      <c r="Q3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="R3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
         <f>'Alle Abteilungen'!$A$10</f>
         <v>Sichtbarkeit der Poster</v>
       </c>
       <c r="B4">
-        <f>M15</f>
+        <f>Q15</f>
         <v>10</v>
       </c>
       <c r="C4">
-        <f>M26</f>
-        <v>25</v>
-      </c>
-      <c r="M4">
-        <f>SUM(B4:L4)</f>
-        <v>35</v>
-      </c>
-      <c r="N4">
-        <f>N15+N26</f>
-        <v>14</v>
-      </c>
-      <c r="O4" s="11">
-        <f>M4/N4</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <f>Q26</f>
+        <v>37</v>
+      </c>
+      <c r="Q4">
+        <f>SUM(B4:P4)</f>
+        <v>47</v>
+      </c>
+      <c r="R4">
+        <f>R15+R26</f>
+        <v>20</v>
+      </c>
+      <c r="S4" s="11">
+        <f>Q4/R4</f>
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f>'Alle Abteilungen'!$A$11</f>
         <v>Sichtbarkeit der Broschüre</v>
       </c>
       <c r="B5">
-        <f t="shared" ref="B5:B11" si="0">M16</f>
+        <f t="shared" ref="B5:B11" si="0">Q16</f>
         <v>11</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:C11" si="1">M27</f>
-        <v>13</v>
-      </c>
-      <c r="M5">
-        <f t="shared" ref="M5:M11" si="2">SUM(B5:L5)</f>
-        <v>24</v>
-      </c>
-      <c r="N5">
-        <f>N16+N27</f>
-        <v>14</v>
-      </c>
-      <c r="O5" s="12">
-        <f t="shared" ref="O5:O11" si="3">M5/N5</f>
-        <v>1.7142857142857142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C5:C11" si="1">Q27</f>
+        <v>22</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" ref="Q5:Q11" si="2">SUM(B5:P5)</f>
+        <v>33</v>
+      </c>
+      <c r="R5">
+        <f>R16+R27</f>
+        <v>20</v>
+      </c>
+      <c r="S5" s="12">
+        <f t="shared" ref="S5:S11" si="3">Q5/R5</f>
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f>'Alle Abteilungen'!$A$12</f>
         <v>Wert der Präsentation</v>
@@ -15626,22 +15630,22 @@
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="M6">
+        <v>39</v>
+      </c>
+      <c r="Q6">
         <f t="shared" si="2"/>
-        <v>36</v>
-      </c>
-      <c r="N6">
-        <f t="shared" ref="N6:N11" si="4">N17+N28</f>
-        <v>11</v>
-      </c>
-      <c r="O6" s="12">
+        <v>52</v>
+      </c>
+      <c r="R6">
+        <f t="shared" ref="R6:R11" si="4">R17+R28</f>
+        <v>17</v>
+      </c>
+      <c r="S6" s="12">
         <f t="shared" si="3"/>
-        <v>3.2727272727272729</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3.0588235294117645</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
         <f>'Alle Abteilungen'!$A$13</f>
         <v>Zeitaufwand</v>
@@ -15652,22 +15656,22 @@
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="M7">
+        <v>38</v>
+      </c>
+      <c r="Q7">
         <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="N7">
+        <v>49</v>
+      </c>
+      <c r="R7">
         <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-      <c r="O7" s="12">
+        <v>20</v>
+      </c>
+      <c r="S7" s="12">
         <f t="shared" si="3"/>
-        <v>2.2857142857142856</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f>'Alle Abteilungen'!$A$14</f>
         <v>Qualität der Poster/Broschüre</v>
@@ -15678,22 +15682,22 @@
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="M8">
+        <v>40</v>
+      </c>
+      <c r="Q8">
         <f t="shared" si="2"/>
-        <v>37</v>
-      </c>
-      <c r="N8">
+        <v>52</v>
+      </c>
+      <c r="R8">
         <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-      <c r="O8" s="12">
+        <v>20</v>
+      </c>
+      <c r="S8" s="12">
         <f t="shared" si="3"/>
-        <v>2.6428571428571428</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
         <f>'Alle Abteilungen'!$A$15</f>
         <v>Akzeptanz Video sehen</v>
@@ -15704,22 +15708,22 @@
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="M9">
+        <v>39</v>
+      </c>
+      <c r="Q9">
         <f t="shared" si="2"/>
-        <v>36.5</v>
-      </c>
-      <c r="N9">
+        <v>52.5</v>
+      </c>
+      <c r="R9">
         <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-      <c r="O9" s="12">
+        <v>20</v>
+      </c>
+      <c r="S9" s="12">
         <f t="shared" si="3"/>
-        <v>2.6071428571428572</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2.625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
         <f>'Alle Abteilungen'!$A$16</f>
         <v>Akzeptanz Video produzieren</v>
@@ -15730,22 +15734,22 @@
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="2"/>
+        <v>45.5</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="M10">
-        <f t="shared" si="2"/>
-        <v>32.5</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-      <c r="O10" s="12">
+      <c r="S10" s="12">
         <f t="shared" si="3"/>
-        <v>2.3214285714285716</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2.2749999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
         <f>'Alle Abteilungen'!$A$17</f>
         <v>Akzeptanz Video veröffentlichen</v>
@@ -15756,22 +15760,22 @@
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="M11">
+        <v>54</v>
+      </c>
+      <c r="Q11">
         <f t="shared" si="2"/>
-        <v>48</v>
-      </c>
-      <c r="N11">
+        <v>71</v>
+      </c>
+      <c r="R11">
         <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-      <c r="O11" s="13">
+        <v>20</v>
+      </c>
+      <c r="S11" s="13">
         <f t="shared" si="3"/>
-        <v>3.4285714285714284</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -15781,9 +15785,13 @@
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
       <c r="L12" s="6"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="P12" s="6"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -15795,8 +15803,12 @@
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="str">
         <f>'Alle Abteilungen'!S3</f>
         <v>2. Semester</v>
@@ -15815,17 +15827,21 @@
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
-      <c r="M14" s="5" t="s">
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="Q14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="N14" s="5" t="s">
+      <c r="R14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="O14" s="4" t="s">
+      <c r="S14" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="str">
         <f>'Alle Abteilungen'!$A$10</f>
         <v>Sichtbarkeit der Poster</v>
@@ -15845,20 +15861,20 @@
       <c r="F15">
         <v>2</v>
       </c>
-      <c r="M15">
-        <f>SUM(B15:L15)</f>
+      <c r="Q15">
+        <f>SUM(B15:P15)</f>
         <v>10</v>
       </c>
-      <c r="N15">
-        <f t="shared" ref="N15:N22" si="5">$B$14-SUMIF(B15:L15,0,$B$23:$L$23)</f>
+      <c r="R15">
+        <f t="shared" ref="R15:R22" si="5">$B$14-SUMIF(B15:P15,0,$B$23:$P$23)</f>
         <v>5</v>
       </c>
-      <c r="O15" s="8">
-        <f>M15/N15</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S15" s="8">
+        <f>Q15/R15</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="str">
         <f>'Alle Abteilungen'!$A$11</f>
         <v>Sichtbarkeit der Broschüre</v>
@@ -15878,20 +15894,20 @@
       <c r="F16">
         <v>2</v>
       </c>
-      <c r="M16">
-        <f t="shared" ref="M16:M22" si="6">SUM(B16:L16)</f>
+      <c r="Q16">
+        <f t="shared" ref="Q16:Q22" si="6">SUM(B16:P16)</f>
         <v>11</v>
       </c>
-      <c r="N16">
+      <c r="R16">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="O16" s="8">
-        <f t="shared" ref="O16:O22" si="7">M16/N16</f>
+      <c r="S16" s="8">
+        <f t="shared" ref="S16:S22" si="7">Q16/R16</f>
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="str">
         <f>'Alle Abteilungen'!$A$12</f>
         <v>Wert der Präsentation</v>
@@ -15911,20 +15927,20 @@
       <c r="F17">
         <v>4</v>
       </c>
-      <c r="M17">
+      <c r="Q17">
         <f t="shared" si="6"/>
         <v>13</v>
       </c>
-      <c r="N17">
+      <c r="R17">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="O17" s="8">
+      <c r="S17" s="8">
         <f t="shared" si="7"/>
         <v>3.25</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="str">
         <f>'Alle Abteilungen'!$A$13</f>
         <v>Zeitaufwand</v>
@@ -15944,20 +15960,20 @@
       <c r="F18">
         <v>2</v>
       </c>
-      <c r="M18">
+      <c r="Q18">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="N18">
+      <c r="R18">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="O18" s="8">
+      <c r="S18" s="8">
         <f t="shared" si="7"/>
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="str">
         <f>'Alle Abteilungen'!$A$14</f>
         <v>Qualität der Poster/Broschüre</v>
@@ -15977,20 +15993,20 @@
       <c r="F19">
         <v>1</v>
       </c>
-      <c r="M19">
+      <c r="Q19">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="N19">
+      <c r="R19">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="O19" s="8">
+      <c r="S19" s="8">
         <f t="shared" si="7"/>
         <v>2.4</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="str">
         <f>'Alle Abteilungen'!$A$15</f>
         <v>Akzeptanz Video sehen</v>
@@ -16010,20 +16026,20 @@
       <c r="F20">
         <v>3</v>
       </c>
-      <c r="M20">
+      <c r="Q20">
         <f t="shared" si="6"/>
         <v>13.5</v>
       </c>
-      <c r="N20">
+      <c r="R20">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="O20" s="8">
+      <c r="S20" s="8">
         <f t="shared" si="7"/>
         <v>2.7</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="str">
         <f>'Alle Abteilungen'!$A$16</f>
         <v>Akzeptanz Video produzieren</v>
@@ -16043,20 +16059,20 @@
       <c r="F21">
         <v>3</v>
       </c>
-      <c r="M21">
+      <c r="Q21">
         <f t="shared" si="6"/>
         <v>12.5</v>
       </c>
-      <c r="N21">
+      <c r="R21">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="O21" s="8">
+      <c r="S21" s="8">
         <f t="shared" si="7"/>
         <v>2.5</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="str">
         <f>'Alle Abteilungen'!$A$17</f>
         <v>Akzeptanz Video veröffentlichen</v>
@@ -16076,20 +16092,20 @@
       <c r="F22">
         <v>4</v>
       </c>
-      <c r="M22">
+      <c r="Q22">
         <f t="shared" si="6"/>
         <v>17</v>
       </c>
-      <c r="N22">
+      <c r="R22">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="O22" s="8">
+      <c r="S22" s="8">
         <f t="shared" si="7"/>
         <v>3.4</v>
       </c>
     </row>
-    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
@@ -16123,18 +16139,33 @@
       <c r="K23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="str">
         <f>'Alle Abteilungen'!S4</f>
         <v>4. Semester</v>
       </c>
       <c r="B25" s="9">
         <f>'Alle Abteilungen'!T4</f>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>18</v>
@@ -16146,17 +16177,21 @@
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
-      <c r="M25" s="5" t="s">
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="Q25" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="N25" s="5" t="s">
+      <c r="R25" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="O25" s="4" t="s">
+      <c r="S25" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="str">
         <f>'Alle Abteilungen'!$A$10</f>
         <v>Sichtbarkeit der Poster</v>
@@ -16188,20 +16223,38 @@
       <c r="J26">
         <v>4</v>
       </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>2</v>
+      </c>
       <c r="M26">
-        <f>SUM(B26:L26)</f>
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="N26">
-        <f t="shared" ref="N26:N33" si="8">$B$25-SUMIF(B26:L26,0,$B$23:$L$23)</f>
-        <v>9</v>
-      </c>
-      <c r="O26" s="8">
-        <f>M26/N26</f>
-        <v>2.7777777777777777</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="O26">
+        <v>2</v>
+      </c>
+      <c r="P26">
+        <v>2</v>
+      </c>
+      <c r="Q26">
+        <f>SUM(B26:P26)</f>
+        <v>37</v>
+      </c>
+      <c r="R26">
+        <f t="shared" ref="R26:R33" si="8">$B$25-SUMIF(B26:P26,0,$B$23:$P$23)</f>
+        <v>15</v>
+      </c>
+      <c r="S26" s="8">
+        <f>Q26/R26</f>
+        <v>2.4666666666666668</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="str">
         <f>'Alle Abteilungen'!$A$11</f>
         <v>Sichtbarkeit der Broschüre</v>
@@ -16233,20 +16286,38 @@
       <c r="J27">
         <v>1</v>
       </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
       <c r="M27">
-        <f t="shared" ref="M27:M33" si="9">SUM(B27:L27)</f>
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="N27">
+        <v>2</v>
+      </c>
+      <c r="O27">
+        <v>2</v>
+      </c>
+      <c r="P27">
+        <v>2</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" ref="Q27:Q33" si="9">SUM(B27:P27)</f>
+        <v>22</v>
+      </c>
+      <c r="R27">
         <f t="shared" si="8"/>
-        <v>9</v>
-      </c>
-      <c r="O27" s="8">
-        <f t="shared" ref="O27:O33" si="10">M27/N27</f>
-        <v>1.4444444444444444</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="S27" s="8">
+        <f t="shared" ref="S27:S33" si="10">Q27/R27</f>
+        <v>1.4666666666666666</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="str">
         <f>'Alle Abteilungen'!$A$12</f>
         <v>Wert der Präsentation</v>
@@ -16278,20 +16349,38 @@
       <c r="J28">
         <v>0</v>
       </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>2</v>
+      </c>
       <c r="M28">
+        <v>2</v>
+      </c>
+      <c r="N28">
+        <v>3</v>
+      </c>
+      <c r="O28">
+        <v>3</v>
+      </c>
+      <c r="P28">
+        <v>4</v>
+      </c>
+      <c r="Q28">
         <f t="shared" si="9"/>
-        <v>23</v>
-      </c>
-      <c r="N28">
+        <v>39</v>
+      </c>
+      <c r="R28">
         <f t="shared" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="O28" s="8">
+        <v>13</v>
+      </c>
+      <c r="S28" s="8">
         <f t="shared" si="10"/>
-        <v>3.2857142857142856</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="str">
         <f>'Alle Abteilungen'!$A$13</f>
         <v>Zeitaufwand</v>
@@ -16323,20 +16412,38 @@
       <c r="J29">
         <v>1</v>
       </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>3</v>
+      </c>
       <c r="M29">
+        <v>3</v>
+      </c>
+      <c r="N29">
+        <v>4</v>
+      </c>
+      <c r="O29">
+        <v>3</v>
+      </c>
+      <c r="P29">
+        <v>3</v>
+      </c>
+      <c r="Q29">
         <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="N29">
+        <v>38</v>
+      </c>
+      <c r="R29">
         <f t="shared" si="8"/>
-        <v>9</v>
-      </c>
-      <c r="O29" s="8">
+        <v>15</v>
+      </c>
+      <c r="S29" s="8">
         <f t="shared" si="10"/>
-        <v>2.3333333333333335</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2.5333333333333332</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="str">
         <f>'Alle Abteilungen'!$A$14</f>
         <v>Qualität der Poster/Broschüre</v>
@@ -16368,20 +16475,38 @@
       <c r="J30">
         <v>3</v>
       </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
       <c r="M30">
+        <v>3</v>
+      </c>
+      <c r="N30">
+        <v>2</v>
+      </c>
+      <c r="O30">
+        <v>4</v>
+      </c>
+      <c r="P30">
+        <v>2</v>
+      </c>
+      <c r="Q30">
         <f t="shared" si="9"/>
-        <v>25</v>
-      </c>
-      <c r="N30">
+        <v>40</v>
+      </c>
+      <c r="R30">
         <f t="shared" si="8"/>
-        <v>9</v>
-      </c>
-      <c r="O30" s="8">
+        <v>15</v>
+      </c>
+      <c r="S30" s="8">
         <f t="shared" si="10"/>
-        <v>2.7777777777777777</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="str">
         <f>'Alle Abteilungen'!$A$15</f>
         <v>Akzeptanz Video sehen</v>
@@ -16413,20 +16538,38 @@
       <c r="J31">
         <v>2</v>
       </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>3</v>
+      </c>
       <c r="M31">
+        <v>2</v>
+      </c>
+      <c r="N31">
+        <v>2</v>
+      </c>
+      <c r="O31">
+        <v>3</v>
+      </c>
+      <c r="P31">
+        <v>4</v>
+      </c>
+      <c r="Q31">
         <f t="shared" si="9"/>
-        <v>23</v>
-      </c>
-      <c r="N31">
+        <v>39</v>
+      </c>
+      <c r="R31">
         <f t="shared" si="8"/>
-        <v>9</v>
-      </c>
-      <c r="O31" s="8">
+        <v>15</v>
+      </c>
+      <c r="S31" s="8">
         <f t="shared" si="10"/>
-        <v>2.5555555555555554</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="str">
         <f>'Alle Abteilungen'!$A$16</f>
         <v>Akzeptanz Video produzieren</v>
@@ -16458,20 +16601,38 @@
       <c r="J32">
         <v>1</v>
       </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>3</v>
+      </c>
       <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>2</v>
+      </c>
+      <c r="O32">
+        <v>3</v>
+      </c>
+      <c r="P32">
+        <v>3</v>
+      </c>
+      <c r="Q32">
         <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-      <c r="N32">
+        <v>33</v>
+      </c>
+      <c r="R32">
         <f t="shared" si="8"/>
-        <v>9</v>
-      </c>
-      <c r="O32" s="8">
+        <v>15</v>
+      </c>
+      <c r="S32" s="8">
         <f t="shared" si="10"/>
-        <v>2.2222222222222223</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="str">
         <f>'Alle Abteilungen'!$A$17</f>
         <v>Akzeptanz Video veröffentlichen</v>
@@ -16503,20 +16664,38 @@
       <c r="J33">
         <v>4</v>
       </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>4</v>
+      </c>
       <c r="M33">
+        <v>4</v>
+      </c>
+      <c r="N33">
+        <v>4</v>
+      </c>
+      <c r="O33">
+        <v>4</v>
+      </c>
+      <c r="P33">
+        <v>4</v>
+      </c>
+      <c r="Q33">
         <f t="shared" si="9"/>
-        <v>31</v>
-      </c>
-      <c r="N33">
+        <v>54</v>
+      </c>
+      <c r="R33">
         <f t="shared" si="8"/>
-        <v>9</v>
-      </c>
-      <c r="O33" s="8">
+        <v>15</v>
+      </c>
+      <c r="S33" s="8">
         <f t="shared" si="10"/>
-        <v>3.4444444444444446</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
     </row>
   </sheetData>
@@ -16530,8 +16709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AL21" sqref="AL21"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="AA48" sqref="AA48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16623,7 +16802,7 @@
         <v>20</v>
       </c>
       <c r="W4">
-        <f>SUM(B4:V4)</f>
+        <f t="shared" ref="W4:W11" si="2">SUM(B4:V4)</f>
         <v>82</v>
       </c>
       <c r="X4">
@@ -16641,7 +16820,7 @@
         <v>Sichtbarkeit der Broschüre</v>
       </c>
       <c r="B5">
-        <f t="shared" ref="B5:B11" si="2">W15</f>
+        <f t="shared" ref="B5:B11" si="3">W15</f>
         <v>32</v>
       </c>
       <c r="C5">
@@ -16653,15 +16832,15 @@
         <v>15</v>
       </c>
       <c r="W5">
-        <f>SUM(B5:V5)</f>
+        <f t="shared" si="2"/>
         <v>68</v>
       </c>
       <c r="X5">
-        <f t="shared" ref="X5:X11" si="3">X15+X27+X37</f>
+        <f t="shared" ref="X5:X11" si="4">X15+X27+X37</f>
         <v>38</v>
       </c>
       <c r="Y5" s="12">
-        <f t="shared" ref="Y5:Y11" si="4">W5/X5</f>
+        <f t="shared" ref="Y5:Y11" si="5">W5/X5</f>
         <v>1.7894736842105263</v>
       </c>
     </row>
@@ -16671,7 +16850,7 @@
         <v>Wert der Präsentation</v>
       </c>
       <c r="B6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
       <c r="C6">
@@ -16683,15 +16862,15 @@
         <v>25</v>
       </c>
       <c r="W6">
-        <f>SUM(B6:V6)</f>
+        <f t="shared" si="2"/>
         <v>108</v>
       </c>
       <c r="X6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="Y6" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.9189189189189189</v>
       </c>
     </row>
@@ -16701,7 +16880,7 @@
         <v>Zeitaufwand</v>
       </c>
       <c r="B7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>48.5</v>
       </c>
       <c r="C7">
@@ -16713,15 +16892,15 @@
         <v>19</v>
       </c>
       <c r="W7">
-        <f>SUM(B7:V7)</f>
+        <f t="shared" si="2"/>
         <v>91.5</v>
       </c>
       <c r="X7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="Y7" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.4729729729729728</v>
       </c>
     </row>
@@ -16731,7 +16910,7 @@
         <v>Qualität der Poster/Broschüre</v>
       </c>
       <c r="B8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>47</v>
       </c>
       <c r="C8">
@@ -16743,15 +16922,15 @@
         <v>16</v>
       </c>
       <c r="W8">
-        <f>SUM(B8:V8)</f>
+        <f t="shared" si="2"/>
         <v>91</v>
       </c>
       <c r="X8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="Y8" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.6</v>
       </c>
     </row>
@@ -16761,7 +16940,7 @@
         <v>Akzeptanz Video sehen</v>
       </c>
       <c r="B9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
       <c r="C9">
@@ -16773,15 +16952,15 @@
         <v>25</v>
       </c>
       <c r="W9">
-        <f>SUM(B9:V9)</f>
+        <f t="shared" si="2"/>
         <v>108</v>
       </c>
       <c r="X9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="Y9" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.9189189189189189</v>
       </c>
     </row>
@@ -16791,7 +16970,7 @@
         <v>Akzeptanz Video produzieren</v>
       </c>
       <c r="B10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>47.5</v>
       </c>
       <c r="C10">
@@ -16803,15 +16982,15 @@
         <v>16</v>
       </c>
       <c r="W10">
-        <f>SUM(B10:V10)</f>
+        <f t="shared" si="2"/>
         <v>84.5</v>
       </c>
       <c r="X10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="Y10" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.2837837837837838</v>
       </c>
     </row>
@@ -16821,7 +17000,7 @@
         <v>Akzeptanz Video veröffentlichen</v>
       </c>
       <c r="B11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>66</v>
       </c>
       <c r="C11">
@@ -16833,15 +17012,15 @@
         <v>28</v>
       </c>
       <c r="W11">
-        <f>SUM(B11:V11)</f>
+        <f t="shared" si="2"/>
         <v>124</v>
       </c>
       <c r="X11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="Y11" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.263157894736842</v>
       </c>
     </row>
@@ -16976,11 +17155,11 @@
         <v>1</v>
       </c>
       <c r="W14">
-        <f>SUM(B14:V14)</f>
+        <f t="shared" ref="W14:W21" si="6">SUM(B14:V14)</f>
         <v>38</v>
       </c>
       <c r="X14">
-        <f>$B$13-SUMIF(B14:V14,0,$B$22:$V$22)</f>
+        <f t="shared" ref="X14:X21" si="7">$B$13-SUMIF(B14:V14,0,$B$22:$V$22)</f>
         <v>21</v>
       </c>
       <c r="Y14" s="8">
@@ -17057,15 +17236,15 @@
         <v>1</v>
       </c>
       <c r="W15">
-        <f>SUM(B15:V15)</f>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="X15">
-        <f>$B$13-SUMIF(B15:V15,0,$B$22:$V$22)</f>
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
       <c r="Y15" s="8">
-        <f t="shared" ref="Y15:Y21" si="5">W15/X15</f>
+        <f t="shared" ref="Y15:Y21" si="8">W15/X15</f>
         <v>1.5238095238095237</v>
       </c>
     </row>
@@ -17138,15 +17317,15 @@
         <v>2</v>
       </c>
       <c r="W16">
-        <f>SUM(B16:V16)</f>
+        <f t="shared" si="6"/>
         <v>57</v>
       </c>
       <c r="X16">
-        <f>$B$13-SUMIF(B16:V16,0,$B$22:$V$22)</f>
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
       <c r="Y16" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.7142857142857144</v>
       </c>
     </row>
@@ -17219,15 +17398,15 @@
         <v>3</v>
       </c>
       <c r="W17">
-        <f>SUM(B17:V17)</f>
+        <f t="shared" si="6"/>
         <v>48.5</v>
       </c>
       <c r="X17">
-        <f>$B$13-SUMIF(B17:V17,0,$B$22:$V$22)</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="Y17" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.4249999999999998</v>
       </c>
     </row>
@@ -17300,15 +17479,15 @@
         <v>2</v>
       </c>
       <c r="W18">
-        <f>SUM(B18:V18)</f>
+        <f t="shared" si="6"/>
         <v>47</v>
       </c>
       <c r="X18">
-        <f>$B$13-SUMIF(B18:V18,0,$B$22:$V$22)</f>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="Y18" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.6111111111111112</v>
       </c>
     </row>
@@ -17381,15 +17560,15 @@
         <v>2</v>
       </c>
       <c r="W19">
-        <f>SUM(B19:V19)</f>
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="X19">
-        <f>$B$13-SUMIF(B19:V19,0,$B$22:$V$22)</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="Y19" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.7</v>
       </c>
     </row>
@@ -17462,15 +17641,15 @@
         <v>3</v>
       </c>
       <c r="W20">
-        <f>SUM(B20:V20)</f>
+        <f t="shared" si="6"/>
         <v>47.5</v>
       </c>
       <c r="X20">
-        <f>$B$13-SUMIF(B20:V20,0,$B$22:$V$22)</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="Y20" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.375</v>
       </c>
     </row>
@@ -17543,15 +17722,15 @@
         <v>4</v>
       </c>
       <c r="W21">
-        <f>SUM(B21:V21)</f>
+        <f t="shared" si="6"/>
         <v>66</v>
       </c>
       <c r="X21">
-        <f>$B$13-SUMIF(B21:V21,0,$B$22:$V$22)</f>
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
       <c r="Y21" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.1428571428571428</v>
       </c>
     </row>
@@ -17706,11 +17885,11 @@
         <v>4</v>
       </c>
       <c r="W26">
-        <f>SUM(B26:V26)</f>
+        <f t="shared" ref="W26:W33" si="9">SUM(B26:V26)</f>
         <v>24</v>
       </c>
       <c r="X26">
-        <f>$B$25-SUMIF(B26:V26,0,$B$22:$V$22)</f>
+        <f t="shared" ref="X26:X33" si="10">$B$25-SUMIF(B26:V26,0,$B$22:$V$22)</f>
         <v>10</v>
       </c>
       <c r="Y26" s="8">
@@ -17754,15 +17933,15 @@
         <v>1</v>
       </c>
       <c r="W27">
-        <f>SUM(B27:V27)</f>
+        <f t="shared" si="9"/>
         <v>21</v>
       </c>
       <c r="X27">
-        <f>$B$25-SUMIF(B27:V27,0,$B$22:$V$22)</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="Y27" s="8">
-        <f t="shared" ref="Y27:Y33" si="6">W27/X27</f>
+        <f t="shared" ref="Y27:Y33" si="11">W27/X27</f>
         <v>2.1</v>
       </c>
     </row>
@@ -17802,15 +17981,15 @@
         <v>2</v>
       </c>
       <c r="W28">
-        <f>SUM(B28:V28)</f>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="X28">
-        <f>$B$25-SUMIF(B28:V28,0,$B$22:$V$22)</f>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="Y28" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2.8888888888888888</v>
       </c>
     </row>
@@ -17850,15 +18029,15 @@
         <v>2</v>
       </c>
       <c r="W29">
-        <f>SUM(B29:V29)</f>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
       <c r="X29">
-        <f>$B$25-SUMIF(B29:V29,0,$B$22:$V$22)</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="Y29" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2.4</v>
       </c>
     </row>
@@ -17898,15 +18077,15 @@
         <v>2</v>
       </c>
       <c r="W30">
-        <f>SUM(B30:V30)</f>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
       <c r="X30">
-        <f>$B$25-SUMIF(B30:V30,0,$B$22:$V$22)</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="Y30" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2.8</v>
       </c>
     </row>
@@ -17946,15 +18125,15 @@
         <v>3</v>
       </c>
       <c r="W31">
-        <f>SUM(B31:V31)</f>
+        <f t="shared" si="9"/>
         <v>29</v>
       </c>
       <c r="X31">
-        <f>$B$25-SUMIF(B31:V31,0,$B$22:$V$22)</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="Y31" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2.9</v>
       </c>
     </row>
@@ -17994,15 +18173,15 @@
         <v>2</v>
       </c>
       <c r="W32">
-        <f>SUM(B32:V32)</f>
+        <f t="shared" si="9"/>
         <v>21</v>
       </c>
       <c r="X32">
-        <f>$B$25-SUMIF(B32:V32,0,$B$22:$V$22)</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="Y32" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2.1</v>
       </c>
     </row>
@@ -18042,15 +18221,15 @@
         <v>2</v>
       </c>
       <c r="W33">
-        <f>SUM(B33:V33)</f>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="X33">
-        <f>$B$25-SUMIF(B33:V33,0,$B$22:$V$22)</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="Y33" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
     </row>
@@ -18124,11 +18303,11 @@
         <v>2</v>
       </c>
       <c r="W36">
-        <f>SUM(B36:V36)</f>
+        <f t="shared" ref="W36:W43" si="12">SUM(B36:V36)</f>
         <v>20</v>
       </c>
       <c r="X36">
-        <f>$B$35-SUMIF(B36:V36,0,$B$22:$V$22)</f>
+        <f t="shared" ref="X36:X43" si="13">$B$35-SUMIF(B36:V36,0,$B$22:$V$22)</f>
         <v>7</v>
       </c>
       <c r="Y36" s="8">
@@ -18163,15 +18342,15 @@
         <v>4</v>
       </c>
       <c r="W37">
-        <f>SUM(B37:V37)</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="X37">
-        <f>$B$35-SUMIF(B37:V37,0,$B$22:$V$22)</f>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="Y37" s="8">
-        <f t="shared" ref="Y37:Y43" si="7">W37/X37</f>
+        <f t="shared" ref="Y37:Y43" si="14">W37/X37</f>
         <v>2.1428571428571428</v>
       </c>
     </row>
@@ -18202,15 +18381,15 @@
         <v>2</v>
       </c>
       <c r="W38">
-        <f>SUM(B38:V38)</f>
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
       <c r="X38">
-        <f>$B$35-SUMIF(B38:V38,0,$B$22:$V$22)</f>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="Y38" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>3.5714285714285716</v>
       </c>
     </row>
@@ -18241,15 +18420,15 @@
         <v>3</v>
       </c>
       <c r="W39">
-        <f>SUM(B39:V39)</f>
+        <f t="shared" si="12"/>
         <v>19</v>
       </c>
       <c r="X39">
-        <f>$B$35-SUMIF(B39:V39,0,$B$22:$V$22)</f>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="Y39" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>2.7142857142857144</v>
       </c>
     </row>
@@ -18280,15 +18459,15 @@
         <v>2</v>
       </c>
       <c r="W40">
-        <f>SUM(B40:V40)</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="X40">
-        <f>$B$35-SUMIF(B40:V40,0,$B$22:$V$22)</f>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="Y40" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>2.2857142857142856</v>
       </c>
     </row>
@@ -18319,15 +18498,15 @@
         <v>4</v>
       </c>
       <c r="W41">
-        <f>SUM(B41:V41)</f>
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
       <c r="X41">
-        <f>$B$35-SUMIF(B41:V41,0,$B$22:$V$22)</f>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="Y41" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>3.5714285714285716</v>
       </c>
     </row>
@@ -18358,15 +18537,15 @@
         <v>1</v>
       </c>
       <c r="W42">
-        <f>SUM(B42:V42)</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="X42">
-        <f>$B$35-SUMIF(B42:V42,0,$B$22:$V$22)</f>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="Y42" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>2.2857142857142856</v>
       </c>
     </row>
@@ -18397,15 +18576,15 @@
         <v>4</v>
       </c>
       <c r="W43">
-        <f>SUM(B43:V43)</f>
+        <f t="shared" si="12"/>
         <v>28</v>
       </c>
       <c r="X43">
-        <f>$B$35-SUMIF(B43:V43,0,$B$22:$V$22)</f>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="Y43" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
     </row>

--- a/doc/Bericht/05_Technischer Bericht/03_Vorstudie/Frageboegen_Statistik.xlsx
+++ b/doc/Bericht/05_Technischer Bericht/03_Vorstudie/Frageboegen_Statistik.xlsx
@@ -572,28 +572,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.6111111111111112</c:v>
+                  <c:v>2.7826086956521738</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6111111111111112</c:v>
+                  <c:v>1.7391304347826086</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3.0952380952380953</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>2.1304347826086958</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8823529411764706</c:v>
+                  <c:v>3.0454545454545454</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.2222222222222223</c:v>
+                  <c:v>2.2272727272727271</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.8888888888888888</c:v>
+                  <c:v>1.826086956521739</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.7222222222222223</c:v>
+                  <c:v>2.6086956521739131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1014,11 +1014,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="107421696"/>
-        <c:axId val="107423232"/>
+        <c:axId val="78983168"/>
+        <c:axId val="78984704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="107421696"/>
+        <c:axId val="78983168"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1028,7 +1028,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107423232"/>
+        <c:crossAx val="78984704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1037,7 +1037,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107423232"/>
+        <c:axId val="78984704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -1100,7 +1100,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107421696"/>
+        <c:crossAx val="78983168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -1154,7 +1154,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1255,11 +1254,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="109329408"/>
-        <c:axId val="109335296"/>
+        <c:axId val="81669120"/>
+        <c:axId val="81675008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="109329408"/>
+        <c:axId val="81669120"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1269,7 +1268,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109335296"/>
+        <c:crossAx val="81675008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1278,7 +1277,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109335296"/>
+        <c:axId val="81675008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -1341,7 +1340,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109329408"/>
+        <c:crossAx val="81669120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -1350,7 +1349,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1400,7 +1398,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1744,11 +1741,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="109400064"/>
-        <c:axId val="109401600"/>
+        <c:axId val="81747968"/>
+        <c:axId val="81749504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="109400064"/>
+        <c:axId val="81747968"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1758,7 +1755,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109401600"/>
+        <c:crossAx val="81749504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1767,7 +1764,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109401600"/>
+        <c:axId val="81749504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -1830,7 +1827,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109400064"/>
+        <c:crossAx val="81747968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -1839,7 +1836,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1884,7 +1880,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1985,11 +1980,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="109430656"/>
-        <c:axId val="109432192"/>
+        <c:axId val="81774464"/>
+        <c:axId val="81776000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="109430656"/>
+        <c:axId val="81774464"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1999,7 +1994,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109432192"/>
+        <c:crossAx val="81776000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2008,7 +2003,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109432192"/>
+        <c:axId val="81776000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -2071,7 +2066,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109430656"/>
+        <c:crossAx val="81774464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -2080,7 +2075,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2159,7 +2153,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2422,11 +2415,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="111806336"/>
-        <c:axId val="111807872"/>
+        <c:axId val="96733056"/>
+        <c:axId val="96734592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="111806336"/>
+        <c:axId val="96733056"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2436,7 +2429,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111807872"/>
+        <c:crossAx val="96734592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2445,7 +2438,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111807872"/>
+        <c:axId val="96734592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -2508,7 +2501,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111806336"/>
+        <c:crossAx val="96733056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -2517,7 +2510,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2567,7 +2559,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2668,11 +2659,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="111853568"/>
-        <c:axId val="111855104"/>
+        <c:axId val="96784384"/>
+        <c:axId val="96785920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="111853568"/>
+        <c:axId val="96784384"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2682,7 +2673,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111855104"/>
+        <c:crossAx val="96785920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2691,7 +2682,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111855104"/>
+        <c:axId val="96785920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -2754,7 +2745,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111853568"/>
+        <c:crossAx val="96784384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -2763,7 +2754,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2819,7 +2809,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3067,11 +3056,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="116626176"/>
-        <c:axId val="116627712"/>
+        <c:axId val="97878784"/>
+        <c:axId val="97880320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="116626176"/>
+        <c:axId val="97878784"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -3081,7 +3070,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116627712"/>
+        <c:crossAx val="97880320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3090,7 +3079,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116627712"/>
+        <c:axId val="97880320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -3153,7 +3142,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116626176"/>
+        <c:crossAx val="97878784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -3162,7 +3151,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3207,7 +3195,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3308,11 +3295,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="116652672"/>
-        <c:axId val="116330880"/>
+        <c:axId val="97909376"/>
+        <c:axId val="97980800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="116652672"/>
+        <c:axId val="97909376"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -3322,7 +3309,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116330880"/>
+        <c:crossAx val="97980800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3331,7 +3318,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116330880"/>
+        <c:axId val="97980800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -3394,7 +3381,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116652672"/>
+        <c:crossAx val="97909376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -3403,7 +3390,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3544,28 +3530,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.3969849246231156</c:v>
+                  <c:v>2.4215686274509802</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8442211055276383</c:v>
+                  <c:v>1.8529411764705883</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9057591623036649</c:v>
+                  <c:v>2.9175257731958761</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3883248730964466</c:v>
+                  <c:v>2.3935643564356437</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7268041237113403</c:v>
+                  <c:v>2.7487437185929648</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.6269035532994924</c:v>
+                  <c:v>2.6194029850746268</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9441624365482233</c:v>
+                  <c:v>1.9356435643564356</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.0351758793969847</c:v>
+                  <c:v>3.0147058823529411</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3581,11 +3567,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="107448576"/>
-        <c:axId val="107470848"/>
+        <c:axId val="79010048"/>
+        <c:axId val="79032320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="107448576"/>
+        <c:axId val="79010048"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -3595,7 +3581,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107470848"/>
+        <c:crossAx val="79032320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3604,7 +3590,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107470848"/>
+        <c:axId val="79032320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -3667,7 +3653,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107448576"/>
+        <c:crossAx val="79010048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -3750,7 +3736,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4013,11 +3998,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="107521920"/>
-        <c:axId val="107523456"/>
+        <c:axId val="79792000"/>
+        <c:axId val="79793536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="107521920"/>
+        <c:axId val="79792000"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -4027,7 +4012,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107523456"/>
+        <c:crossAx val="79793536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4036,7 +4021,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107523456"/>
+        <c:axId val="79793536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -4099,7 +4084,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107521920"/>
+        <c:crossAx val="79792000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -4108,7 +4093,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4153,7 +4137,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4254,11 +4237,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="109192704"/>
-        <c:axId val="109194240"/>
+        <c:axId val="81539072"/>
+        <c:axId val="81540608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="109192704"/>
+        <c:axId val="81539072"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -4268,7 +4251,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109194240"/>
+        <c:crossAx val="81540608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4277,7 +4260,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109194240"/>
+        <c:axId val="81540608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -4340,7 +4323,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109192704"/>
+        <c:crossAx val="81539072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -4349,7 +4332,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4492,28 +4474,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.6111111111111112</c:v>
+                  <c:v>2.7826086956521738</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6111111111111112</c:v>
+                  <c:v>1.7391304347826086</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3.0952380952380953</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>2.1304347826086958</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8823529411764706</c:v>
+                  <c:v>3.0454545454545454</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.2222222222222223</c:v>
+                  <c:v>2.2272727272727271</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.8888888888888888</c:v>
+                  <c:v>1.826086956521739</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.7222222222222223</c:v>
+                  <c:v>2.6086956521739131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4654,28 +4636,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>3.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4772,11 +4754,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="109263488"/>
-        <c:axId val="109277568"/>
+        <c:axId val="81607296"/>
+        <c:axId val="81617280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="109263488"/>
+        <c:axId val="81607296"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -4786,7 +4768,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109277568"/>
+        <c:crossAx val="81617280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4795,7 +4777,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109277568"/>
+        <c:axId val="81617280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -4858,7 +4840,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109263488"/>
+        <c:crossAx val="81607296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -4976,28 +4958,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.6111111111111112</c:v>
+                  <c:v>2.7826086956521738</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6111111111111112</c:v>
+                  <c:v>1.7391304347826086</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3.0952380952380953</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>2.1304347826086958</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8823529411764706</c:v>
+                  <c:v>3.0454545454545454</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.2222222222222223</c:v>
+                  <c:v>2.2272727272727271</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.8888888888888888</c:v>
+                  <c:v>1.826086956521739</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.7222222222222223</c:v>
+                  <c:v>2.6086956521739131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5013,11 +4995,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="109302528"/>
-        <c:axId val="109304064"/>
+        <c:axId val="81631872"/>
+        <c:axId val="81650048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="109302528"/>
+        <c:axId val="81631872"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -5027,7 +5009,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109304064"/>
+        <c:crossAx val="81650048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5036,7 +5018,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109304064"/>
+        <c:axId val="81650048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -5099,7 +5081,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109302528"/>
+        <c:crossAx val="81631872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -5187,7 +5169,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5450,11 +5431,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="108972672"/>
-        <c:axId val="108974464"/>
+        <c:axId val="81316096"/>
+        <c:axId val="81321984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="108972672"/>
+        <c:axId val="81316096"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -5464,7 +5445,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108974464"/>
+        <c:crossAx val="81321984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5473,7 +5454,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108974464"/>
+        <c:axId val="81321984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -5536,7 +5517,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108972672"/>
+        <c:crossAx val="81316096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -5545,7 +5526,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5590,7 +5570,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5691,11 +5670,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="109003136"/>
-        <c:axId val="109004672"/>
+        <c:axId val="81351040"/>
+        <c:axId val="81352576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="109003136"/>
+        <c:axId val="81351040"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -5705,7 +5684,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109004672"/>
+        <c:crossAx val="81352576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5714,7 +5693,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109004672"/>
+        <c:axId val="81352576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -5777,7 +5756,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109003136"/>
+        <c:crossAx val="81351040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -5786,7 +5765,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5836,7 +5814,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6180,11 +6157,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="109155456"/>
-        <c:axId val="109156992"/>
+        <c:axId val="81499264"/>
+        <c:axId val="81500800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="109155456"/>
+        <c:axId val="81499264"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -6194,7 +6171,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109156992"/>
+        <c:crossAx val="81500800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6203,7 +6180,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109156992"/>
+        <c:axId val="81500800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -6266,7 +6243,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109155456"/>
+        <c:crossAx val="81499264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -6275,7 +6252,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7132,7 +7108,7 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7247,7 +7223,7 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J4" t="s">
         <v>1</v>
@@ -7315,7 +7291,7 @@
       </c>
       <c r="B6" s="16">
         <f>SUM(W6,E6,H6,K6,N6,Q6,T6)</f>
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
@@ -7331,7 +7307,7 @@
       </c>
       <c r="H6" s="9">
         <f>SUM(H3:H5)</f>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6" t="s">
@@ -7412,7 +7388,7 @@
       </c>
       <c r="G10">
         <f>Landschaftsarchitektur!Q4</f>
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="J10">
         <f>Raumplanung!M4</f>
@@ -7436,11 +7412,11 @@
       </c>
       <c r="X10">
         <f>Bauingenieurwesen!X4+Landschaftsarchitektur!R4+Raumplanung!N4+Elektrotechnik!P4+Maschinentechnik!Z4+EEU!R4+Informatik!X4</f>
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Y10" s="12">
         <f>(D10+G10+J10+M10+P10+S10+V10)/X10</f>
-        <v>2.3969849246231156</v>
+        <v>2.4215686274509802</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -7453,7 +7429,7 @@
       </c>
       <c r="G11">
         <f>Landschaftsarchitektur!Q5</f>
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="J11">
         <f>Raumplanung!M5</f>
@@ -7477,11 +7453,11 @@
       </c>
       <c r="X11">
         <f>Bauingenieurwesen!X5+Landschaftsarchitektur!R5+Raumplanung!N5+Elektrotechnik!P5+Maschinentechnik!Z5+EEU!R5+Informatik!X5</f>
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Y11" s="12">
         <f t="shared" ref="Y11:Y17" si="0">(D11+G11+J11+M11+P11+S11+V11)/X11</f>
-        <v>1.8442211055276383</v>
+        <v>1.8529411764705883</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -7494,7 +7470,7 @@
       </c>
       <c r="G12">
         <f>Landschaftsarchitektur!Q6</f>
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="J12">
         <f>Raumplanung!M6</f>
@@ -7518,11 +7494,11 @@
       </c>
       <c r="X12">
         <f>Bauingenieurwesen!X6+Landschaftsarchitektur!R6+Raumplanung!N6+Elektrotechnik!P6+Maschinentechnik!Z6+EEU!R6+Informatik!X6</f>
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Y12" s="12">
         <f t="shared" si="0"/>
-        <v>2.9057591623036649</v>
+        <v>2.9175257731958761</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -7535,7 +7511,7 @@
       </c>
       <c r="G13">
         <f>Landschaftsarchitektur!Q7</f>
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="J13">
         <f>Raumplanung!M7</f>
@@ -7559,11 +7535,11 @@
       </c>
       <c r="X13">
         <f>Bauingenieurwesen!X7+Landschaftsarchitektur!R7+Raumplanung!N7+Elektrotechnik!P7+Maschinentechnik!Z7+EEU!R7+Informatik!X7</f>
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Y13" s="12">
         <f t="shared" si="0"/>
-        <v>2.3883248730964466</v>
+        <v>2.3935643564356437</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -7576,7 +7552,7 @@
       </c>
       <c r="G14">
         <f>Landschaftsarchitektur!Q8</f>
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="J14">
         <f>Raumplanung!M8</f>
@@ -7600,11 +7576,11 @@
       </c>
       <c r="X14">
         <f>Bauingenieurwesen!X8+Landschaftsarchitektur!R8+Raumplanung!N8+Elektrotechnik!P8+Maschinentechnik!Z8+EEU!R8+Informatik!X8</f>
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Y14" s="12">
         <f t="shared" si="0"/>
-        <v>2.7268041237113403</v>
+        <v>2.7487437185929648</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -7617,7 +7593,7 @@
       </c>
       <c r="G15">
         <f>Landschaftsarchitektur!Q9</f>
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J15">
         <f>Raumplanung!M9</f>
@@ -7641,11 +7617,11 @@
       </c>
       <c r="X15">
         <f>Bauingenieurwesen!X9+Landschaftsarchitektur!R9+Raumplanung!N9+Elektrotechnik!P9+Maschinentechnik!Z9+EEU!R9+Informatik!X9</f>
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Y15" s="12">
         <f t="shared" si="0"/>
-        <v>2.6269035532994924</v>
+        <v>2.6194029850746268</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -7658,7 +7634,7 @@
       </c>
       <c r="G16">
         <f>Landschaftsarchitektur!Q10</f>
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <f>Raumplanung!M10</f>
@@ -7682,11 +7658,11 @@
       </c>
       <c r="X16">
         <f>Bauingenieurwesen!X10+Landschaftsarchitektur!R10+Raumplanung!N10+Elektrotechnik!P10+Maschinentechnik!Z10+EEU!R10+Informatik!X10</f>
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Y16" s="12">
         <f t="shared" si="0"/>
-        <v>1.9441624365482233</v>
+        <v>1.9356435643564356</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
@@ -7699,7 +7675,7 @@
       </c>
       <c r="G17">
         <f>Landschaftsarchitektur!Q11</f>
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="J17">
         <f>Raumplanung!M11</f>
@@ -7723,11 +7699,11 @@
       </c>
       <c r="X17">
         <f>Bauingenieurwesen!X11+Landschaftsarchitektur!R11+Raumplanung!N11+Elektrotechnik!P11+Maschinentechnik!Z11+EEU!R11+Informatik!X11</f>
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Y17" s="13">
         <f t="shared" si="0"/>
-        <v>3.0351758793969847</v>
+        <v>3.0147058823529411</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
@@ -9164,7 +9140,7 @@
   <dimension ref="A1:S43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AF18" sqref="AF18"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9191,7 +9167,7 @@
       <c r="G1" s="6"/>
       <c r="H1" s="9">
         <f>'Alle Abteilungen'!H6</f>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
@@ -9240,7 +9216,7 @@
       </c>
       <c r="C4">
         <f>Q26</f>
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D4">
         <f>Q36</f>
@@ -9248,15 +9224,15 @@
       </c>
       <c r="Q4">
         <f>SUM(B4:P4)</f>
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="R4">
         <f t="shared" ref="R4:R11" si="0">R15+R26+R36</f>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="S4" s="11">
         <f>Q4/R4</f>
-        <v>2.6111111111111112</v>
+        <v>2.7826086956521738</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -9270,7 +9246,7 @@
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C11" si="2">Q27</f>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <f t="shared" ref="D5:D11" si="3">Q37</f>
@@ -9278,15 +9254,15 @@
       </c>
       <c r="Q5">
         <f t="shared" ref="Q5:Q11" si="4">SUM(B5:P5)</f>
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="R5">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="S5" s="12">
         <f t="shared" ref="S5:S11" si="5">Q5/R5</f>
-        <v>1.6111111111111112</v>
+        <v>1.7391304347826086</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -9300,7 +9276,7 @@
       </c>
       <c r="C6">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D6">
         <f t="shared" si="3"/>
@@ -9308,15 +9284,15 @@
       </c>
       <c r="Q6">
         <f t="shared" si="4"/>
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="R6">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="S6" s="12">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>3.0952380952380953</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -9330,7 +9306,7 @@
       </c>
       <c r="C7">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D7">
         <f t="shared" si="3"/>
@@ -9338,15 +9314,15 @@
       </c>
       <c r="Q7">
         <f t="shared" si="4"/>
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="R7">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="S7" s="12">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>2.1304347826086958</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -9360,7 +9336,7 @@
       </c>
       <c r="C8">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D8">
         <f t="shared" si="3"/>
@@ -9368,15 +9344,15 @@
       </c>
       <c r="Q8">
         <f t="shared" si="4"/>
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="R8">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="S8" s="12">
         <f t="shared" si="5"/>
-        <v>2.8823529411764706</v>
+        <v>3.0454545454545454</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -9390,7 +9366,7 @@
       </c>
       <c r="C9">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D9">
         <f t="shared" si="3"/>
@@ -9398,15 +9374,15 @@
       </c>
       <c r="Q9">
         <f t="shared" si="4"/>
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="R9">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="S9" s="12">
         <f t="shared" si="5"/>
-        <v>2.2222222222222223</v>
+        <v>2.2272727272727271</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -9420,7 +9396,7 @@
       </c>
       <c r="C10">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D10">
         <f t="shared" si="3"/>
@@ -9428,15 +9404,15 @@
       </c>
       <c r="Q10">
         <f t="shared" si="4"/>
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="R10">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="S10" s="12">
         <f t="shared" si="5"/>
-        <v>1.8888888888888888</v>
+        <v>1.826086956521739</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -9450,7 +9426,7 @@
       </c>
       <c r="C11">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D11">
         <f t="shared" si="3"/>
@@ -9458,15 +9434,15 @@
       </c>
       <c r="Q11">
         <f t="shared" si="4"/>
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="R11">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="S11" s="13">
         <f t="shared" si="5"/>
-        <v>2.7222222222222223</v>
+        <v>2.6086956521739131</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -10096,7 +10072,7 @@
       </c>
       <c r="B25" s="9">
         <f>'Alle Abteilungen'!H4</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>18</v>
@@ -10128,17 +10104,32 @@
       <c r="B26">
         <v>4</v>
       </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
       <c r="Q26">
         <f>SUM(B26:P26)</f>
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="R26">
         <f t="shared" ref="R26:R33" si="9">$B$25-SUMIF(B26:P26,0,$B$23:$P$23)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S26" s="8">
         <f>Q26/R26</f>
-        <v>4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
@@ -10149,17 +10140,32 @@
       <c r="B27">
         <v>1</v>
       </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
       <c r="Q27">
         <f t="shared" ref="Q27:Q33" si="10">SUM(B27:P27)</f>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="R27">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S27" s="8">
         <f t="shared" ref="S27:S33" si="11">Q27/R27</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
@@ -10170,17 +10176,32 @@
       <c r="B28">
         <v>4</v>
       </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
       <c r="Q28">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="R28">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S28" s="8">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
@@ -10191,17 +10212,32 @@
       <c r="B29">
         <v>2</v>
       </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
       <c r="Q29">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="R29">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S29" s="8">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
@@ -10212,17 +10248,32 @@
       <c r="B30">
         <v>3</v>
       </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30">
+        <v>4</v>
+      </c>
       <c r="Q30">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="R30">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S30" s="8">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
@@ -10233,17 +10284,32 @@
       <c r="B31">
         <v>2</v>
       </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
       <c r="Q31">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="R31">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S31" s="8">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
@@ -10254,17 +10320,32 @@
       <c r="B32">
         <v>2</v>
       </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
       <c r="Q32">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="R32">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S32" s="8">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
@@ -10275,17 +10356,32 @@
       <c r="B33">
         <v>1</v>
       </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
       <c r="Q33">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="R33">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S33" s="8">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">

--- a/doc/Bericht/05_Technischer Bericht/03_Vorstudie/Frageboegen_Statistik.xlsx
+++ b/doc/Bericht/05_Technischer Bericht/03_Vorstudie/Frageboegen_Statistik.xlsx
@@ -287,7 +287,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -349,9 +349,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -362,7 +360,49 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -371,7 +411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -393,8 +433,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -410,10 +448,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,7 +545,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Alle Abteilungen'!$D$2</c:f>
+              <c:f>'Alle Abteilungen'!$D$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -513,7 +557,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Alle Abteilungen'!$A$10:$A$17</c:f>
+              <c:f>'Alle Abteilungen'!$A$18:$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -582,7 +626,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Alle Abteilungen'!$G$2</c:f>
+              <c:f>'Alle Abteilungen'!$G$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -594,7 +638,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Alle Abteilungen'!$A$10:$A$17</c:f>
+              <c:f>'Alle Abteilungen'!$A$18:$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -663,7 +707,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Alle Abteilungen'!$J$2</c:f>
+              <c:f>'Alle Abteilungen'!$J$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -675,7 +719,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Alle Abteilungen'!$A$10:$A$17</c:f>
+              <c:f>'Alle Abteilungen'!$A$18:$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -744,7 +788,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Alle Abteilungen'!$M$2</c:f>
+              <c:f>'Alle Abteilungen'!$M$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -756,7 +800,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Alle Abteilungen'!$A$10:$A$17</c:f>
+              <c:f>'Alle Abteilungen'!$A$18:$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -825,7 +869,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Alle Abteilungen'!$P$2</c:f>
+              <c:f>'Alle Abteilungen'!$P$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -837,7 +881,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Alle Abteilungen'!$A$10:$A$17</c:f>
+              <c:f>'Alle Abteilungen'!$A$18:$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -906,7 +950,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Alle Abteilungen'!$S$2</c:f>
+              <c:f>'Alle Abteilungen'!$S$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -918,7 +962,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Alle Abteilungen'!$A$10:$A$17</c:f>
+              <c:f>'Alle Abteilungen'!$A$18:$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -987,7 +1031,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Alle Abteilungen'!$V$2</c:f>
+              <c:f>'Alle Abteilungen'!$V$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -999,7 +1043,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Alle Abteilungen'!$A$10:$A$17</c:f>
+              <c:f>'Alle Abteilungen'!$A$18:$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -1073,11 +1117,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="109588480"/>
-        <c:axId val="109590016"/>
+        <c:axId val="96100736"/>
+        <c:axId val="96102272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="109588480"/>
+        <c:axId val="96100736"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1087,7 +1131,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109590016"/>
+        <c:crossAx val="96102272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1096,7 +1140,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109590016"/>
+        <c:axId val="96102272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -1159,7 +1203,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109588480"/>
+        <c:crossAx val="96100736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -1213,7 +1257,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1314,11 +1357,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="118025216"/>
-        <c:axId val="118113024"/>
+        <c:axId val="99564928"/>
+        <c:axId val="99574912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="118025216"/>
+        <c:axId val="99564928"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1328,7 +1371,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118113024"/>
+        <c:crossAx val="99574912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1337,7 +1380,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118113024"/>
+        <c:axId val="99574912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -1400,7 +1443,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118025216"/>
+        <c:crossAx val="99564928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -1409,7 +1452,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1459,7 +1501,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1803,11 +1844,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="118185984"/>
-        <c:axId val="118187520"/>
+        <c:axId val="99680640"/>
+        <c:axId val="99682176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="118185984"/>
+        <c:axId val="99680640"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1817,7 +1858,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118187520"/>
+        <c:crossAx val="99682176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1826,7 +1867,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118187520"/>
+        <c:axId val="99682176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -1889,7 +1930,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118185984"/>
+        <c:crossAx val="99680640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -1898,7 +1939,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1943,7 +1983,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2044,11 +2083,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="118212480"/>
-        <c:axId val="118214016"/>
+        <c:axId val="99694848"/>
+        <c:axId val="99704832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="118212480"/>
+        <c:axId val="99694848"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2058,7 +2097,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118214016"/>
+        <c:crossAx val="99704832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2067,7 +2106,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118214016"/>
+        <c:axId val="99704832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -2130,7 +2169,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118212480"/>
+        <c:crossAx val="99694848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -2139,7 +2178,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2218,7 +2256,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2481,11 +2518,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="120391552"/>
-        <c:axId val="120393088"/>
+        <c:axId val="105322752"/>
+        <c:axId val="105332736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="120391552"/>
+        <c:axId val="105322752"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2495,7 +2532,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120393088"/>
+        <c:crossAx val="105332736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2504,7 +2541,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120393088"/>
+        <c:axId val="105332736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -2567,7 +2604,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120391552"/>
+        <c:crossAx val="105322752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -2576,7 +2613,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2626,7 +2662,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2727,11 +2762,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="120442880"/>
-        <c:axId val="120444416"/>
+        <c:axId val="105374080"/>
+        <c:axId val="105375616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="120442880"/>
+        <c:axId val="105374080"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2741,7 +2776,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120444416"/>
+        <c:crossAx val="105375616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2750,7 +2785,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120444416"/>
+        <c:axId val="105375616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -2813,7 +2848,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120442880"/>
+        <c:crossAx val="105374080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -2822,7 +2857,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2878,7 +2912,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3126,11 +3159,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="120488704"/>
-        <c:axId val="120490240"/>
+        <c:axId val="105256064"/>
+        <c:axId val="105257600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="120488704"/>
+        <c:axId val="105256064"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -3140,7 +3173,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120490240"/>
+        <c:crossAx val="105257600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3149,7 +3182,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120490240"/>
+        <c:axId val="105257600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -3212,7 +3245,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120488704"/>
+        <c:crossAx val="105256064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -3221,7 +3254,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3266,7 +3298,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3367,11 +3398,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="120515200"/>
-        <c:axId val="120525184"/>
+        <c:axId val="105278464"/>
+        <c:axId val="105292544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="120515200"/>
+        <c:axId val="105278464"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -3381,7 +3412,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120525184"/>
+        <c:crossAx val="105292544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3390,7 +3421,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120525184"/>
+        <c:axId val="105292544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -3453,7 +3484,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120515200"/>
+        <c:crossAx val="105278464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -3462,7 +3493,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3554,7 +3584,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Alle Abteilungen'!$A$9</c:f>
+              <c:f>'Alle Abteilungen'!$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3566,7 +3596,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Alle Abteilungen'!$A$10:$A$17</c:f>
+              <c:f>'Alle Abteilungen'!$A$18:$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -3598,7 +3628,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Alle Abteilungen'!$Y$10:$Y$17</c:f>
+              <c:f>'Alle Abteilungen'!$Y$18:$Y$25</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3640,11 +3670,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="109615360"/>
-        <c:axId val="109637632"/>
+        <c:axId val="96115328"/>
+        <c:axId val="97649024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="109615360"/>
+        <c:axId val="96115328"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -3654,7 +3684,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109637632"/>
+        <c:crossAx val="97649024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3663,7 +3693,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109637632"/>
+        <c:axId val="97649024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -3726,7 +3756,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109615360"/>
+        <c:crossAx val="96115328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -3809,7 +3839,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4072,11 +4101,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="117548928"/>
-        <c:axId val="117550464"/>
+        <c:axId val="97728768"/>
+        <c:axId val="97730560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="117548928"/>
+        <c:axId val="97728768"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -4086,7 +4115,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117550464"/>
+        <c:crossAx val="97730560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4095,7 +4124,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117550464"/>
+        <c:axId val="97730560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -4158,7 +4187,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117548928"/>
+        <c:crossAx val="97728768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -4167,7 +4196,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4212,7 +4240,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4313,11 +4340,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="117714944"/>
-        <c:axId val="117716480"/>
+        <c:axId val="97759616"/>
+        <c:axId val="97761152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="117714944"/>
+        <c:axId val="97759616"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -4327,7 +4354,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117716480"/>
+        <c:crossAx val="97761152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4336,7 +4363,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117716480"/>
+        <c:axId val="97761152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -4399,7 +4426,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117714944"/>
+        <c:crossAx val="97759616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -4408,7 +4435,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4487,7 +4513,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4831,11 +4856,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="118044928"/>
-        <c:axId val="118054912"/>
+        <c:axId val="98190464"/>
+        <c:axId val="98192000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="118044928"/>
+        <c:axId val="98190464"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -4845,7 +4870,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118054912"/>
+        <c:crossAx val="98192000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4854,7 +4879,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118054912"/>
+        <c:axId val="98192000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -4917,7 +4942,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118044928"/>
+        <c:crossAx val="98190464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -4926,7 +4951,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4971,7 +4995,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5072,11 +5095,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="118084352"/>
-        <c:axId val="118085888"/>
+        <c:axId val="98221440"/>
+        <c:axId val="98235520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="118084352"/>
+        <c:axId val="98221440"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -5086,7 +5109,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118085888"/>
+        <c:crossAx val="98235520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5095,7 +5118,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118085888"/>
+        <c:axId val="98235520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -5158,7 +5181,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118084352"/>
+        <c:crossAx val="98221440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -5167,7 +5190,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5246,7 +5268,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5509,11 +5530,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="117821824"/>
-        <c:axId val="117823360"/>
+        <c:axId val="99376128"/>
+        <c:axId val="99386112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="117821824"/>
+        <c:axId val="99376128"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -5523,7 +5544,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117823360"/>
+        <c:crossAx val="99386112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5532,7 +5553,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117823360"/>
+        <c:axId val="99386112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -5595,7 +5616,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117821824"/>
+        <c:crossAx val="99376128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -5604,7 +5625,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5649,7 +5669,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5750,11 +5769,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="117844224"/>
-        <c:axId val="117854208"/>
+        <c:axId val="99406976"/>
+        <c:axId val="99408512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="117844224"/>
+        <c:axId val="99406976"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -5764,7 +5783,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117854208"/>
+        <c:crossAx val="99408512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5773,7 +5792,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117854208"/>
+        <c:axId val="99408512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -5836,7 +5855,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117844224"/>
+        <c:crossAx val="99406976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -5845,7 +5864,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5895,7 +5913,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6239,11 +6256,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="118000640"/>
-        <c:axId val="118006528"/>
+        <c:axId val="99456512"/>
+        <c:axId val="99458048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="118000640"/>
+        <c:axId val="99456512"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -6253,7 +6270,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118006528"/>
+        <c:crossAx val="99458048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6262,7 +6279,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118006528"/>
+        <c:axId val="99458048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -6325,7 +6342,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118000640"/>
+        <c:crossAx val="99456512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -6334,7 +6351,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6355,13 +6371,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>314326</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6387,13 +6403,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>104776</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7188,17 +7204,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y64"/>
+  <dimension ref="A1:Y72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.42578125" customWidth="1"/>
     <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" customWidth="1"/>
     <col min="5" max="5" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2" bestFit="1" customWidth="1"/>
@@ -7223,704 +7239,810 @@
     <col min="25" max="25" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="D2" s="4" t="s">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="9"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="9"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="9"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="9"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="9"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="str">
+        <f>D11</f>
+        <v>Bauingenieurwesen</v>
+      </c>
+      <c r="B3" s="25">
+        <f>E15</f>
+        <v>25</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="9"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="9"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="9"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="9"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="9"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="str">
+        <f>G11</f>
+        <v>Landschaftsarchitektur</v>
+      </c>
+      <c r="B4" s="27">
+        <f>H15</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="str">
+        <f>J11</f>
+        <v>Raumplanung</v>
+      </c>
+      <c r="B5" s="27">
+        <f>K15</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="str">
+        <f>M11</f>
+        <v>Elektrotechnik</v>
+      </c>
+      <c r="B6" s="27">
+        <f>N15</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="str">
+        <f>P11</f>
+        <v>Maschinentechnik</v>
+      </c>
+      <c r="B7" s="27">
+        <f>Q15</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="str">
+        <f>S11</f>
+        <v>Erneuerbare Energien und Umwelttechnik </v>
+      </c>
+      <c r="B8" s="27">
+        <f>T15</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="26" t="str">
+        <f>V11</f>
+        <v>Informatik</v>
+      </c>
+      <c r="B9" s="27">
+        <f>W15</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="29">
+        <f>SUM(B3:B9)</f>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="D11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="4" t="s">
+      <c r="G11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="4" t="s">
+      <c r="M11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="P11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="S2" s="20" t="s">
+      <c r="S11" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="V11" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="G12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12">
         <v>15</v>
       </c>
-      <c r="J3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3">
+      <c r="J12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12">
         <v>10</v>
       </c>
-      <c r="M3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3">
+      <c r="M12" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12">
         <v>13</v>
       </c>
-      <c r="P3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q3">
+      <c r="P12" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12">
         <v>11</v>
       </c>
-      <c r="S3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T3">
+      <c r="S12" t="s">
+        <v>3</v>
+      </c>
+      <c r="T12">
         <v>5</v>
       </c>
-      <c r="V3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W3">
+      <c r="V12" t="s">
+        <v>3</v>
+      </c>
+      <c r="W12">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
         <v>6</v>
       </c>
-      <c r="E4">
+      <c r="E13">
         <v>21</v>
       </c>
-      <c r="G4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4">
+      <c r="G13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13">
         <v>6</v>
       </c>
-      <c r="J4" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4">
+      <c r="J13" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13">
         <v>11</v>
       </c>
-      <c r="M4" t="s">
-        <v>1</v>
-      </c>
-      <c r="N4">
+      <c r="M13" t="s">
+        <v>1</v>
+      </c>
+      <c r="N13">
         <v>9</v>
       </c>
-      <c r="P4" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q4">
+      <c r="P13" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q13">
         <v>22</v>
       </c>
-      <c r="S4" t="s">
-        <v>1</v>
-      </c>
-      <c r="T4">
+      <c r="S13" t="s">
+        <v>1</v>
+      </c>
+      <c r="T13">
         <v>15</v>
       </c>
-      <c r="V4" t="s">
-        <v>1</v>
-      </c>
-      <c r="W4">
+      <c r="V13" t="s">
+        <v>1</v>
+      </c>
+      <c r="W13">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E5" s="14"/>
-      <c r="G5" t="s">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E14" s="14"/>
+      <c r="G14" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="14">
-        <v>2</v>
-      </c>
-      <c r="K5" s="14"/>
-      <c r="M5" t="s">
+      <c r="H14" s="14">
+        <v>2</v>
+      </c>
+      <c r="K14" s="14"/>
+      <c r="M14" t="s">
         <v>6</v>
       </c>
-      <c r="N5" s="14">
+      <c r="N14" s="14">
         <v>7</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P14" t="s">
         <v>6</v>
       </c>
-      <c r="Q5" s="14">
+      <c r="Q14" s="14">
         <v>15</v>
       </c>
-      <c r="T5" s="14"/>
-      <c r="V5" t="s">
+      <c r="T14" s="14"/>
+      <c r="V14" t="s">
         <v>39</v>
       </c>
-      <c r="W5" s="14">
+      <c r="W14" s="14">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="16">
-        <f>SUM(W6,E6,H6,K6,N6,Q6,T6)</f>
-        <v>203</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6" t="s">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="9">
-        <f>SUM(E3:E4)</f>
+      <c r="E15" s="9">
+        <f>SUM(E12:E13)</f>
         <v>25</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6" t="s">
+      <c r="F15" s="6"/>
+      <c r="G15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="9">
-        <f>SUM(H3:H5)</f>
+      <c r="H15" s="9">
+        <f>SUM(H12:H14)</f>
         <v>23</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6" t="s">
+      <c r="I15" s="6"/>
+      <c r="J15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="9">
-        <f>SUM(K3:K5)</f>
+      <c r="K15" s="9">
+        <f>SUM(K12:K14)</f>
         <v>21</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="M15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="9">
-        <f>SUM(N3:N5)</f>
+      <c r="N15" s="9">
+        <f>SUM(N12:N14)</f>
         <v>29</v>
       </c>
-      <c r="P6" s="6" t="s">
+      <c r="P15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" s="9">
-        <f>SUM(Q3:Q5)</f>
+      <c r="Q15" s="9">
+        <f>SUM(Q12:Q14)</f>
         <v>48</v>
       </c>
-      <c r="S6" s="6" t="s">
+      <c r="S15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="T6" s="9">
-        <f>SUM(T3:T5)</f>
+      <c r="T15" s="9">
+        <f>SUM(T12:T14)</f>
         <v>20</v>
       </c>
-      <c r="V6" s="6" t="s">
+      <c r="V15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="W6" s="9">
-        <f>SUM(W3:W5)</f>
+      <c r="W15" s="9">
+        <f>SUM(W12:W14)</f>
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+    <row r="17" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G17" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M9" s="5" t="s">
+      <c r="M17" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="P9" s="5" t="s">
+      <c r="P17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="S9" s="5" t="s">
+      <c r="S17" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="V9" s="5" t="s">
+      <c r="V17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="X9" s="5" t="s">
+      <c r="X17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Y9" s="19" t="s">
+      <c r="Y17" s="17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D10">
+      <c r="D18">
         <f>Bauingenieurwesen!W4</f>
         <v>69</v>
       </c>
-      <c r="G10">
+      <c r="G18">
         <f>Landschaftsarchitektur!Q4</f>
         <v>64</v>
       </c>
-      <c r="J10">
+      <c r="J18">
         <f>Raumplanung!M4</f>
         <v>43</v>
       </c>
-      <c r="M10">
+      <c r="M18">
         <f>Elektrotechnik!O4</f>
         <v>68</v>
       </c>
-      <c r="P10">
+      <c r="P18">
         <f>Maschinentechnik!Y4</f>
         <v>121</v>
       </c>
-      <c r="S10">
+      <c r="S18">
         <f>EEU!Q4</f>
         <v>47</v>
       </c>
-      <c r="V10">
+      <c r="V18">
         <f>Informatik!W4</f>
         <v>81</v>
       </c>
-      <c r="X10">
+      <c r="X18">
         <f>Bauingenieurwesen!X4+Landschaftsarchitektur!R4+Raumplanung!N4+Elektrotechnik!P4+Maschinentechnik!Z4+EEU!R4+Informatik!X4</f>
         <v>203</v>
       </c>
-      <c r="Y10" s="12">
-        <f>(D10+G10+J10+M10+P10+S10+V10)/X10</f>
+      <c r="Y18" s="12">
+        <f>(D18+G18+J18+M18+P18+S18+V18)/X18</f>
         <v>2.4285714285714284</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D11">
+      <c r="D19">
         <f>Bauingenieurwesen!W5</f>
         <v>63</v>
       </c>
-      <c r="G11">
+      <c r="G19">
         <f>Landschaftsarchitektur!Q5</f>
         <v>40</v>
       </c>
-      <c r="J11">
+      <c r="J19">
         <f>Raumplanung!M5</f>
         <v>36</v>
       </c>
-      <c r="M11">
+      <c r="M19">
         <f>Elektrotechnik!O5</f>
         <v>44</v>
       </c>
-      <c r="P11">
+      <c r="P19">
         <f>Maschinentechnik!Y5</f>
         <v>94</v>
       </c>
-      <c r="S11">
+      <c r="S19">
         <f>EEU!Q5</f>
         <v>33</v>
       </c>
-      <c r="V11">
+      <c r="V19">
         <f>Informatik!W5</f>
         <v>65</v>
       </c>
-      <c r="X11">
+      <c r="X19">
         <f>Bauingenieurwesen!X5+Landschaftsarchitektur!R5+Raumplanung!N5+Elektrotechnik!P5+Maschinentechnik!Z5+EEU!R5+Informatik!X5</f>
         <v>203</v>
       </c>
-      <c r="Y11" s="12">
-        <f t="shared" ref="Y11:Y17" si="0">(D11+G11+J11+M11+P11+S11+V11)/X11</f>
+      <c r="Y19" s="12">
+        <f t="shared" ref="Y19:Y25" si="0">(D19+G19+J19+M19+P19+S19+V19)/X19</f>
         <v>1.8472906403940887</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D12">
+      <c r="D20">
         <f>Bauingenieurwesen!W6</f>
         <v>65</v>
       </c>
-      <c r="G12">
+      <c r="G20">
         <f>Landschaftsarchitektur!Q6</f>
         <v>65</v>
       </c>
-      <c r="J12">
+      <c r="J20">
         <f>Raumplanung!M6</f>
         <v>55</v>
       </c>
-      <c r="M12">
+      <c r="M20">
         <f>Elektrotechnik!O6</f>
         <v>79</v>
       </c>
-      <c r="P12">
+      <c r="P20">
         <f>Maschinentechnik!Y6</f>
         <v>142</v>
       </c>
-      <c r="S12">
+      <c r="S20">
         <f>EEU!Q6</f>
         <v>52</v>
       </c>
-      <c r="V12">
+      <c r="V20">
         <f>Informatik!W6</f>
         <v>107</v>
       </c>
-      <c r="X12">
+      <c r="X20">
         <f>Bauingenieurwesen!X6+Landschaftsarchitektur!R6+Raumplanung!N6+Elektrotechnik!P6+Maschinentechnik!Z6+EEU!R6+Informatik!X6</f>
         <v>193</v>
       </c>
-      <c r="Y12" s="12">
+      <c r="Y20" s="12">
         <f t="shared" si="0"/>
         <v>2.9274611398963732</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D13">
+      <c r="D21">
         <f>Bauingenieurwesen!W7</f>
         <v>57</v>
       </c>
-      <c r="G13">
+      <c r="G21">
         <f>Landschaftsarchitektur!Q7</f>
         <v>49</v>
       </c>
-      <c r="J13">
+      <c r="J21">
         <f>Raumplanung!M7</f>
         <v>63</v>
       </c>
-      <c r="M13">
+      <c r="M21">
         <f>Elektrotechnik!O7</f>
         <v>66</v>
       </c>
-      <c r="P13">
+      <c r="P21">
         <f>Maschinentechnik!Y7</f>
         <v>108</v>
       </c>
-      <c r="S13">
+      <c r="S21">
         <f>EEU!Q7</f>
         <v>49</v>
       </c>
-      <c r="V13">
+      <c r="V21">
         <f>Informatik!W7</f>
         <v>89.5</v>
       </c>
-      <c r="X13">
+      <c r="X21">
         <f>Bauingenieurwesen!X7+Landschaftsarchitektur!R7+Raumplanung!N7+Elektrotechnik!P7+Maschinentechnik!Z7+EEU!R7+Informatik!X7</f>
         <v>201</v>
       </c>
-      <c r="Y13" s="12">
+      <c r="Y21" s="12">
         <f t="shared" si="0"/>
         <v>2.3955223880597014</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D14">
+      <c r="D22">
         <f>Bauingenieurwesen!W8</f>
         <v>67</v>
       </c>
-      <c r="G14">
+      <c r="G22">
         <f>Landschaftsarchitektur!Q8</f>
         <v>67</v>
       </c>
-      <c r="J14">
+      <c r="J22">
         <f>Raumplanung!M8</f>
         <v>60</v>
       </c>
-      <c r="M14">
+      <c r="M22">
         <f>Elektrotechnik!O8</f>
         <v>76</v>
       </c>
-      <c r="P14">
+      <c r="P22">
         <f>Maschinentechnik!Y8</f>
         <v>134</v>
       </c>
-      <c r="S14">
+      <c r="S22">
         <f>EEU!Q8</f>
         <v>52</v>
       </c>
-      <c r="V14">
+      <c r="V22">
         <f>Informatik!W8</f>
         <v>91</v>
       </c>
-      <c r="X14">
+      <c r="X22">
         <f>Bauingenieurwesen!X8+Landschaftsarchitektur!R8+Raumplanung!N8+Elektrotechnik!P8+Maschinentechnik!Z8+EEU!R8+Informatik!X8</f>
         <v>199</v>
       </c>
-      <c r="Y14" s="12">
+      <c r="Y22" s="12">
         <f t="shared" si="0"/>
         <v>2.7487437185929648</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D15">
+      <c r="D23">
         <f>Bauingenieurwesen!W9</f>
         <v>56</v>
       </c>
-      <c r="G15">
+      <c r="G23">
         <f>Landschaftsarchitektur!Q9</f>
         <v>49</v>
       </c>
-      <c r="J15">
+      <c r="J23">
         <f>Raumplanung!M9</f>
         <v>56</v>
       </c>
-      <c r="M15">
+      <c r="M23">
         <f>Elektrotechnik!O9</f>
         <v>74</v>
       </c>
-      <c r="P15">
+      <c r="P23">
         <f>Maschinentechnik!Y9</f>
         <v>131</v>
       </c>
-      <c r="S15">
+      <c r="S23">
         <f>EEU!Q9</f>
         <v>52.5</v>
       </c>
-      <c r="V15">
+      <c r="V23">
         <f>Informatik!W9</f>
         <v>105</v>
       </c>
-      <c r="X15">
+      <c r="X23">
         <f>Bauingenieurwesen!X9+Landschaftsarchitektur!R9+Raumplanung!N9+Elektrotechnik!P9+Maschinentechnik!Z9+EEU!R9+Informatik!X9</f>
         <v>200</v>
       </c>
-      <c r="Y15" s="12">
+      <c r="Y23" s="12">
         <f t="shared" si="0"/>
         <v>2.6175000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D16">
+      <c r="D24">
         <f>Bauingenieurwesen!W10</f>
         <v>31</v>
       </c>
-      <c r="G16">
+      <c r="G24">
         <f>Landschaftsarchitektur!Q10</f>
         <v>42</v>
       </c>
-      <c r="J16">
+      <c r="J24">
         <f>Raumplanung!M10</f>
         <v>38</v>
       </c>
-      <c r="M16">
+      <c r="M24">
         <f>Elektrotechnik!O10</f>
         <v>55</v>
       </c>
-      <c r="P16">
+      <c r="P24">
         <f>Maschinentechnik!Y10</f>
         <v>95</v>
       </c>
-      <c r="S16">
+      <c r="S24">
         <f>EEU!Q10</f>
         <v>45.5</v>
       </c>
-      <c r="V16">
+      <c r="V24">
         <f>Informatik!W10</f>
         <v>81.5</v>
       </c>
-      <c r="X16">
+      <c r="X24">
         <f>Bauingenieurwesen!X10+Landschaftsarchitektur!R10+Raumplanung!N10+Elektrotechnik!P10+Maschinentechnik!Z10+EEU!R10+Informatik!X10</f>
         <v>201</v>
       </c>
-      <c r="Y16" s="12">
+      <c r="Y24" s="12">
         <f t="shared" si="0"/>
         <v>1.9303482587064678</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D17">
+      <c r="D25">
         <f>Bauingenieurwesen!W11</f>
         <v>63</v>
       </c>
-      <c r="G17">
+      <c r="G25">
         <f>Landschaftsarchitektur!Q11</f>
         <v>60</v>
       </c>
-      <c r="J17">
+      <c r="J25">
         <f>Raumplanung!M11</f>
         <v>67</v>
       </c>
-      <c r="M17">
+      <c r="M25">
         <f>Elektrotechnik!O11</f>
         <v>94</v>
       </c>
-      <c r="P17">
+      <c r="P25">
         <f>Maschinentechnik!Y11</f>
         <v>136</v>
       </c>
-      <c r="S17">
+      <c r="S25">
         <f>EEU!Q11</f>
         <v>71</v>
       </c>
-      <c r="V17">
+      <c r="V25">
         <f>Informatik!W11</f>
         <v>120</v>
       </c>
-      <c r="X17">
+      <c r="X25">
         <f>Bauingenieurwesen!X11+Landschaftsarchitektur!R11+Raumplanung!N11+Elektrotechnik!P11+Maschinentechnik!Z11+EEU!R11+Informatik!X11</f>
         <v>203</v>
       </c>
-      <c r="Y17" s="13">
+      <c r="Y25" s="13">
         <f t="shared" si="0"/>
         <v>3.0098522167487687</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-    </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
+      <c r="A26" s="2"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
+      <c r="A27" s="3"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
+      <c r="A28" s="1"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
+      <c r="A29" s="2"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
+      <c r="A30" s="2"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
+      <c r="A31" s="3"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-    </row>
-    <row r="51" spans="1:25" ht="27.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="22" t="s">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+    </row>
+    <row r="59" spans="1:25" ht="27.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D59" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="Y51" s="23"/>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A52" s="17"/>
-      <c r="D52" s="25" t="s">
+      <c r="Y59" s="21"/>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A60" s="15"/>
+      <c r="D60" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="Y52" s="23"/>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A53" s="17"/>
-      <c r="D53" s="25" t="s">
+      <c r="Y60" s="21"/>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A61" s="15"/>
+      <c r="D61" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="Y53" s="23"/>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A54" s="17"/>
-      <c r="D54" s="4" t="str">
-        <f>G2</f>
+      <c r="Y61" s="21"/>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A62" s="15"/>
+      <c r="D62" s="4" t="str">
+        <f>G11</f>
         <v>Landschaftsarchitektur</v>
       </c>
-      <c r="Y54" s="23"/>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D55" t="str">
+      <c r="Y62" s="21"/>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="D63" t="str">
         <f>Landschaftsarchitektur!B13</f>
         <v>- Zur Frage, ob Video anstelle Poster: Ich denke, dies ist auch sehr abhängig vom Studiengang, weil bei L (R denke ich auch) ist die Gestaltung des Posters auch ein wichtiger Teil der Arbeit.</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D56" t="str">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="D64" t="str">
         <f>Landschaftsarchitektur!B14</f>
         <v>- Die Antworten beziehen sich auf die L-Arbeiten</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D57" s="4" t="str">
-        <f>J2</f>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D65" s="4" t="str">
+        <f>J11</f>
         <v>Raumplanung</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D58" t="str">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D66" t="str">
         <f>Raumplanung!B13</f>
         <v>- Video würde sich eignen, um durch die 3D-Darstellungen auf dem PC zu "fliegen"</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D59" s="4" t="str">
-        <f>'Alle Abteilungen'!P2</f>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D67" s="4" t="str">
+        <f>'Alle Abteilungen'!P11</f>
         <v>Maschinentechnik</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D60" t="str">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D68" t="str">
         <f>Maschinentechnik!B13</f>
         <v>- Wie erkläre ich technische Zusammenhänge in einem Video? Video eignet sich für meine Arbeit nicht, zudem ist dessen Erstellung ein zu grosser Aufwand.</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D61" s="4" t="str">
-        <f>S2</f>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D69" s="4" t="str">
+        <f>S11</f>
         <v>Erneuerbare Energien und Umwelttechnik </v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D62" t="str">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D70" t="str">
         <f>EEU!B13</f>
         <v>- Video als Ergänzung zu einem Poster, nicht als Ersatz</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D63" s="4" t="str">
-        <f>V2</f>
+    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D71" s="4" t="str">
+        <f>V11</f>
         <v>Informatik</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D64" t="str">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D72" t="str">
         <f>Informatik!B13</f>
         <v>- Der Vorteil der Poster ist, dass man sich rasch einen Überblick über die Arbeit verschaffen kann</v>
       </c>
@@ -7964,7 +8086,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="9">
-        <f>'Alle Abteilungen'!E6</f>
+        <f>'Alle Abteilungen'!E15</f>
         <v>25</v>
       </c>
       <c r="I1" s="6"/>
@@ -8011,7 +8133,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$10</f>
+        <f>'Alle Abteilungen'!$A$18</f>
         <v>Sichtbarkeit der Poster</v>
       </c>
       <c r="B4">
@@ -8037,7 +8159,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$11</f>
+        <f>'Alle Abteilungen'!$A$19</f>
         <v>Sichtbarkeit der Broschüre</v>
       </c>
       <c r="B5">
@@ -8063,7 +8185,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$12</f>
+        <f>'Alle Abteilungen'!$A$20</f>
         <v>Wert der Präsentation</v>
       </c>
       <c r="B6">
@@ -8089,7 +8211,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$13</f>
+        <f>'Alle Abteilungen'!$A$21</f>
         <v>Zeitaufwand</v>
       </c>
       <c r="B7">
@@ -8115,7 +8237,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$14</f>
+        <f>'Alle Abteilungen'!$A$22</f>
         <v>Qualität der Poster/Broschüre</v>
       </c>
       <c r="B8">
@@ -8141,7 +8263,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$15</f>
+        <f>'Alle Abteilungen'!$A$23</f>
         <v>Akzeptanz Video sehen</v>
       </c>
       <c r="B9">
@@ -8167,7 +8289,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$16</f>
+        <f>'Alle Abteilungen'!$A$24</f>
         <v>Akzeptanz Video produzieren</v>
       </c>
       <c r="B10">
@@ -8193,7 +8315,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$17</f>
+        <f>'Alle Abteilungen'!$A$25</f>
         <v>Akzeptanz Video veröffentlichen</v>
       </c>
       <c r="B11">
@@ -8264,11 +8386,11 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="str">
-        <f>'Alle Abteilungen'!D3</f>
+        <f>'Alle Abteilungen'!D12</f>
         <v>4. Semester</v>
       </c>
       <c r="B14" s="9">
-        <f>'Alle Abteilungen'!E3</f>
+        <f>'Alle Abteilungen'!E12</f>
         <v>4</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -8303,7 +8425,7 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$10</f>
+        <f>'Alle Abteilungen'!$A$18</f>
         <v>Sichtbarkeit der Poster</v>
       </c>
       <c r="B15">
@@ -8333,7 +8455,7 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$11</f>
+        <f>'Alle Abteilungen'!$A$19</f>
         <v>Sichtbarkeit der Broschüre</v>
       </c>
       <c r="B16">
@@ -8363,7 +8485,7 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$12</f>
+        <f>'Alle Abteilungen'!$A$20</f>
         <v>Wert der Präsentation</v>
       </c>
       <c r="B17">
@@ -8393,7 +8515,7 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$13</f>
+        <f>'Alle Abteilungen'!$A$21</f>
         <v>Zeitaufwand</v>
       </c>
       <c r="B18">
@@ -8423,7 +8545,7 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$14</f>
+        <f>'Alle Abteilungen'!$A$22</f>
         <v>Qualität der Poster/Broschüre</v>
       </c>
       <c r="B19">
@@ -8453,7 +8575,7 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$15</f>
+        <f>'Alle Abteilungen'!$A$23</f>
         <v>Akzeptanz Video sehen</v>
       </c>
       <c r="B20">
@@ -8483,7 +8605,7 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$16</f>
+        <f>'Alle Abteilungen'!$A$24</f>
         <v>Akzeptanz Video produzieren</v>
       </c>
       <c r="B21">
@@ -8513,7 +8635,7 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$17</f>
+        <f>'Alle Abteilungen'!$A$25</f>
         <v>Akzeptanz Video veröffentlichen</v>
       </c>
       <c r="B22">
@@ -8614,11 +8736,11 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="str">
-        <f>'Alle Abteilungen'!D4</f>
+        <f>'Alle Abteilungen'!D13</f>
         <v>6. Semester</v>
       </c>
       <c r="B25" s="9">
-        <f>'Alle Abteilungen'!E4</f>
+        <f>'Alle Abteilungen'!E13</f>
         <v>21</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -8653,7 +8775,7 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$10</f>
+        <f>'Alle Abteilungen'!$A$18</f>
         <v>Sichtbarkeit der Poster</v>
       </c>
       <c r="B26">
@@ -8734,7 +8856,7 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$11</f>
+        <f>'Alle Abteilungen'!$A$19</f>
         <v>Sichtbarkeit der Broschüre</v>
       </c>
       <c r="B27">
@@ -8815,7 +8937,7 @@
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$12</f>
+        <f>'Alle Abteilungen'!$A$20</f>
         <v>Wert der Präsentation</v>
       </c>
       <c r="B28">
@@ -8896,7 +9018,7 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$13</f>
+        <f>'Alle Abteilungen'!$A$21</f>
         <v>Zeitaufwand</v>
       </c>
       <c r="B29">
@@ -8977,7 +9099,7 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$14</f>
+        <f>'Alle Abteilungen'!$A$22</f>
         <v>Qualität der Poster/Broschüre</v>
       </c>
       <c r="B30">
@@ -9058,7 +9180,7 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$15</f>
+        <f>'Alle Abteilungen'!$A$23</f>
         <v>Akzeptanz Video sehen</v>
       </c>
       <c r="B31">
@@ -9139,7 +9261,7 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$16</f>
+        <f>'Alle Abteilungen'!$A$24</f>
         <v>Akzeptanz Video produzieren</v>
       </c>
       <c r="B32">
@@ -9220,7 +9342,7 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$17</f>
+        <f>'Alle Abteilungen'!$A$25</f>
         <v>Akzeptanz Video veröffentlichen</v>
       </c>
       <c r="B33">
@@ -9340,7 +9462,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="9">
-        <f>'Alle Abteilungen'!H6</f>
+        <f>'Alle Abteilungen'!H15</f>
         <v>23</v>
       </c>
       <c r="I1" s="6"/>
@@ -9381,7 +9503,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$10</f>
+        <f>'Alle Abteilungen'!$A$18</f>
         <v>Sichtbarkeit der Poster</v>
       </c>
       <c r="B4">
@@ -9411,7 +9533,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$11</f>
+        <f>'Alle Abteilungen'!$A$19</f>
         <v>Sichtbarkeit der Broschüre</v>
       </c>
       <c r="B5">
@@ -9441,7 +9563,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$12</f>
+        <f>'Alle Abteilungen'!$A$20</f>
         <v>Wert der Präsentation</v>
       </c>
       <c r="B6">
@@ -9471,7 +9593,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$13</f>
+        <f>'Alle Abteilungen'!$A$21</f>
         <v>Zeitaufwand</v>
       </c>
       <c r="B7">
@@ -9501,7 +9623,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$14</f>
+        <f>'Alle Abteilungen'!$A$22</f>
         <v>Qualität der Poster/Broschüre</v>
       </c>
       <c r="B8">
@@ -9531,7 +9653,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$15</f>
+        <f>'Alle Abteilungen'!$A$23</f>
         <v>Akzeptanz Video sehen</v>
       </c>
       <c r="B9">
@@ -9561,7 +9683,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$16</f>
+        <f>'Alle Abteilungen'!$A$24</f>
         <v>Akzeptanz Video produzieren</v>
       </c>
       <c r="B10">
@@ -9591,7 +9713,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$17</f>
+        <f>'Alle Abteilungen'!$A$25</f>
         <v>Akzeptanz Video veröffentlichen</v>
       </c>
       <c r="B11">
@@ -9634,54 +9756,54 @@
       <c r="P12" s="6"/>
     </row>
     <row r="13" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="str">
-        <f>'Alle Abteilungen'!A51</f>
+      <c r="A13" s="20" t="str">
+        <f>'Alle Abteilungen'!A59</f>
         <v>Kommentare der Befragten:
 (schriftlich oder mündlich)</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="24" t="s">
+      <c r="A14" s="20"/>
+      <c r="B14" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -9702,11 +9824,11 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="str">
-        <f>'Alle Abteilungen'!G3</f>
+        <f>'Alle Abteilungen'!G12</f>
         <v>2. Semester</v>
       </c>
       <c r="B16" s="9">
-        <f>'Alle Abteilungen'!H3</f>
+        <f>'Alle Abteilungen'!H12</f>
         <v>15</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -9733,7 +9855,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$10</f>
+        <f>'Alle Abteilungen'!$A$18</f>
         <v>Sichtbarkeit der Poster</v>
       </c>
       <c r="B17">
@@ -9796,7 +9918,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$11</f>
+        <f>'Alle Abteilungen'!$A$19</f>
         <v>Sichtbarkeit der Broschüre</v>
       </c>
       <c r="B18">
@@ -9859,7 +9981,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$12</f>
+        <f>'Alle Abteilungen'!$A$20</f>
         <v>Wert der Präsentation</v>
       </c>
       <c r="B19">
@@ -9922,7 +10044,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$13</f>
+        <f>'Alle Abteilungen'!$A$21</f>
         <v>Zeitaufwand</v>
       </c>
       <c r="B20">
@@ -9985,7 +10107,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$14</f>
+        <f>'Alle Abteilungen'!$A$22</f>
         <v>Qualität der Poster/Broschüre</v>
       </c>
       <c r="B21">
@@ -10048,7 +10170,7 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$15</f>
+        <f>'Alle Abteilungen'!$A$23</f>
         <v>Akzeptanz Video sehen</v>
       </c>
       <c r="B22">
@@ -10111,7 +10233,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$16</f>
+        <f>'Alle Abteilungen'!$A$24</f>
         <v>Akzeptanz Video produzieren</v>
       </c>
       <c r="B23">
@@ -10174,7 +10296,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$17</f>
+        <f>'Alle Abteilungen'!$A$25</f>
         <v>Akzeptanz Video veröffentlichen</v>
       </c>
       <c r="B24">
@@ -10291,11 +10413,11 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="str">
-        <f>'Alle Abteilungen'!G4</f>
+        <f>'Alle Abteilungen'!G13</f>
         <v>4. Semester</v>
       </c>
       <c r="B27" s="9">
-        <f>'Alle Abteilungen'!H4</f>
+        <f>'Alle Abteilungen'!H13</f>
         <v>6</v>
       </c>
       <c r="C27" s="6" t="s">
@@ -10322,7 +10444,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$10</f>
+        <f>'Alle Abteilungen'!$A$18</f>
         <v>Sichtbarkeit der Poster</v>
       </c>
       <c r="B28">
@@ -10358,7 +10480,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$11</f>
+        <f>'Alle Abteilungen'!$A$19</f>
         <v>Sichtbarkeit der Broschüre</v>
       </c>
       <c r="B29">
@@ -10394,7 +10516,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$12</f>
+        <f>'Alle Abteilungen'!$A$20</f>
         <v>Wert der Präsentation</v>
       </c>
       <c r="B30">
@@ -10430,7 +10552,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$13</f>
+        <f>'Alle Abteilungen'!$A$21</f>
         <v>Zeitaufwand</v>
       </c>
       <c r="B31">
@@ -10466,7 +10588,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$14</f>
+        <f>'Alle Abteilungen'!$A$22</f>
         <v>Qualität der Poster/Broschüre</v>
       </c>
       <c r="B32">
@@ -10502,7 +10624,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$15</f>
+        <f>'Alle Abteilungen'!$A$23</f>
         <v>Akzeptanz Video sehen</v>
       </c>
       <c r="B33">
@@ -10538,7 +10660,7 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$16</f>
+        <f>'Alle Abteilungen'!$A$24</f>
         <v>Akzeptanz Video produzieren</v>
       </c>
       <c r="B34">
@@ -10574,7 +10696,7 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$17</f>
+        <f>'Alle Abteilungen'!$A$25</f>
         <v>Akzeptanz Video veröffentlichen</v>
       </c>
       <c r="B35">
@@ -10613,11 +10735,11 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="str">
-        <f>'Alle Abteilungen'!G5</f>
+        <f>'Alle Abteilungen'!G14</f>
         <v>6. Semester</v>
       </c>
       <c r="B37" s="9">
-        <f>'Alle Abteilungen'!H5</f>
+        <f>'Alle Abteilungen'!H14</f>
         <v>2</v>
       </c>
       <c r="C37" s="6" t="s">
@@ -10644,7 +10766,7 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$10</f>
+        <f>'Alle Abteilungen'!$A$18</f>
         <v>Sichtbarkeit der Poster</v>
       </c>
       <c r="B38">
@@ -10668,7 +10790,7 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$11</f>
+        <f>'Alle Abteilungen'!$A$19</f>
         <v>Sichtbarkeit der Broschüre</v>
       </c>
       <c r="B39">
@@ -10692,7 +10814,7 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$12</f>
+        <f>'Alle Abteilungen'!$A$20</f>
         <v>Wert der Präsentation</v>
       </c>
       <c r="B40">
@@ -10716,7 +10838,7 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$13</f>
+        <f>'Alle Abteilungen'!$A$21</f>
         <v>Zeitaufwand</v>
       </c>
       <c r="B41">
@@ -10740,7 +10862,7 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$14</f>
+        <f>'Alle Abteilungen'!$A$22</f>
         <v>Qualität der Poster/Broschüre</v>
       </c>
       <c r="B42">
@@ -10764,7 +10886,7 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$15</f>
+        <f>'Alle Abteilungen'!$A$23</f>
         <v>Akzeptanz Video sehen</v>
       </c>
       <c r="B43">
@@ -10788,7 +10910,7 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$16</f>
+        <f>'Alle Abteilungen'!$A$24</f>
         <v>Akzeptanz Video produzieren</v>
       </c>
       <c r="B44">
@@ -10812,7 +10934,7 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$17</f>
+        <f>'Alle Abteilungen'!$A$25</f>
         <v>Akzeptanz Video veröffentlichen</v>
       </c>
       <c r="B45">
@@ -10876,7 +10998,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="9">
-        <f>'Alle Abteilungen'!K6</f>
+        <f>'Alle Abteilungen'!K15</f>
         <v>21</v>
       </c>
       <c r="I1" s="6"/>
@@ -10913,7 +11035,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$10</f>
+        <f>'Alle Abteilungen'!$A$18</f>
         <v>Sichtbarkeit der Poster</v>
       </c>
       <c r="B4">
@@ -10939,7 +11061,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$11</f>
+        <f>'Alle Abteilungen'!$A$19</f>
         <v>Sichtbarkeit der Broschüre</v>
       </c>
       <c r="B5">
@@ -10965,7 +11087,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$12</f>
+        <f>'Alle Abteilungen'!$A$20</f>
         <v>Wert der Präsentation</v>
       </c>
       <c r="B6">
@@ -10991,7 +11113,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$13</f>
+        <f>'Alle Abteilungen'!$A$21</f>
         <v>Zeitaufwand</v>
       </c>
       <c r="B7">
@@ -11017,7 +11139,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$14</f>
+        <f>'Alle Abteilungen'!$A$22</f>
         <v>Qualität der Poster/Broschüre</v>
       </c>
       <c r="B8">
@@ -11043,7 +11165,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$15</f>
+        <f>'Alle Abteilungen'!$A$23</f>
         <v>Akzeptanz Video sehen</v>
       </c>
       <c r="B9">
@@ -11069,7 +11191,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$16</f>
+        <f>'Alle Abteilungen'!$A$24</f>
         <v>Akzeptanz Video produzieren</v>
       </c>
       <c r="B10">
@@ -11095,7 +11217,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$17</f>
+        <f>'Alle Abteilungen'!$A$25</f>
         <v>Akzeptanz Video veröffentlichen</v>
       </c>
       <c r="B11">
@@ -11131,13 +11253,13 @@
       <c r="J12" s="6"/>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="1:16" ht="27.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="str">
-        <f>'Alle Abteilungen'!A51</f>
+    <row r="13" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="str">
+        <f>'Alle Abteilungen'!A59</f>
         <v>Kommentare der Befragten:
 (schriftlich oder mündlich)</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="19" t="s">
         <v>51</v>
       </c>
       <c r="C13" s="6"/>
@@ -11169,11 +11291,11 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="str">
-        <f>'Alle Abteilungen'!J3</f>
+        <f>'Alle Abteilungen'!J12</f>
         <v>2. Semester</v>
       </c>
       <c r="B15" s="9">
-        <f>'Alle Abteilungen'!K3</f>
+        <f>'Alle Abteilungen'!K12</f>
         <v>10</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -11198,7 +11320,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$10</f>
+        <f>'Alle Abteilungen'!$A$18</f>
         <v>Sichtbarkeit der Poster</v>
       </c>
       <c r="B16">
@@ -11246,7 +11368,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$11</f>
+        <f>'Alle Abteilungen'!$A$19</f>
         <v>Sichtbarkeit der Broschüre</v>
       </c>
       <c r="B17">
@@ -11294,7 +11416,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$12</f>
+        <f>'Alle Abteilungen'!$A$20</f>
         <v>Wert der Präsentation</v>
       </c>
       <c r="B18">
@@ -11342,7 +11464,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$13</f>
+        <f>'Alle Abteilungen'!$A$21</f>
         <v>Zeitaufwand</v>
       </c>
       <c r="B19">
@@ -11390,7 +11512,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$14</f>
+        <f>'Alle Abteilungen'!$A$22</f>
         <v>Qualität der Poster/Broschüre</v>
       </c>
       <c r="B20">
@@ -11438,7 +11560,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$15</f>
+        <f>'Alle Abteilungen'!$A$23</f>
         <v>Akzeptanz Video sehen</v>
       </c>
       <c r="B21">
@@ -11486,7 +11608,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$16</f>
+        <f>'Alle Abteilungen'!$A$24</f>
         <v>Akzeptanz Video produzieren</v>
       </c>
       <c r="B22">
@@ -11534,7 +11656,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$17</f>
+        <f>'Alle Abteilungen'!$A$25</f>
         <v>Akzeptanz Video veröffentlichen</v>
       </c>
       <c r="B23">
@@ -11620,11 +11742,11 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="str">
-        <f>'Alle Abteilungen'!J4</f>
+        <f>'Alle Abteilungen'!J13</f>
         <v>4. Semester</v>
       </c>
       <c r="B26" s="9">
-        <f>'Alle Abteilungen'!K4</f>
+        <f>'Alle Abteilungen'!K13</f>
         <v>11</v>
       </c>
       <c r="C26" s="6" t="s">
@@ -11649,7 +11771,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$10</f>
+        <f>'Alle Abteilungen'!$A$18</f>
         <v>Sichtbarkeit der Poster</v>
       </c>
       <c r="B27">
@@ -11700,7 +11822,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$11</f>
+        <f>'Alle Abteilungen'!$A$19</f>
         <v>Sichtbarkeit der Broschüre</v>
       </c>
       <c r="B28">
@@ -11751,7 +11873,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$12</f>
+        <f>'Alle Abteilungen'!$A$20</f>
         <v>Wert der Präsentation</v>
       </c>
       <c r="B29">
@@ -11802,7 +11924,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$13</f>
+        <f>'Alle Abteilungen'!$A$21</f>
         <v>Zeitaufwand</v>
       </c>
       <c r="B30">
@@ -11853,7 +11975,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$14</f>
+        <f>'Alle Abteilungen'!$A$22</f>
         <v>Qualität der Poster/Broschüre</v>
       </c>
       <c r="B31">
@@ -11904,7 +12026,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$15</f>
+        <f>'Alle Abteilungen'!$A$23</f>
         <v>Akzeptanz Video sehen</v>
       </c>
       <c r="B32">
@@ -11955,7 +12077,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$16</f>
+        <f>'Alle Abteilungen'!$A$24</f>
         <v>Akzeptanz Video produzieren</v>
       </c>
       <c r="B33">
@@ -12006,7 +12128,7 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$17</f>
+        <f>'Alle Abteilungen'!$A$25</f>
         <v>Akzeptanz Video veröffentlichen</v>
       </c>
       <c r="B34">
@@ -12096,7 +12218,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="9">
-        <f>'Alle Abteilungen'!N6</f>
+        <f>'Alle Abteilungen'!N15</f>
         <v>29</v>
       </c>
       <c r="I1" s="6"/>
@@ -12137,7 +12259,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$10</f>
+        <f>'Alle Abteilungen'!$A$18</f>
         <v>Sichtbarkeit der Poster</v>
       </c>
       <c r="B4">
@@ -12167,7 +12289,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$11</f>
+        <f>'Alle Abteilungen'!$A$19</f>
         <v>Sichtbarkeit der Broschüre</v>
       </c>
       <c r="B5">
@@ -12197,7 +12319,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$12</f>
+        <f>'Alle Abteilungen'!$A$20</f>
         <v>Wert der Präsentation</v>
       </c>
       <c r="B6">
@@ -12227,7 +12349,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$13</f>
+        <f>'Alle Abteilungen'!$A$21</f>
         <v>Zeitaufwand</v>
       </c>
       <c r="B7">
@@ -12257,7 +12379,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$14</f>
+        <f>'Alle Abteilungen'!$A$22</f>
         <v>Qualität der Poster/Broschüre</v>
       </c>
       <c r="B8">
@@ -12287,7 +12409,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$15</f>
+        <f>'Alle Abteilungen'!$A$23</f>
         <v>Akzeptanz Video sehen</v>
       </c>
       <c r="B9">
@@ -12317,7 +12439,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$16</f>
+        <f>'Alle Abteilungen'!$A$24</f>
         <v>Akzeptanz Video produzieren</v>
       </c>
       <c r="B10">
@@ -12347,7 +12469,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$17</f>
+        <f>'Alle Abteilungen'!$A$25</f>
         <v>Akzeptanz Video veröffentlichen</v>
       </c>
       <c r="B11">
@@ -12406,11 +12528,11 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="str">
-        <f>'Alle Abteilungen'!M3</f>
+        <f>'Alle Abteilungen'!M12</f>
         <v>2. Semester</v>
       </c>
       <c r="B14" s="9">
-        <f>'Alle Abteilungen'!N3</f>
+        <f>'Alle Abteilungen'!N12</f>
         <v>13</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -12437,7 +12559,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$10</f>
+        <f>'Alle Abteilungen'!$A$18</f>
         <v>Sichtbarkeit der Poster</v>
       </c>
       <c r="B15">
@@ -12494,7 +12616,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$11</f>
+        <f>'Alle Abteilungen'!$A$19</f>
         <v>Sichtbarkeit der Broschüre</v>
       </c>
       <c r="B16">
@@ -12551,7 +12673,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$12</f>
+        <f>'Alle Abteilungen'!$A$20</f>
         <v>Wert der Präsentation</v>
       </c>
       <c r="B17">
@@ -12608,7 +12730,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$13</f>
+        <f>'Alle Abteilungen'!$A$21</f>
         <v>Zeitaufwand</v>
       </c>
       <c r="B18">
@@ -12665,7 +12787,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$14</f>
+        <f>'Alle Abteilungen'!$A$22</f>
         <v>Qualität der Poster/Broschüre</v>
       </c>
       <c r="B19">
@@ -12722,7 +12844,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$15</f>
+        <f>'Alle Abteilungen'!$A$23</f>
         <v>Akzeptanz Video sehen</v>
       </c>
       <c r="B20">
@@ -12779,7 +12901,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$16</f>
+        <f>'Alle Abteilungen'!$A$24</f>
         <v>Akzeptanz Video produzieren</v>
       </c>
       <c r="B21">
@@ -12836,7 +12958,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$17</f>
+        <f>'Alle Abteilungen'!$A$25</f>
         <v>Akzeptanz Video veröffentlichen</v>
       </c>
       <c r="B22">
@@ -12940,11 +13062,11 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="str">
-        <f>'Alle Abteilungen'!M4</f>
+        <f>'Alle Abteilungen'!M13</f>
         <v>4. Semester</v>
       </c>
       <c r="B25" s="9">
-        <f>'Alle Abteilungen'!N4</f>
+        <f>'Alle Abteilungen'!N13</f>
         <v>9</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -12971,7 +13093,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$10</f>
+        <f>'Alle Abteilungen'!$A$18</f>
         <v>Sichtbarkeit der Poster</v>
       </c>
       <c r="B26">
@@ -13016,7 +13138,7 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$11</f>
+        <f>'Alle Abteilungen'!$A$19</f>
         <v>Sichtbarkeit der Broschüre</v>
       </c>
       <c r="B27">
@@ -13061,7 +13183,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$12</f>
+        <f>'Alle Abteilungen'!$A$20</f>
         <v>Wert der Präsentation</v>
       </c>
       <c r="B28">
@@ -13106,7 +13228,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$13</f>
+        <f>'Alle Abteilungen'!$A$21</f>
         <v>Zeitaufwand</v>
       </c>
       <c r="B29">
@@ -13151,7 +13273,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$14</f>
+        <f>'Alle Abteilungen'!$A$22</f>
         <v>Qualität der Poster/Broschüre</v>
       </c>
       <c r="B30">
@@ -13196,7 +13318,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$15</f>
+        <f>'Alle Abteilungen'!$A$23</f>
         <v>Akzeptanz Video sehen</v>
       </c>
       <c r="B31">
@@ -13241,7 +13363,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$16</f>
+        <f>'Alle Abteilungen'!$A$24</f>
         <v>Akzeptanz Video produzieren</v>
       </c>
       <c r="B32">
@@ -13286,7 +13408,7 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$17</f>
+        <f>'Alle Abteilungen'!$A$25</f>
         <v>Akzeptanz Video veröffentlichen</v>
       </c>
       <c r="B33">
@@ -13334,11 +13456,11 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="str">
-        <f>'Alle Abteilungen'!M5</f>
+        <f>'Alle Abteilungen'!M14</f>
         <v>6. Semester</v>
       </c>
       <c r="B35" s="9">
-        <f>'Alle Abteilungen'!N5</f>
+        <f>'Alle Abteilungen'!N14</f>
         <v>7</v>
       </c>
       <c r="C35" s="6" t="s">
@@ -13365,7 +13487,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$10</f>
+        <f>'Alle Abteilungen'!$A$18</f>
         <v>Sichtbarkeit der Poster</v>
       </c>
       <c r="B36">
@@ -13404,7 +13526,7 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$11</f>
+        <f>'Alle Abteilungen'!$A$19</f>
         <v>Sichtbarkeit der Broschüre</v>
       </c>
       <c r="B37">
@@ -13443,7 +13565,7 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$12</f>
+        <f>'Alle Abteilungen'!$A$20</f>
         <v>Wert der Präsentation</v>
       </c>
       <c r="B38">
@@ -13482,7 +13604,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$13</f>
+        <f>'Alle Abteilungen'!$A$21</f>
         <v>Zeitaufwand</v>
       </c>
       <c r="B39">
@@ -13521,7 +13643,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$14</f>
+        <f>'Alle Abteilungen'!$A$22</f>
         <v>Qualität der Poster/Broschüre</v>
       </c>
       <c r="B40">
@@ -13560,7 +13682,7 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$15</f>
+        <f>'Alle Abteilungen'!$A$23</f>
         <v>Akzeptanz Video sehen</v>
       </c>
       <c r="B41">
@@ -13599,7 +13721,7 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$16</f>
+        <f>'Alle Abteilungen'!$A$24</f>
         <v>Akzeptanz Video produzieren</v>
       </c>
       <c r="B42">
@@ -13638,7 +13760,7 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$17</f>
+        <f>'Alle Abteilungen'!$A$25</f>
         <v>Akzeptanz Video veröffentlichen</v>
       </c>
       <c r="B43">
@@ -13714,7 +13836,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="9">
-        <f>'Alle Abteilungen'!Q6</f>
+        <f>'Alle Abteilungen'!Q15</f>
         <v>48</v>
       </c>
       <c r="I1" s="6"/>
@@ -13765,7 +13887,7 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$10</f>
+        <f>'Alle Abteilungen'!$A$18</f>
         <v>Sichtbarkeit der Poster</v>
       </c>
       <c r="B4">
@@ -13795,7 +13917,7 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$11</f>
+        <f>'Alle Abteilungen'!$A$19</f>
         <v>Sichtbarkeit der Broschüre</v>
       </c>
       <c r="B5">
@@ -13825,7 +13947,7 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$12</f>
+        <f>'Alle Abteilungen'!$A$20</f>
         <v>Wert der Präsentation</v>
       </c>
       <c r="B6">
@@ -13855,7 +13977,7 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$13</f>
+        <f>'Alle Abteilungen'!$A$21</f>
         <v>Zeitaufwand</v>
       </c>
       <c r="B7">
@@ -13885,7 +14007,7 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$14</f>
+        <f>'Alle Abteilungen'!$A$22</f>
         <v>Qualität der Poster/Broschüre</v>
       </c>
       <c r="B8">
@@ -13915,7 +14037,7 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$15</f>
+        <f>'Alle Abteilungen'!$A$23</f>
         <v>Akzeptanz Video sehen</v>
       </c>
       <c r="B9">
@@ -13945,7 +14067,7 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$16</f>
+        <f>'Alle Abteilungen'!$A$24</f>
         <v>Akzeptanz Video produzieren</v>
       </c>
       <c r="B10">
@@ -13975,7 +14097,7 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$17</f>
+        <f>'Alle Abteilungen'!$A$25</f>
         <v>Akzeptanz Video veröffentlichen</v>
       </c>
       <c r="B11">
@@ -14028,39 +14150,39 @@
       <c r="X12" s="6"/>
     </row>
     <row r="13" spans="1:27" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="str">
-        <f>'Alle Abteilungen'!A51</f>
+      <c r="A13" s="20" t="str">
+        <f>'Alle Abteilungen'!A59</f>
         <v>Kommentare der Befragten:
 (schriftlich oder mündlich)</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="24"/>
-      <c r="Z13" s="24"/>
-      <c r="AA13" s="24"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="23"/>
+      <c r="W13" s="23"/>
+      <c r="X13" s="23"/>
+      <c r="Y13" s="23"/>
+      <c r="Z13" s="23"/>
+      <c r="AA13" s="23"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
@@ -14089,11 +14211,11 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="str">
-        <f>'Alle Abteilungen'!P3</f>
+        <f>'Alle Abteilungen'!P12</f>
         <v>2. Semester</v>
       </c>
       <c r="B15" s="9">
-        <f>'Alle Abteilungen'!Q3</f>
+        <f>'Alle Abteilungen'!Q12</f>
         <v>11</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -14130,7 +14252,7 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$10</f>
+        <f>'Alle Abteilungen'!$A$18</f>
         <v>Sichtbarkeit der Poster</v>
       </c>
       <c r="B16">
@@ -14181,7 +14303,7 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$11</f>
+        <f>'Alle Abteilungen'!$A$19</f>
         <v>Sichtbarkeit der Broschüre</v>
       </c>
       <c r="B17">
@@ -14232,7 +14354,7 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$12</f>
+        <f>'Alle Abteilungen'!$A$20</f>
         <v>Wert der Präsentation</v>
       </c>
       <c r="B18">
@@ -14283,7 +14405,7 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$13</f>
+        <f>'Alle Abteilungen'!$A$21</f>
         <v>Zeitaufwand</v>
       </c>
       <c r="B19">
@@ -14334,7 +14456,7 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$14</f>
+        <f>'Alle Abteilungen'!$A$22</f>
         <v>Qualität der Poster/Broschüre</v>
       </c>
       <c r="B20">
@@ -14385,7 +14507,7 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$15</f>
+        <f>'Alle Abteilungen'!$A$23</f>
         <v>Akzeptanz Video sehen</v>
       </c>
       <c r="B21">
@@ -14436,7 +14558,7 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$16</f>
+        <f>'Alle Abteilungen'!$A$24</f>
         <v>Akzeptanz Video produzieren</v>
       </c>
       <c r="B22">
@@ -14487,7 +14609,7 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$17</f>
+        <f>'Alle Abteilungen'!$A$25</f>
         <v>Akzeptanz Video veröffentlichen</v>
       </c>
       <c r="B23">
@@ -14615,11 +14737,11 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="str">
-        <f>'Alle Abteilungen'!P4</f>
+        <f>'Alle Abteilungen'!P13</f>
         <v>4. Semester</v>
       </c>
       <c r="B26" s="9">
-        <f>'Alle Abteilungen'!Q4</f>
+        <f>'Alle Abteilungen'!Q13</f>
         <v>22</v>
       </c>
       <c r="C26" s="6" t="s">
@@ -14656,7 +14778,7 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$10</f>
+        <f>'Alle Abteilungen'!$A$18</f>
         <v>Sichtbarkeit der Poster</v>
       </c>
       <c r="B27">
@@ -14740,7 +14862,7 @@
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$11</f>
+        <f>'Alle Abteilungen'!$A$19</f>
         <v>Sichtbarkeit der Broschüre</v>
       </c>
       <c r="B28">
@@ -14824,7 +14946,7 @@
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$12</f>
+        <f>'Alle Abteilungen'!$A$20</f>
         <v>Wert der Präsentation</v>
       </c>
       <c r="B29">
@@ -14908,7 +15030,7 @@
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$13</f>
+        <f>'Alle Abteilungen'!$A$21</f>
         <v>Zeitaufwand</v>
       </c>
       <c r="B30">
@@ -14992,7 +15114,7 @@
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$14</f>
+        <f>'Alle Abteilungen'!$A$22</f>
         <v>Qualität der Poster/Broschüre</v>
       </c>
       <c r="B31">
@@ -15076,7 +15198,7 @@
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$15</f>
+        <f>'Alle Abteilungen'!$A$23</f>
         <v>Akzeptanz Video sehen</v>
       </c>
       <c r="B32">
@@ -15160,7 +15282,7 @@
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$16</f>
+        <f>'Alle Abteilungen'!$A$24</f>
         <v>Akzeptanz Video produzieren</v>
       </c>
       <c r="B33">
@@ -15244,7 +15366,7 @@
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$17</f>
+        <f>'Alle Abteilungen'!$A$25</f>
         <v>Akzeptanz Video veröffentlichen</v>
       </c>
       <c r="B34">
@@ -15331,11 +15453,11 @@
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="str">
-        <f>'Alle Abteilungen'!P5</f>
+        <f>'Alle Abteilungen'!P14</f>
         <v>6. Semester</v>
       </c>
       <c r="B36" s="9">
-        <f>'Alle Abteilungen'!Q5</f>
+        <f>'Alle Abteilungen'!Q14</f>
         <v>15</v>
       </c>
       <c r="C36" s="6" t="s">
@@ -15372,7 +15494,7 @@
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$10</f>
+        <f>'Alle Abteilungen'!$A$18</f>
         <v>Sichtbarkeit der Poster</v>
       </c>
       <c r="B37">
@@ -15435,7 +15557,7 @@
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$11</f>
+        <f>'Alle Abteilungen'!$A$19</f>
         <v>Sichtbarkeit der Broschüre</v>
       </c>
       <c r="B38">
@@ -15498,7 +15620,7 @@
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$12</f>
+        <f>'Alle Abteilungen'!$A$20</f>
         <v>Wert der Präsentation</v>
       </c>
       <c r="B39">
@@ -15561,7 +15683,7 @@
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$13</f>
+        <f>'Alle Abteilungen'!$A$21</f>
         <v>Zeitaufwand</v>
       </c>
       <c r="B40">
@@ -15624,7 +15746,7 @@
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$14</f>
+        <f>'Alle Abteilungen'!$A$22</f>
         <v>Qualität der Poster/Broschüre</v>
       </c>
       <c r="B41">
@@ -15687,7 +15809,7 @@
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$15</f>
+        <f>'Alle Abteilungen'!$A$23</f>
         <v>Akzeptanz Video sehen</v>
       </c>
       <c r="B42">
@@ -15750,7 +15872,7 @@
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$16</f>
+        <f>'Alle Abteilungen'!$A$24</f>
         <v>Akzeptanz Video produzieren</v>
       </c>
       <c r="B43">
@@ -15813,7 +15935,7 @@
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$17</f>
+        <f>'Alle Abteilungen'!$A$25</f>
         <v>Akzeptanz Video veröffentlichen</v>
       </c>
       <c r="B44">
@@ -15915,7 +16037,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="9">
-        <f>'Alle Abteilungen'!T6</f>
+        <f>'Alle Abteilungen'!T15</f>
         <v>20</v>
       </c>
       <c r="I1" s="6"/>
@@ -15956,7 +16078,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$10</f>
+        <f>'Alle Abteilungen'!$A$18</f>
         <v>Sichtbarkeit der Poster</v>
       </c>
       <c r="B4">
@@ -15982,7 +16104,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$11</f>
+        <f>'Alle Abteilungen'!$A$19</f>
         <v>Sichtbarkeit der Broschüre</v>
       </c>
       <c r="B5">
@@ -16008,7 +16130,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$12</f>
+        <f>'Alle Abteilungen'!$A$20</f>
         <v>Wert der Präsentation</v>
       </c>
       <c r="B6">
@@ -16034,7 +16156,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$13</f>
+        <f>'Alle Abteilungen'!$A$21</f>
         <v>Zeitaufwand</v>
       </c>
       <c r="B7">
@@ -16060,7 +16182,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$14</f>
+        <f>'Alle Abteilungen'!$A$22</f>
         <v>Qualität der Poster/Broschüre</v>
       </c>
       <c r="B8">
@@ -16086,7 +16208,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$15</f>
+        <f>'Alle Abteilungen'!$A$23</f>
         <v>Akzeptanz Video sehen</v>
       </c>
       <c r="B9">
@@ -16112,7 +16234,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$16</f>
+        <f>'Alle Abteilungen'!$A$24</f>
         <v>Akzeptanz Video produzieren</v>
       </c>
       <c r="B10">
@@ -16138,7 +16260,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$17</f>
+        <f>'Alle Abteilungen'!$A$25</f>
         <v>Akzeptanz Video veröffentlichen</v>
       </c>
       <c r="B11">
@@ -16178,13 +16300,13 @@
       <c r="N12" s="6"/>
       <c r="P12" s="6"/>
     </row>
-    <row r="13" spans="1:19" ht="27.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="str">
-        <f>'Alle Abteilungen'!A51</f>
+    <row r="13" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="str">
+        <f>'Alle Abteilungen'!A59</f>
         <v>Kommentare der Befragten:
 (schriftlich oder mündlich)</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="19" t="s">
         <v>49</v>
       </c>
       <c r="C13" s="6"/>
@@ -16220,11 +16342,11 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="str">
-        <f>'Alle Abteilungen'!S3</f>
+        <f>'Alle Abteilungen'!S12</f>
         <v>2. Semester</v>
       </c>
       <c r="B15" s="9">
-        <f>'Alle Abteilungen'!T3</f>
+        <f>'Alle Abteilungen'!T12</f>
         <v>5</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -16253,7 +16375,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$10</f>
+        <f>'Alle Abteilungen'!$A$18</f>
         <v>Sichtbarkeit der Poster</v>
       </c>
       <c r="B16">
@@ -16286,7 +16408,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$11</f>
+        <f>'Alle Abteilungen'!$A$19</f>
         <v>Sichtbarkeit der Broschüre</v>
       </c>
       <c r="B17">
@@ -16319,7 +16441,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$12</f>
+        <f>'Alle Abteilungen'!$A$20</f>
         <v>Wert der Präsentation</v>
       </c>
       <c r="B18">
@@ -16352,7 +16474,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$13</f>
+        <f>'Alle Abteilungen'!$A$21</f>
         <v>Zeitaufwand</v>
       </c>
       <c r="B19">
@@ -16385,7 +16507,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$14</f>
+        <f>'Alle Abteilungen'!$A$22</f>
         <v>Qualität der Poster/Broschüre</v>
       </c>
       <c r="B20">
@@ -16418,7 +16540,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$15</f>
+        <f>'Alle Abteilungen'!$A$23</f>
         <v>Akzeptanz Video sehen</v>
       </c>
       <c r="B21">
@@ -16451,7 +16573,7 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$16</f>
+        <f>'Alle Abteilungen'!$A$24</f>
         <v>Akzeptanz Video produzieren</v>
       </c>
       <c r="B22">
@@ -16484,7 +16606,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$17</f>
+        <f>'Alle Abteilungen'!$A$25</f>
         <v>Akzeptanz Video veröffentlichen</v>
       </c>
       <c r="B23">
@@ -16570,11 +16692,11 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="str">
-        <f>'Alle Abteilungen'!S4</f>
+        <f>'Alle Abteilungen'!S13</f>
         <v>4. Semester</v>
       </c>
       <c r="B26" s="9">
-        <f>'Alle Abteilungen'!T4</f>
+        <f>'Alle Abteilungen'!T13</f>
         <v>15</v>
       </c>
       <c r="C26" s="6" t="s">
@@ -16603,7 +16725,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$10</f>
+        <f>'Alle Abteilungen'!$A$18</f>
         <v>Sichtbarkeit der Poster</v>
       </c>
       <c r="B27">
@@ -16666,7 +16788,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$11</f>
+        <f>'Alle Abteilungen'!$A$19</f>
         <v>Sichtbarkeit der Broschüre</v>
       </c>
       <c r="B28">
@@ -16729,7 +16851,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$12</f>
+        <f>'Alle Abteilungen'!$A$20</f>
         <v>Wert der Präsentation</v>
       </c>
       <c r="B29">
@@ -16792,7 +16914,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$13</f>
+        <f>'Alle Abteilungen'!$A$21</f>
         <v>Zeitaufwand</v>
       </c>
       <c r="B30">
@@ -16855,7 +16977,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$14</f>
+        <f>'Alle Abteilungen'!$A$22</f>
         <v>Qualität der Poster/Broschüre</v>
       </c>
       <c r="B31">
@@ -16918,7 +17040,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$15</f>
+        <f>'Alle Abteilungen'!$A$23</f>
         <v>Akzeptanz Video sehen</v>
       </c>
       <c r="B32">
@@ -16981,7 +17103,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$16</f>
+        <f>'Alle Abteilungen'!$A$24</f>
         <v>Akzeptanz Video produzieren</v>
       </c>
       <c r="B33">
@@ -17044,7 +17166,7 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$17</f>
+        <f>'Alle Abteilungen'!$A$25</f>
         <v>Akzeptanz Video veröffentlichen</v>
       </c>
       <c r="B34">
@@ -17146,7 +17268,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="9">
-        <f>'Alle Abteilungen'!W6</f>
+        <f>'Alle Abteilungen'!W15</f>
         <v>37</v>
       </c>
       <c r="I1" s="6"/>
@@ -17196,7 +17318,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$10</f>
+        <f>'Alle Abteilungen'!$A$18</f>
         <v>Sichtbarkeit der Poster</v>
       </c>
       <c r="B4">
@@ -17226,7 +17348,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$11</f>
+        <f>'Alle Abteilungen'!$A$19</f>
         <v>Sichtbarkeit der Broschüre</v>
       </c>
       <c r="B5">
@@ -17256,7 +17378,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$12</f>
+        <f>'Alle Abteilungen'!$A$20</f>
         <v>Wert der Präsentation</v>
       </c>
       <c r="B6">
@@ -17286,7 +17408,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$13</f>
+        <f>'Alle Abteilungen'!$A$21</f>
         <v>Zeitaufwand</v>
       </c>
       <c r="B7">
@@ -17316,7 +17438,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$14</f>
+        <f>'Alle Abteilungen'!$A$22</f>
         <v>Qualität der Poster/Broschüre</v>
       </c>
       <c r="B8">
@@ -17346,7 +17468,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$15</f>
+        <f>'Alle Abteilungen'!$A$23</f>
         <v>Akzeptanz Video sehen</v>
       </c>
       <c r="B9">
@@ -17376,7 +17498,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$16</f>
+        <f>'Alle Abteilungen'!$A$24</f>
         <v>Akzeptanz Video produzieren</v>
       </c>
       <c r="B10">
@@ -17406,7 +17528,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$17</f>
+        <f>'Alle Abteilungen'!$A$25</f>
         <v>Akzeptanz Video veröffentlichen</v>
       </c>
       <c r="B11">
@@ -17436,15 +17558,15 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="Y12" s="23"/>
-    </row>
-    <row r="13" spans="1:25" ht="27.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="str">
-        <f>'Alle Abteilungen'!A51</f>
+      <c r="Y12" s="21"/>
+    </row>
+    <row r="13" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="str">
+        <f>'Alle Abteilungen'!A59</f>
         <v>Kommentare der Befragten:
 (schriftlich oder mündlich)</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="19" t="s">
         <v>55</v>
       </c>
       <c r="C13" s="6"/>
@@ -17485,11 +17607,11 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="str">
-        <f>'Alle Abteilungen'!V3</f>
+        <f>'Alle Abteilungen'!V12</f>
         <v>2. Semester</v>
       </c>
       <c r="B15" s="9">
-        <f>'Alle Abteilungen'!W3</f>
+        <f>'Alle Abteilungen'!W12</f>
         <v>20</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -17525,7 +17647,7 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$10</f>
+        <f>'Alle Abteilungen'!$A$18</f>
         <v>Sichtbarkeit der Poster</v>
       </c>
       <c r="B16">
@@ -17589,11 +17711,11 @@
         <v>1</v>
       </c>
       <c r="W16">
-        <f>SUM(B16:U16)</f>
+        <f t="shared" ref="W16:W23" si="6">SUM(B16:U16)</f>
         <v>37</v>
       </c>
       <c r="X16">
-        <f>$B$15-SUMIF(B16:U16,0,$B$24:$V$24)</f>
+        <f t="shared" ref="X16:X23" si="7">$B$15-SUMIF(B16:U16,0,$B$24:$V$24)</f>
         <v>20</v>
       </c>
       <c r="Y16" s="8">
@@ -17603,7 +17725,7 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$11</f>
+        <f>'Alle Abteilungen'!$A$19</f>
         <v>Sichtbarkeit der Broschüre</v>
       </c>
       <c r="B17">
@@ -17667,21 +17789,21 @@
         <v>1</v>
       </c>
       <c r="W17">
-        <f>SUM(B17:U17)</f>
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
       <c r="X17">
-        <f>$B$15-SUMIF(B17:U17,0,$B$24:$V$24)</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="Y17" s="8">
-        <f t="shared" ref="Y17:Y23" si="6">W17/X17</f>
+        <f t="shared" ref="Y17:Y23" si="8">W17/X17</f>
         <v>1.45</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$12</f>
+        <f>'Alle Abteilungen'!$A$20</f>
         <v>Wert der Präsentation</v>
       </c>
       <c r="B18">
@@ -17745,21 +17867,21 @@
         <v>2</v>
       </c>
       <c r="W18">
-        <f>SUM(B18:U18)</f>
+        <f t="shared" si="6"/>
         <v>56</v>
       </c>
       <c r="X18">
-        <f>$B$15-SUMIF(B18:U18,0,$B$24:$V$24)</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="Y18" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.8</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$13</f>
+        <f>'Alle Abteilungen'!$A$21</f>
         <v>Zeitaufwand</v>
       </c>
       <c r="B19">
@@ -17823,21 +17945,21 @@
         <v>3</v>
       </c>
       <c r="W19">
-        <f>SUM(B19:U19)</f>
+        <f t="shared" si="6"/>
         <v>46.5</v>
       </c>
       <c r="X19">
-        <f>$B$15-SUMIF(B19:U19,0,$B$24:$V$24)</f>
+        <f t="shared" si="7"/>
         <v>19</v>
       </c>
       <c r="Y19" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.4473684210526314</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$14</f>
+        <f>'Alle Abteilungen'!$A$22</f>
         <v>Qualität der Poster/Broschüre</v>
       </c>
       <c r="B20">
@@ -17901,21 +18023,21 @@
         <v>2</v>
       </c>
       <c r="W20">
-        <f>SUM(B20:U20)</f>
+        <f t="shared" si="6"/>
         <v>47</v>
       </c>
       <c r="X20">
-        <f>$B$15-SUMIF(B20:U20,0,$B$24:$V$24)</f>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="Y20" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.6111111111111112</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$15</f>
+        <f>'Alle Abteilungen'!$A$23</f>
         <v>Akzeptanz Video sehen</v>
       </c>
       <c r="B21">
@@ -17979,21 +18101,21 @@
         <v>2</v>
       </c>
       <c r="W21">
-        <f>SUM(B21:U21)</f>
+        <f t="shared" si="6"/>
         <v>51</v>
       </c>
       <c r="X21">
-        <f>$B$15-SUMIF(B21:U21,0,$B$24:$V$24)</f>
+        <f t="shared" si="7"/>
         <v>19</v>
       </c>
       <c r="Y21" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.6842105263157894</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$16</f>
+        <f>'Alle Abteilungen'!$A$24</f>
         <v>Akzeptanz Video produzieren</v>
       </c>
       <c r="B22">
@@ -18057,21 +18179,21 @@
         <v>3</v>
       </c>
       <c r="W22">
-        <f>SUM(B22:U22)</f>
+        <f t="shared" si="6"/>
         <v>44.5</v>
       </c>
       <c r="X22">
-        <f>$B$15-SUMIF(B22:U22,0,$B$24:$V$24)</f>
+        <f t="shared" si="7"/>
         <v>19</v>
       </c>
       <c r="Y22" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.3421052631578947</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$17</f>
+        <f>'Alle Abteilungen'!$A$25</f>
         <v>Akzeptanz Video veröffentlichen</v>
       </c>
       <c r="B23">
@@ -18135,15 +18257,15 @@
         <v>4</v>
       </c>
       <c r="W23">
-        <f>SUM(B23:U23)</f>
+        <f t="shared" si="6"/>
         <v>62</v>
       </c>
       <c r="X23">
-        <f>$B$15-SUMIF(B23:U23,0,$B$24:$V$24)</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="Y23" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.1</v>
       </c>
     </row>
@@ -18224,11 +18346,11 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="str">
-        <f>'Alle Abteilungen'!V4</f>
+        <f>'Alle Abteilungen'!V13</f>
         <v>4. Semester</v>
       </c>
       <c r="B27" s="9">
-        <f>'Alle Abteilungen'!W4</f>
+        <f>'Alle Abteilungen'!W13</f>
         <v>10</v>
       </c>
       <c r="C27" s="6" t="s">
@@ -18264,7 +18386,7 @@
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$10</f>
+        <f>'Alle Abteilungen'!$A$18</f>
         <v>Sichtbarkeit der Poster</v>
       </c>
       <c r="B28">
@@ -18298,11 +18420,11 @@
         <v>4</v>
       </c>
       <c r="W28">
-        <f t="shared" ref="W28:W35" si="7">SUM(B28:V28)</f>
+        <f t="shared" ref="W28:W35" si="9">SUM(B28:V28)</f>
         <v>24</v>
       </c>
       <c r="X28">
-        <f t="shared" ref="X28:X35" si="8">$B$27-SUMIF(B28:V28,0,$B$24:$V$24)</f>
+        <f t="shared" ref="X28:X35" si="10">$B$27-SUMIF(B28:V28,0,$B$24:$V$24)</f>
         <v>10</v>
       </c>
       <c r="Y28" s="8">
@@ -18312,7 +18434,7 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$11</f>
+        <f>'Alle Abteilungen'!$A$19</f>
         <v>Sichtbarkeit der Broschüre</v>
       </c>
       <c r="B29">
@@ -18346,21 +18468,21 @@
         <v>1</v>
       </c>
       <c r="W29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>21</v>
       </c>
       <c r="X29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="Y29" s="8">
-        <f t="shared" ref="Y29:Y35" si="9">W29/X29</f>
+        <f t="shared" ref="Y29:Y35" si="11">W29/X29</f>
         <v>2.1</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$12</f>
+        <f>'Alle Abteilungen'!$A$20</f>
         <v>Wert der Präsentation</v>
       </c>
       <c r="B30">
@@ -18394,21 +18516,21 @@
         <v>2</v>
       </c>
       <c r="W30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="X30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="Y30" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.8888888888888888</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$13</f>
+        <f>'Alle Abteilungen'!$A$21</f>
         <v>Zeitaufwand</v>
       </c>
       <c r="B31">
@@ -18442,21 +18564,21 @@
         <v>2</v>
       </c>
       <c r="W31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
       <c r="X31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="Y31" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.4</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$14</f>
+        <f>'Alle Abteilungen'!$A$22</f>
         <v>Qualität der Poster/Broschüre</v>
       </c>
       <c r="B32">
@@ -18490,21 +18612,21 @@
         <v>2</v>
       </c>
       <c r="W32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
       <c r="X32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="Y32" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.8</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$15</f>
+        <f>'Alle Abteilungen'!$A$23</f>
         <v>Akzeptanz Video sehen</v>
       </c>
       <c r="B33">
@@ -18538,21 +18660,21 @@
         <v>3</v>
       </c>
       <c r="W33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>29</v>
       </c>
       <c r="X33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="Y33" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.9</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$16</f>
+        <f>'Alle Abteilungen'!$A$24</f>
         <v>Akzeptanz Video produzieren</v>
       </c>
       <c r="B34">
@@ -18586,21 +18708,21 @@
         <v>2</v>
       </c>
       <c r="W34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>21</v>
       </c>
       <c r="X34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="Y34" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.1</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$17</f>
+        <f>'Alle Abteilungen'!$A$25</f>
         <v>Akzeptanz Video veröffentlichen</v>
       </c>
       <c r="B35">
@@ -18634,15 +18756,15 @@
         <v>2</v>
       </c>
       <c r="W35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="X35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="Y35" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
     </row>
@@ -18651,11 +18773,11 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="str">
-        <f>'Alle Abteilungen'!V5</f>
+        <f>'Alle Abteilungen'!V14</f>
         <v>6. + 8. Semester</v>
       </c>
       <c r="B37" s="9">
-        <f>'Alle Abteilungen'!W5</f>
+        <f>'Alle Abteilungen'!W14</f>
         <v>7</v>
       </c>
       <c r="C37" s="6" t="s">
@@ -18691,7 +18813,7 @@
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$10</f>
+        <f>'Alle Abteilungen'!$A$18</f>
         <v>Sichtbarkeit der Poster</v>
       </c>
       <c r="B38">
@@ -18716,11 +18838,11 @@
         <v>2</v>
       </c>
       <c r="W38">
-        <f t="shared" ref="W38:W45" si="10">SUM(B38:V38)</f>
+        <f t="shared" ref="W38:W45" si="12">SUM(B38:V38)</f>
         <v>20</v>
       </c>
       <c r="X38">
-        <f t="shared" ref="X38:X45" si="11">$B$37-SUMIF(B38:V38,0,$B$24:$V$24)</f>
+        <f t="shared" ref="X38:X45" si="13">$B$37-SUMIF(B38:V38,0,$B$24:$V$24)</f>
         <v>7</v>
       </c>
       <c r="Y38" s="8">
@@ -18730,7 +18852,7 @@
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$11</f>
+        <f>'Alle Abteilungen'!$A$19</f>
         <v>Sichtbarkeit der Broschüre</v>
       </c>
       <c r="B39">
@@ -18755,21 +18877,21 @@
         <v>4</v>
       </c>
       <c r="W39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="X39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="Y39" s="8">
-        <f t="shared" ref="Y39:Y45" si="12">W39/X39</f>
+        <f t="shared" ref="Y39:Y45" si="14">W39/X39</f>
         <v>2.1428571428571428</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$12</f>
+        <f>'Alle Abteilungen'!$A$20</f>
         <v>Wert der Präsentation</v>
       </c>
       <c r="B40">
@@ -18794,21 +18916,21 @@
         <v>2</v>
       </c>
       <c r="W40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
       <c r="X40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="Y40" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3.5714285714285716</v>
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$13</f>
+        <f>'Alle Abteilungen'!$A$21</f>
         <v>Zeitaufwand</v>
       </c>
       <c r="B41">
@@ -18833,21 +18955,21 @@
         <v>3</v>
       </c>
       <c r="W41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>19</v>
       </c>
       <c r="X41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="Y41" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2.7142857142857144</v>
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$14</f>
+        <f>'Alle Abteilungen'!$A$22</f>
         <v>Qualität der Poster/Broschüre</v>
       </c>
       <c r="B42">
@@ -18872,21 +18994,21 @@
         <v>2</v>
       </c>
       <c r="W42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="X42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="Y42" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2.2857142857142856</v>
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$15</f>
+        <f>'Alle Abteilungen'!$A$23</f>
         <v>Akzeptanz Video sehen</v>
       </c>
       <c r="B43">
@@ -18911,21 +19033,21 @@
         <v>4</v>
       </c>
       <c r="W43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
       <c r="X43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="Y43" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3.5714285714285716</v>
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$16</f>
+        <f>'Alle Abteilungen'!$A$24</f>
         <v>Akzeptanz Video produzieren</v>
       </c>
       <c r="B44">
@@ -18950,21 +19072,21 @@
         <v>1</v>
       </c>
       <c r="W44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="X44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="Y44" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2.2857142857142856</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="str">
-        <f>'Alle Abteilungen'!$A$17</f>
+        <f>'Alle Abteilungen'!$A$25</f>
         <v>Akzeptanz Video veröffentlichen</v>
       </c>
       <c r="B45">
@@ -18989,15 +19111,15 @@
         <v>4</v>
       </c>
       <c r="W45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>28</v>
       </c>
       <c r="X45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="Y45" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
     </row>

--- a/doc/Bericht/05_Technischer Bericht/03_Vorstudie/Frageboegen_Statistik.xlsx
+++ b/doc/Bericht/05_Technischer Bericht/03_Vorstudie/Frageboegen_Statistik.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="20835" windowHeight="12015" tabRatio="622"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="20835" windowHeight="12015" tabRatio="622" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Alle Abteilungen" sheetId="2" r:id="rId1"/>
@@ -498,9 +498,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -509,6 +506,9 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -589,7 +589,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1176,11 +1175,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="107508480"/>
-        <c:axId val="107510016"/>
+        <c:axId val="105362560"/>
+        <c:axId val="105364096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="107508480"/>
+        <c:axId val="105362560"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1190,7 +1189,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107510016"/>
+        <c:crossAx val="105364096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1199,7 +1198,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107510016"/>
+        <c:axId val="105364096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -1262,7 +1261,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107508480"/>
+        <c:crossAx val="105362560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -1271,7 +1270,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1612,11 +1610,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="110541056"/>
-        <c:axId val="110542848"/>
+        <c:axId val="111796224"/>
+        <c:axId val="111797760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="110541056"/>
+        <c:axId val="111796224"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1626,7 +1624,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110542848"/>
+        <c:crossAx val="111797760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1635,7 +1633,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110542848"/>
+        <c:axId val="111797760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -1698,7 +1696,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110541056"/>
+        <c:crossAx val="111796224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -1751,7 +1749,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1852,11 +1849,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="110553344"/>
-        <c:axId val="110579712"/>
+        <c:axId val="104740736"/>
+        <c:axId val="104742272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="110553344"/>
+        <c:axId val="104740736"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1866,7 +1863,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110579712"/>
+        <c:crossAx val="104742272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1875,7 +1872,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110579712"/>
+        <c:axId val="104742272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -1938,7 +1935,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110553344"/>
+        <c:crossAx val="104740736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -1947,7 +1944,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1997,7 +1993,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2455,8 +2450,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="110637440"/>
-        <c:axId val="110639360"/>
+        <c:axId val="116518912"/>
+        <c:axId val="116520832"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -2573,11 +2568,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="110637440"/>
-        <c:axId val="110639360"/>
+        <c:axId val="116518912"/>
+        <c:axId val="116520832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="110637440"/>
+        <c:axId val="116518912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2586,7 +2581,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110639360"/>
+        <c:crossAx val="116520832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2594,7 +2589,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110639360"/>
+        <c:axId val="116520832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -2774,7 +2769,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110637440"/>
+        <c:crossAx val="116518912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -3216,11 +3211,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="111220992"/>
-        <c:axId val="111235072"/>
+        <c:axId val="106825600"/>
+        <c:axId val="106827136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="111220992"/>
+        <c:axId val="106825600"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -3230,7 +3225,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111235072"/>
+        <c:crossAx val="106827136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3239,7 +3234,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111235072"/>
+        <c:axId val="106827136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -3302,7 +3297,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111220992"/>
+        <c:crossAx val="106825600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -3355,7 +3350,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3456,11 +3450,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="111260032"/>
-        <c:axId val="111261568"/>
+        <c:axId val="106864640"/>
+        <c:axId val="106866176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="111260032"/>
+        <c:axId val="106864640"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -3470,7 +3464,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111261568"/>
+        <c:crossAx val="106866176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3479,7 +3473,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111261568"/>
+        <c:axId val="106866176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -3542,7 +3536,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111260032"/>
+        <c:crossAx val="106864640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -3551,7 +3545,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3598,7 +3591,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4056,8 +4048,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="111044864"/>
-        <c:axId val="111063424"/>
+        <c:axId val="106915712"/>
+        <c:axId val="106938368"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -4174,11 +4166,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="111044864"/>
-        <c:axId val="111063424"/>
+        <c:axId val="106915712"/>
+        <c:axId val="106938368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="111044864"/>
+        <c:axId val="106915712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4187,7 +4179,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111063424"/>
+        <c:crossAx val="106938368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4195,7 +4187,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111063424"/>
+        <c:axId val="106938368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -4375,7 +4367,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111044864"/>
+        <c:crossAx val="106915712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -4790,11 +4782,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="111161344"/>
-        <c:axId val="111162880"/>
+        <c:axId val="107011456"/>
+        <c:axId val="107017344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="111161344"/>
+        <c:axId val="107011456"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -4804,7 +4796,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111162880"/>
+        <c:crossAx val="107017344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4813,7 +4805,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111162880"/>
+        <c:axId val="107017344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -4876,7 +4868,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111161344"/>
+        <c:crossAx val="107011456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -4929,7 +4921,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5030,11 +5021,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="111187840"/>
-        <c:axId val="111189376"/>
+        <c:axId val="111977984"/>
+        <c:axId val="111979520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="111187840"/>
+        <c:axId val="111977984"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -5044,7 +5035,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111189376"/>
+        <c:crossAx val="111979520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5053,7 +5044,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111189376"/>
+        <c:axId val="111979520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -5116,7 +5107,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111187840"/>
+        <c:crossAx val="111977984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -5125,7 +5116,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5172,7 +5162,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5630,8 +5619,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="111390720"/>
-        <c:axId val="111392640"/>
+        <c:axId val="116874624"/>
+        <c:axId val="116889088"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -5748,11 +5737,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="111390720"/>
-        <c:axId val="111392640"/>
+        <c:axId val="116874624"/>
+        <c:axId val="116889088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="111390720"/>
+        <c:axId val="116874624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5761,7 +5750,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111392640"/>
+        <c:crossAx val="116889088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5769,7 +5758,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111392640"/>
+        <c:axId val="116889088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -5949,7 +5938,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111390720"/>
+        <c:crossAx val="116874624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -6312,11 +6301,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="111436544"/>
-        <c:axId val="111438080"/>
+        <c:axId val="116609408"/>
+        <c:axId val="116610944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="111436544"/>
+        <c:axId val="116609408"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -6326,7 +6315,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111438080"/>
+        <c:crossAx val="116610944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6335,7 +6324,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111438080"/>
+        <c:axId val="116610944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -6398,7 +6387,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111436544"/>
+        <c:crossAx val="116609408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -6483,7 +6472,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6584,11 +6572,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="108137856"/>
-        <c:axId val="108168320"/>
+        <c:axId val="107057152"/>
+        <c:axId val="107058688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="108137856"/>
+        <c:axId val="107057152"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -6598,7 +6586,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108168320"/>
+        <c:crossAx val="107058688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6607,7 +6595,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108168320"/>
+        <c:axId val="107058688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -6670,7 +6658,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108137856"/>
+        <c:crossAx val="107057152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -6724,7 +6712,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6825,11 +6812,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="111463040"/>
-        <c:axId val="111473024"/>
+        <c:axId val="116627712"/>
+        <c:axId val="116645888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="111463040"/>
+        <c:axId val="116627712"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -6839,7 +6826,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111473024"/>
+        <c:crossAx val="116645888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6848,7 +6835,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111473024"/>
+        <c:axId val="116645888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -6911,7 +6898,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111463040"/>
+        <c:crossAx val="116627712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -6920,7 +6907,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7441,8 +7427,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="108315392"/>
-        <c:axId val="108317312"/>
+        <c:axId val="116765056"/>
+        <c:axId val="116766976"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -7559,11 +7545,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="108315392"/>
-        <c:axId val="108317312"/>
+        <c:axId val="116765056"/>
+        <c:axId val="116766976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108315392"/>
+        <c:axId val="116765056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7572,7 +7558,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108317312"/>
+        <c:crossAx val="116766976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7580,7 +7566,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108317312"/>
+        <c:axId val="116766976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -7760,7 +7746,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108315392"/>
+        <c:crossAx val="116765056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -7838,7 +7824,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8086,11 +8071,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="112593536"/>
-        <c:axId val="112599424"/>
+        <c:axId val="117053696"/>
+        <c:axId val="117055488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="112593536"/>
+        <c:axId val="117053696"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -8100,7 +8085,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112599424"/>
+        <c:crossAx val="117055488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8109,7 +8094,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112599424"/>
+        <c:axId val="117055488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -8172,7 +8157,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112593536"/>
+        <c:crossAx val="117053696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -8181,7 +8166,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8226,7 +8210,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8327,11 +8310,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="112640768"/>
-        <c:axId val="112642304"/>
+        <c:axId val="117072256"/>
+        <c:axId val="117073792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="112640768"/>
+        <c:axId val="117072256"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -8341,7 +8324,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112642304"/>
+        <c:crossAx val="117073792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8350,7 +8333,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112642304"/>
+        <c:axId val="117073792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -8413,7 +8396,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112640768"/>
+        <c:crossAx val="117072256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -8422,7 +8405,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8940,8 +8922,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="95694208"/>
-        <c:axId val="95696384"/>
+        <c:axId val="117139712"/>
+        <c:axId val="117154176"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -9058,11 +9040,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="95694208"/>
-        <c:axId val="95696384"/>
+        <c:axId val="117139712"/>
+        <c:axId val="117154176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95694208"/>
+        <c:axId val="117139712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9071,7 +9053,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95696384"/>
+        <c:crossAx val="117154176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9079,7 +9061,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95696384"/>
+        <c:axId val="117154176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -9259,7 +9241,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95694208"/>
+        <c:crossAx val="117139712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -9331,7 +9313,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -9789,8 +9770,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="45923328"/>
-        <c:axId val="45937792"/>
+        <c:axId val="109970944"/>
+        <c:axId val="109972864"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -9907,11 +9888,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="45923328"/>
-        <c:axId val="45937792"/>
+        <c:axId val="109970944"/>
+        <c:axId val="109972864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="45923328"/>
+        <c:axId val="109970944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9920,7 +9901,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45937792"/>
+        <c:crossAx val="109972864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9928,7 +9909,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45937792"/>
+        <c:axId val="109972864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -10108,7 +10089,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45923328"/>
+        <c:crossAx val="109970944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -10471,11 +10452,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="108502016"/>
-        <c:axId val="108503808"/>
+        <c:axId val="110061824"/>
+        <c:axId val="110067712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="108502016"/>
+        <c:axId val="110061824"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -10485,7 +10466,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108503808"/>
+        <c:crossAx val="110067712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10494,7 +10475,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108503808"/>
+        <c:axId val="110067712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -10557,7 +10538,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108502016"/>
+        <c:crossAx val="110061824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -10610,7 +10591,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -10711,11 +10691,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="108594304"/>
-        <c:axId val="108595840"/>
+        <c:axId val="110098304"/>
+        <c:axId val="110099840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="108594304"/>
+        <c:axId val="110098304"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -10725,7 +10705,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108595840"/>
+        <c:crossAx val="110099840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10734,7 +10714,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108595840"/>
+        <c:axId val="110099840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -10797,7 +10777,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108594304"/>
+        <c:crossAx val="110098304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -10806,7 +10786,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -10856,7 +10835,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -11314,8 +11292,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="108655360"/>
-        <c:axId val="108657280"/>
+        <c:axId val="111534464"/>
+        <c:axId val="111536384"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -11432,11 +11410,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="108655360"/>
-        <c:axId val="108657280"/>
+        <c:axId val="111534464"/>
+        <c:axId val="111536384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108655360"/>
+        <c:axId val="111534464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11445,7 +11423,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108657280"/>
+        <c:crossAx val="111536384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11453,7 +11431,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108657280"/>
+        <c:axId val="111536384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -11633,7 +11611,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108655360"/>
+        <c:crossAx val="111534464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -11734,6 +11712,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -12077,11 +12056,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="109041920"/>
-        <c:axId val="109047808"/>
+        <c:axId val="111599616"/>
+        <c:axId val="111601152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="109041920"/>
+        <c:axId val="111599616"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -12091,7 +12070,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109047808"/>
+        <c:crossAx val="111601152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12100,7 +12079,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109047808"/>
+        <c:axId val="111601152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -12163,7 +12142,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109041920"/>
+        <c:crossAx val="111599616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -12172,6 +12151,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -12317,11 +12297,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="109080576"/>
-        <c:axId val="109082112"/>
+        <c:axId val="111622016"/>
+        <c:axId val="111623552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="109080576"/>
+        <c:axId val="111622016"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -12331,7 +12311,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109082112"/>
+        <c:crossAx val="111623552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12340,7 +12320,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109082112"/>
+        <c:axId val="111623552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -12403,7 +12383,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109080576"/>
+        <c:crossAx val="111622016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -12917,8 +12897,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="109143936"/>
-        <c:axId val="109150208"/>
+        <c:axId val="116481408"/>
+        <c:axId val="116487680"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -13035,11 +13015,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="109143936"/>
-        <c:axId val="109150208"/>
+        <c:axId val="116481408"/>
+        <c:axId val="116487680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="109143936"/>
+        <c:axId val="116481408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13048,7 +13028,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109150208"/>
+        <c:crossAx val="116487680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13056,7 +13036,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109150208"/>
+        <c:axId val="116487680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -13235,7 +13215,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109143936"/>
+        <c:crossAx val="116481408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -14367,8 +14347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ID72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="S53" sqref="S53"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14712,7 +14692,7 @@
         <f>SUM(W12:W14)</f>
         <v>37</v>
       </c>
-      <c r="AJ15" s="39" t="s">
+      <c r="AJ15" s="38" t="s">
         <v>64</v>
       </c>
     </row>
@@ -14804,7 +14784,7 @@
       <c r="AH17" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="AJ17" s="38" t="s">
+      <c r="AJ17" s="37" t="s">
         <v>21</v>
       </c>
       <c r="AK17" s="10" t="s">
@@ -14879,7 +14859,7 @@
       <c r="BH17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="BI17" s="38" t="s">
+      <c r="BI17" s="37" t="s">
         <v>20</v>
       </c>
       <c r="BJ17" s="10" t="s">
@@ -14948,7 +14928,7 @@
       <c r="CE17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="CF17" s="38" t="s">
+      <c r="CF17" s="37" t="s">
         <v>20</v>
       </c>
       <c r="CG17" s="10" t="s">
@@ -15011,7 +14991,7 @@
       <c r="CZ17" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="DA17" s="38" t="s">
+      <c r="DA17" s="37" t="s">
         <v>20</v>
       </c>
       <c r="DB17" s="10" t="s">
@@ -15098,7 +15078,7 @@
       <c r="EC17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="ED17" s="38" t="s">
+      <c r="ED17" s="37" t="s">
         <v>20</v>
       </c>
       <c r="EE17" s="10" t="s">
@@ -15242,7 +15222,7 @@
       <c r="FY17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="FZ17" s="38" t="s">
+      <c r="FZ17" s="37" t="s">
         <v>20</v>
       </c>
       <c r="GA17" s="10" t="s">
@@ -15302,7 +15282,7 @@
       <c r="GS17" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="GT17" s="38" t="s">
+      <c r="GT17" s="37" t="s">
         <v>20</v>
       </c>
       <c r="GU17" s="10" t="s">
@@ -15484,7 +15464,7 @@
         <v>0.97499999999999998</v>
       </c>
       <c r="AH18" s="8">
-        <f t="shared" ref="AF18:AH18" si="0">AD18-AC18</f>
+        <f t="shared" ref="AH18" si="0">AD18-AC18</f>
         <v>1</v>
       </c>
       <c r="AJ18" s="24">
@@ -16840,7 +16820,7 @@
         <v>4</v>
       </c>
       <c r="AE20" s="8">
-        <f t="shared" ref="AE19:AE25" si="7">AA20-Z20</f>
+        <f t="shared" ref="AE20:AE25" si="7">AA20-Z20</f>
         <v>1</v>
       </c>
       <c r="AF20" s="8">
@@ -17502,7 +17482,7 @@
         <v>0.97499999999999998</v>
       </c>
       <c r="AH21" s="8">
-        <f t="shared" ref="AH19:AH25" si="8">AD21-AC21</f>
+        <f t="shared" ref="AH21:AH24" si="8">AD21-AC21</f>
         <v>1</v>
       </c>
       <c r="AJ21" s="24">
@@ -19521,7 +19501,7 @@
         <v>0.95</v>
       </c>
       <c r="AG24" s="8">
-        <f t="shared" ref="AG19:AG25" si="9">AC24-AB24</f>
+        <f t="shared" ref="AG24" si="9">AC24-AB24</f>
         <v>1</v>
       </c>
       <c r="AH24" s="8">
@@ -20133,7 +20113,7 @@
       </c>
     </row>
     <row r="25" spans="1:238" x14ac:dyDescent="0.25">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="35" t="s">
         <v>63</v>
       </c>
       <c r="D25">
@@ -20197,7 +20177,7 @@
         <v>1</v>
       </c>
       <c r="AF25" s="8">
-        <f t="shared" ref="AF19:AF25" si="10">AB25-AA25</f>
+        <f t="shared" ref="AF25" si="10">AB25-AA25</f>
         <v>1</v>
       </c>
       <c r="AG25" s="8">
@@ -20817,7 +20797,7 @@
       </c>
     </row>
     <row r="26" spans="1:238" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
+      <c r="A26" s="36"/>
     </row>
     <row r="27" spans="1:238" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
@@ -20963,7 +20943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="AB13" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:Z11"/>
     </sheetView>
   </sheetViews>
@@ -23365,7 +23345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AD17" workbookViewId="0">
       <selection activeCell="X11" sqref="B3:X11"/>
     </sheetView>
   </sheetViews>
@@ -24499,34 +24479,34 @@
         <v>Kommentare der Befragten:
 (schriftlich oder mündlich)</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="35"/>
-      <c r="T13" s="35"/>
-      <c r="U13" s="35"/>
-      <c r="V13" s="35"/>
-      <c r="W13" s="35"/>
-      <c r="X13" s="35"/>
-      <c r="Y13" s="35"/>
-      <c r="Z13" s="35"/>
-      <c r="AA13" s="35"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="39"/>
+      <c r="Y13" s="39"/>
+      <c r="Z13" s="39"/>
+      <c r="AA13" s="39"/>
       <c r="AB13" s="28"/>
       <c r="AC13" s="28"/>
       <c r="AD13" s="28"/>
@@ -24538,34 +24518,34 @@
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="35"/>
-      <c r="T14" s="35"/>
-      <c r="U14" s="35"/>
-      <c r="V14" s="35"/>
-      <c r="W14" s="35"/>
-      <c r="X14" s="35"/>
-      <c r="Y14" s="35"/>
-      <c r="Z14" s="35"/>
-      <c r="AA14" s="35"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="39"/>
+      <c r="U14" s="39"/>
+      <c r="V14" s="39"/>
+      <c r="W14" s="39"/>
+      <c r="X14" s="39"/>
+      <c r="Y14" s="39"/>
+      <c r="Z14" s="39"/>
+      <c r="AA14" s="39"/>
       <c r="AB14" s="28"/>
       <c r="AC14" s="28"/>
       <c r="AD14" s="28"/>
@@ -25965,7 +25945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="AB13" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:V11"/>
     </sheetView>
   </sheetViews>
@@ -32829,59 +32809,59 @@
         <v>Kommentare der Befragten:
 (schriftlich oder mündlich)</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="35"/>
-      <c r="T13" s="35"/>
-      <c r="U13" s="35"/>
-      <c r="V13" s="35"/>
-      <c r="W13" s="35"/>
-      <c r="X13" s="35"/>
-      <c r="Y13" s="35"/>
-      <c r="Z13" s="35"/>
-      <c r="AA13" s="35"/>
-      <c r="AB13" s="35"/>
-      <c r="AC13" s="35"/>
-      <c r="AD13" s="35"/>
-      <c r="AE13" s="35"/>
-      <c r="AF13" s="35"/>
-      <c r="AG13" s="35"/>
-      <c r="AH13" s="35"/>
-      <c r="AI13" s="35"/>
-      <c r="AJ13" s="35"/>
-      <c r="AK13" s="35"/>
-      <c r="AL13" s="35"/>
-      <c r="AM13" s="35"/>
-      <c r="AN13" s="35"/>
-      <c r="AO13" s="35"/>
-      <c r="AP13" s="35"/>
-      <c r="AQ13" s="35"/>
-      <c r="AR13" s="35"/>
-      <c r="AS13" s="35"/>
-      <c r="AT13" s="35"/>
-      <c r="AU13" s="35"/>
-      <c r="AV13" s="35"/>
-      <c r="AW13" s="35"/>
-      <c r="AX13" s="35"/>
-      <c r="AY13" s="35"/>
-      <c r="AZ13" s="35"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="39"/>
+      <c r="Y13" s="39"/>
+      <c r="Z13" s="39"/>
+      <c r="AA13" s="39"/>
+      <c r="AB13" s="39"/>
+      <c r="AC13" s="39"/>
+      <c r="AD13" s="39"/>
+      <c r="AE13" s="39"/>
+      <c r="AF13" s="39"/>
+      <c r="AG13" s="39"/>
+      <c r="AH13" s="39"/>
+      <c r="AI13" s="39"/>
+      <c r="AJ13" s="39"/>
+      <c r="AK13" s="39"/>
+      <c r="AL13" s="39"/>
+      <c r="AM13" s="39"/>
+      <c r="AN13" s="39"/>
+      <c r="AO13" s="39"/>
+      <c r="AP13" s="39"/>
+      <c r="AQ13" s="39"/>
+      <c r="AR13" s="39"/>
+      <c r="AS13" s="39"/>
+      <c r="AT13" s="39"/>
+      <c r="AU13" s="39"/>
+      <c r="AV13" s="39"/>
+      <c r="AW13" s="39"/>
+      <c r="AX13" s="39"/>
+      <c r="AY13" s="39"/>
+      <c r="AZ13" s="39"/>
     </row>
     <row r="14" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
@@ -35475,11 +35455,11 @@
         <v>4</v>
       </c>
       <c r="AD7" s="8">
-        <f t="shared" ref="AD6:AD9" si="11">Z7-Y7</f>
+        <f t="shared" ref="AD7:AD9" si="11">Z7-Y7</f>
         <v>1</v>
       </c>
       <c r="AE7" s="8">
-        <f t="shared" ref="AE5:AE9" si="12">AA7-Z7</f>
+        <f t="shared" ref="AE7:AE9" si="12">AA7-Z7</f>
         <v>0.5</v>
       </c>
       <c r="AF7" s="8">
@@ -37498,7 +37478,7 @@
         <v>0.9</v>
       </c>
       <c r="AX5" s="8">
-        <f t="shared" ref="AX5:AX11" si="9">AT5-AS5</f>
+        <f t="shared" ref="AX5:AX10" si="9">AT5-AS5</f>
         <v>2</v>
       </c>
     </row>
@@ -37648,11 +37628,11 @@
         <v>4</v>
       </c>
       <c r="AU6" s="8">
-        <f t="shared" ref="AU5:AU11" si="10">AQ6-AP6</f>
+        <f t="shared" ref="AU6:AU11" si="10">AQ6-AP6</f>
         <v>1</v>
       </c>
       <c r="AV6" s="8">
-        <f t="shared" ref="AV5:AV11" si="11">AR6-AQ6</f>
+        <f t="shared" ref="AV6:AV10" si="11">AR6-AQ6</f>
         <v>1</v>
       </c>
       <c r="AW6" s="8">
@@ -38131,7 +38111,7 @@
         <v>1</v>
       </c>
       <c r="AW9" s="8">
-        <f t="shared" ref="AW5:AW11" si="12">AS9-AR9</f>
+        <f t="shared" ref="AW9:AW10" si="12">AS9-AR9</f>
         <v>0.25</v>
       </c>
       <c r="AX9" s="8">
